--- a/name/vnindex/20221216/VNINDEX_HOSE_5p_20221216.xlsx
+++ b/name/vnindex/20221216/VNINDEX_HOSE_5p_20221216.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2557 +454,6057 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1671182100000</v>
+        <v>1671182040000</v>
       </c>
       <c r="B2">
-        <v>13913700</v>
+        <v>6867700</v>
       </c>
       <c r="C2">
-        <v>13497700</v>
+        <v>3855100</v>
       </c>
       <c r="D2">
-        <v>5220700</v>
+        <v>5083800</v>
       </c>
       <c r="E2">
-        <v>228857621000</v>
+        <v>111978878000</v>
       </c>
       <c r="F2">
-        <v>205692281000</v>
+        <v>48406763000</v>
       </c>
       <c r="G2">
-        <v>77797266000</v>
+        <v>75705805000</v>
       </c>
       <c r="H2">
-        <v>32632100</v>
+        <v>15806600</v>
       </c>
       <c r="I2">
-        <v>512347168000</v>
+        <v>236091446000</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-16T09:15:00.000Z</v>
+        <v>2022-12-16T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>512347168000</v>
+        <v>236091446000</v>
       </c>
       <c r="L2">
-        <v>32632100</v>
+        <v>15806600</v>
       </c>
       <c r="M2">
-        <v>-416000</v>
+        <v>-3012600</v>
       </c>
       <c r="N2">
-        <v>-23165340000</v>
+        <v>-63572115000</v>
       </c>
       <c r="O2">
-        <v>-416000</v>
+        <v>-3012600</v>
       </c>
       <c r="P2">
-        <v>-23165340000</v>
+        <v>-63572115000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1671182400000</v>
+        <v>1671182160000</v>
       </c>
       <c r="B3">
-        <v>7875100</v>
+        <v>4296000</v>
       </c>
       <c r="C3">
-        <v>9261400</v>
+        <v>4342600</v>
       </c>
       <c r="D3">
-        <v>85700</v>
+        <v>97800</v>
       </c>
       <c r="E3">
-        <v>133504721000</v>
+        <v>71876629000</v>
       </c>
       <c r="F3">
-        <v>155245458000</v>
+        <v>71080175000</v>
       </c>
       <c r="G3">
-        <v>1628095000</v>
+        <v>1453124000</v>
       </c>
       <c r="H3">
-        <v>17222200</v>
+        <v>8736400</v>
       </c>
       <c r="I3">
-        <v>290378274000</v>
+        <v>144409928000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-16T09:20:00.000Z</v>
+        <v>2022-12-16T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>802725442000</v>
+        <v>380501374000</v>
       </c>
       <c r="L3">
-        <v>49854300</v>
+        <v>24543000</v>
       </c>
       <c r="M3">
-        <v>1386300</v>
+        <v>46600</v>
       </c>
       <c r="N3">
-        <v>21740737000</v>
+        <v>-796454000</v>
       </c>
       <c r="O3">
-        <v>970300</v>
+        <v>-2966000</v>
       </c>
       <c r="P3">
-        <v>-1424603000</v>
+        <v>-64368569000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1671182700000</v>
+        <v>1671182280000</v>
       </c>
       <c r="B4">
-        <v>7421300</v>
+        <v>2750000</v>
       </c>
       <c r="C4">
-        <v>6540600</v>
+        <v>5300000</v>
       </c>
       <c r="D4">
-        <v>41100</v>
+        <v>39100</v>
       </c>
       <c r="E4">
-        <v>123689635000</v>
+        <v>45002114000</v>
       </c>
       <c r="F4">
-        <v>109731036000</v>
+        <v>86205343000</v>
       </c>
       <c r="G4">
-        <v>514164000</v>
+        <v>638337000</v>
       </c>
       <c r="H4">
-        <v>14003000</v>
+        <v>8089100</v>
       </c>
       <c r="I4">
-        <v>233934835000</v>
+        <v>131845794000</v>
       </c>
       <c r="J4" t="str">
-        <v>2022-12-16T09:25:00.000Z</v>
+        <v>2022-12-16T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>1036660277000</v>
+        <v>512347168000</v>
       </c>
       <c r="L4">
-        <v>63857300</v>
+        <v>32632100</v>
       </c>
       <c r="M4">
-        <v>-880700</v>
+        <v>2550000</v>
       </c>
       <c r="N4">
-        <v>-13958599000</v>
+        <v>41203229000</v>
       </c>
       <c r="O4">
-        <v>89600</v>
+        <v>-416000</v>
       </c>
       <c r="P4">
-        <v>-15383202000</v>
+        <v>-23165340000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1671183000000</v>
+        <v>1671182400000</v>
       </c>
       <c r="B5">
-        <v>5037600</v>
+        <v>3148800</v>
       </c>
       <c r="C5">
-        <v>21730500</v>
+        <v>4514100</v>
       </c>
       <c r="D5">
-        <v>97700</v>
+        <v>51700</v>
       </c>
       <c r="E5">
-        <v>86351453000</v>
+        <v>53989281000</v>
       </c>
       <c r="F5">
-        <v>345225506000</v>
+        <v>75043412000</v>
       </c>
       <c r="G5">
-        <v>1430907000</v>
+        <v>1081760000</v>
       </c>
       <c r="H5">
-        <v>26865800</v>
+        <v>7714600</v>
       </c>
       <c r="I5">
-        <v>433007866000</v>
+        <v>130114453000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-16T09:30:00.000Z</v>
+        <v>2022-12-16T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1469668143000</v>
+        <v>642461621000</v>
       </c>
       <c r="L5">
-        <v>90723100</v>
+        <v>40346700</v>
       </c>
       <c r="M5">
-        <v>16692900</v>
+        <v>1365300</v>
       </c>
       <c r="N5">
-        <v>258874053000</v>
+        <v>21054131000</v>
       </c>
       <c r="O5">
-        <v>16782500</v>
+        <v>949300</v>
       </c>
       <c r="P5">
-        <v>243490851000</v>
+        <v>-2111209000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1671183300000</v>
+        <v>1671182520000</v>
       </c>
       <c r="B6">
-        <v>10387600</v>
+        <v>3280600</v>
       </c>
       <c r="C6">
-        <v>20497400</v>
+        <v>3317900</v>
       </c>
       <c r="D6">
-        <v>222000</v>
+        <v>15700</v>
       </c>
       <c r="E6">
-        <v>182389695000</v>
+        <v>58348054000</v>
       </c>
       <c r="F6">
-        <v>331682602000</v>
+        <v>57835756000</v>
       </c>
       <c r="G6">
-        <v>3457608000</v>
+        <v>237405000</v>
       </c>
       <c r="H6">
-        <v>31107000</v>
+        <v>6614200</v>
       </c>
       <c r="I6">
-        <v>517529905000</v>
+        <v>116421215000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-16T09:35:00.000Z</v>
+        <v>2022-12-16T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1987198048000</v>
+        <v>758882836000</v>
       </c>
       <c r="L6">
-        <v>121830100</v>
+        <v>46960900</v>
       </c>
       <c r="M6">
-        <v>10109800</v>
+        <v>37300</v>
       </c>
       <c r="N6">
-        <v>149292907000</v>
+        <v>-512298000</v>
       </c>
       <c r="O6">
-        <v>26892300</v>
+        <v>986600</v>
       </c>
       <c r="P6">
-        <v>392783758000</v>
+        <v>-2623507000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1671183600000</v>
+        <v>1671182640000</v>
       </c>
       <c r="B7">
-        <v>9536000</v>
+        <v>3596300</v>
       </c>
       <c r="C7">
-        <v>7531500</v>
+        <v>2448900</v>
       </c>
       <c r="D7">
-        <v>64100</v>
+        <v>45500</v>
       </c>
       <c r="E7">
-        <v>161260965000</v>
+        <v>55577671000</v>
       </c>
       <c r="F7">
-        <v>131507499000</v>
+        <v>39572269000</v>
       </c>
       <c r="G7">
-        <v>999015000</v>
+        <v>572204000</v>
       </c>
       <c r="H7">
-        <v>17131600</v>
+        <v>6090700</v>
       </c>
       <c r="I7">
-        <v>293767479000</v>
+        <v>95722144000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-16T09:40:00.000Z</v>
+        <v>2022-12-16T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>2280965527000</v>
+        <v>854604980000</v>
       </c>
       <c r="L7">
-        <v>138961700</v>
+        <v>53051600</v>
       </c>
       <c r="M7">
-        <v>-2004500</v>
+        <v>-1147400</v>
       </c>
       <c r="N7">
-        <v>-29753466000</v>
+        <v>-16005402000</v>
       </c>
       <c r="O7">
-        <v>24887800</v>
+        <v>-160800</v>
       </c>
       <c r="P7">
-        <v>363030292000</v>
+        <v>-18628909000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1671183900000</v>
+        <v>1671182760000</v>
       </c>
       <c r="B8">
-        <v>4757000</v>
+        <v>2861000</v>
       </c>
       <c r="C8">
-        <v>20736200</v>
+        <v>2354700</v>
       </c>
       <c r="D8">
-        <v>17200</v>
+        <v>5800</v>
       </c>
       <c r="E8">
-        <v>81282195000</v>
+        <v>46083317000</v>
       </c>
       <c r="F8">
-        <v>334011603000</v>
+        <v>39594218000</v>
       </c>
       <c r="G8">
-        <v>305087000</v>
+        <v>74332000</v>
       </c>
       <c r="H8">
-        <v>25510400</v>
+        <v>5221500</v>
       </c>
       <c r="I8">
-        <v>415598885000</v>
+        <v>85751867000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-16T09:45:00.000Z</v>
+        <v>2022-12-16T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>2696564412000</v>
+        <v>940356847000</v>
       </c>
       <c r="L8">
-        <v>164472100</v>
+        <v>58273100</v>
       </c>
       <c r="M8">
-        <v>15979200</v>
+        <v>-506300</v>
       </c>
       <c r="N8">
-        <v>252729408000</v>
+        <v>-6489099000</v>
       </c>
       <c r="O8">
-        <v>40867000</v>
+        <v>-667100</v>
       </c>
       <c r="P8">
-        <v>615759700000</v>
+        <v>-25118008000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1671184200000</v>
+        <v>1671182880000</v>
       </c>
       <c r="B9">
-        <v>5022800</v>
+        <v>2409700</v>
       </c>
       <c r="C9">
-        <v>11559100</v>
+        <v>3166400</v>
       </c>
       <c r="D9">
-        <v>51300</v>
+        <v>8100</v>
       </c>
       <c r="E9">
-        <v>90787427000</v>
+        <v>43196033000</v>
       </c>
       <c r="F9">
-        <v>201018424000</v>
+        <v>52930839000</v>
       </c>
       <c r="G9">
-        <v>658889000</v>
+        <v>176558000</v>
       </c>
       <c r="H9">
-        <v>16633200</v>
+        <v>5584200</v>
       </c>
       <c r="I9">
-        <v>292464740000</v>
+        <v>96303430000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-16T09:50:00.000Z</v>
+        <v>2022-12-16T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2989029152000</v>
+        <v>1036660277000</v>
       </c>
       <c r="L9">
-        <v>181105300</v>
+        <v>63857300</v>
       </c>
       <c r="M9">
-        <v>6536300</v>
+        <v>756700</v>
       </c>
       <c r="N9">
-        <v>110230997000</v>
+        <v>9734806000</v>
       </c>
       <c r="O9">
-        <v>47403300</v>
+        <v>89600</v>
       </c>
       <c r="P9">
-        <v>725990697000</v>
+        <v>-15383202000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1671184500000</v>
+        <v>1671183000000</v>
       </c>
       <c r="B10">
-        <v>7780300</v>
+        <v>1785900</v>
       </c>
       <c r="C10">
-        <v>8594600</v>
+        <v>4668700</v>
       </c>
       <c r="D10">
-        <v>34700</v>
+        <v>7600</v>
       </c>
       <c r="E10">
-        <v>133686440000</v>
+        <v>31130450000</v>
       </c>
       <c r="F10">
-        <v>153119064000</v>
+        <v>68936324000</v>
       </c>
       <c r="G10">
-        <v>646457000</v>
+        <v>111905000</v>
       </c>
       <c r="H10">
-        <v>16409600</v>
+        <v>6462200</v>
       </c>
       <c r="I10">
-        <v>287451961000</v>
+        <v>100178679000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-16T09:55:00.000Z</v>
+        <v>2022-12-16T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>3276481113000</v>
+        <v>1136838956000</v>
       </c>
       <c r="L10">
-        <v>197514900</v>
+        <v>70319500</v>
       </c>
       <c r="M10">
-        <v>814300</v>
+        <v>2882800</v>
       </c>
       <c r="N10">
-        <v>19432624000</v>
+        <v>37805874000</v>
       </c>
       <c r="O10">
-        <v>48217600</v>
+        <v>2972400</v>
       </c>
       <c r="P10">
-        <v>745423321000</v>
+        <v>22422672000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1671184800000</v>
+        <v>1671183120000</v>
       </c>
       <c r="B11">
-        <v>7451900</v>
+        <v>2202800</v>
       </c>
       <c r="C11">
-        <v>5009200</v>
+        <v>11680700</v>
       </c>
       <c r="D11">
-        <v>18000</v>
+        <v>79800</v>
       </c>
       <c r="E11">
-        <v>126423614000</v>
+        <v>37229760000</v>
       </c>
       <c r="F11">
-        <v>82144650000</v>
+        <v>185344794000</v>
       </c>
       <c r="G11">
-        <v>498510000</v>
+        <v>1168900000</v>
       </c>
       <c r="H11">
-        <v>12479100</v>
+        <v>13963300</v>
       </c>
       <c r="I11">
-        <v>209066774000</v>
+        <v>223743454000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-16T10:00:00.000Z</v>
+        <v>2022-12-16T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>3485547887000</v>
+        <v>1360582410000</v>
       </c>
       <c r="L11">
-        <v>209994000</v>
+        <v>84282800</v>
       </c>
       <c r="M11">
-        <v>-2442700</v>
+        <v>9477900</v>
       </c>
       <c r="N11">
-        <v>-44278964000</v>
+        <v>148115034000</v>
       </c>
       <c r="O11">
-        <v>45774900</v>
+        <v>12450300</v>
       </c>
       <c r="P11">
-        <v>701144357000</v>
+        <v>170537706000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1671185100000</v>
+        <v>1671183240000</v>
       </c>
       <c r="B12">
-        <v>5708100</v>
+        <v>2438900</v>
       </c>
       <c r="C12">
-        <v>5932800</v>
+        <v>11315600</v>
       </c>
       <c r="D12">
-        <v>51800</v>
+        <v>147000</v>
       </c>
       <c r="E12">
-        <v>99466922000</v>
+        <v>42295915000</v>
       </c>
       <c r="F12">
-        <v>98661302000</v>
+        <v>187401121000</v>
       </c>
       <c r="G12">
-        <v>689055000</v>
+        <v>2273633000</v>
       </c>
       <c r="H12">
-        <v>11692700</v>
+        <v>13901500</v>
       </c>
       <c r="I12">
-        <v>198817279000</v>
+        <v>231970669000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-16T10:05:00.000Z</v>
+        <v>2022-12-16T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>3684365166000</v>
+        <v>1592553079000</v>
       </c>
       <c r="L12">
-        <v>221686700</v>
+        <v>98184300</v>
       </c>
       <c r="M12">
-        <v>224700</v>
+        <v>8876700</v>
       </c>
       <c r="N12">
-        <v>-805620000</v>
+        <v>145105206000</v>
       </c>
       <c r="O12">
-        <v>45999600</v>
+        <v>21327000</v>
       </c>
       <c r="P12">
-        <v>700338737000</v>
+        <v>315642912000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1671185400000</v>
+        <v>1671183360000</v>
       </c>
       <c r="B13">
-        <v>4530700</v>
+        <v>3991600</v>
       </c>
       <c r="C13">
-        <v>10172300</v>
+        <v>9875300</v>
       </c>
       <c r="D13">
-        <v>19600</v>
+        <v>72500</v>
       </c>
       <c r="E13">
-        <v>80195365000</v>
+        <v>71855183000</v>
       </c>
       <c r="F13">
-        <v>156132894000</v>
+        <v>162270342000</v>
       </c>
       <c r="G13">
-        <v>318116000</v>
+        <v>1029677000</v>
       </c>
       <c r="H13">
-        <v>14722600</v>
+        <v>13939400</v>
       </c>
       <c r="I13">
-        <v>236646375000</v>
+        <v>235155202000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-16T10:10:00.000Z</v>
+        <v>2022-12-16T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>3921011541000</v>
+        <v>1827708281000</v>
       </c>
       <c r="L13">
-        <v>236409300</v>
+        <v>112123700</v>
       </c>
       <c r="M13">
-        <v>5641600</v>
+        <v>5883700</v>
       </c>
       <c r="N13">
-        <v>75937529000</v>
+        <v>90415159000</v>
       </c>
       <c r="O13">
-        <v>51641200</v>
+        <v>27210700</v>
       </c>
       <c r="P13">
-        <v>776276266000</v>
+        <v>406058071000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1671185700000</v>
+        <v>1671183480000</v>
       </c>
       <c r="B14">
-        <v>5115400</v>
+        <v>5006000</v>
       </c>
       <c r="C14">
-        <v>16638800</v>
+        <v>4687600</v>
       </c>
       <c r="D14">
-        <v>83800</v>
+        <v>12800</v>
       </c>
       <c r="E14">
-        <v>88648139000</v>
+        <v>86229840000</v>
       </c>
       <c r="F14">
-        <v>269962756000</v>
+        <v>72955527000</v>
       </c>
       <c r="G14">
-        <v>1600625000</v>
+        <v>304400000</v>
       </c>
       <c r="H14">
-        <v>21838000</v>
+        <v>9706400</v>
       </c>
       <c r="I14">
-        <v>360211520000</v>
+        <v>159489767000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-16T10:15:00.000Z</v>
+        <v>2022-12-16T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>4281223061000</v>
+        <v>1987198048000</v>
       </c>
       <c r="L14">
-        <v>258247300</v>
+        <v>121830100</v>
       </c>
       <c r="M14">
-        <v>11523400</v>
+        <v>-318400</v>
       </c>
       <c r="N14">
-        <v>181314617000</v>
+        <v>-13274313000</v>
       </c>
       <c r="O14">
-        <v>63164600</v>
+        <v>26892300</v>
       </c>
       <c r="P14">
-        <v>957590883000</v>
+        <v>392783758000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1671186000000</v>
+        <v>1671183600000</v>
       </c>
       <c r="B15">
-        <v>6770400</v>
+        <v>4094900</v>
       </c>
       <c r="C15">
-        <v>18316800</v>
+        <v>2510800</v>
       </c>
       <c r="D15">
-        <v>67400</v>
+        <v>12300</v>
       </c>
       <c r="E15">
-        <v>107479496000</v>
+        <v>72199534000</v>
       </c>
       <c r="F15">
-        <v>294017493000</v>
+        <v>43079243000</v>
       </c>
       <c r="G15">
-        <v>1405988000</v>
+        <v>210136000</v>
       </c>
       <c r="H15">
-        <v>25154600</v>
+        <v>6618000</v>
       </c>
       <c r="I15">
-        <v>402902977000</v>
+        <v>115488913000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-16T10:20:00.000Z</v>
+        <v>2022-12-16T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>4684126038000</v>
+        <v>2102686961000</v>
       </c>
       <c r="L15">
-        <v>283401900</v>
+        <v>128448100</v>
       </c>
       <c r="M15">
-        <v>11546400</v>
+        <v>-1584100</v>
       </c>
       <c r="N15">
-        <v>186537997000</v>
+        <v>-29120291000</v>
       </c>
       <c r="O15">
-        <v>74711000</v>
+        <v>25308200</v>
       </c>
       <c r="P15">
-        <v>1144128880000</v>
+        <v>363663467000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1671186300000</v>
+        <v>1671183720000</v>
       </c>
       <c r="B16">
-        <v>7444000</v>
+        <v>3900800</v>
       </c>
       <c r="C16">
-        <v>8494800</v>
+        <v>3234600</v>
       </c>
       <c r="D16">
-        <v>65400</v>
+        <v>49000</v>
       </c>
       <c r="E16">
-        <v>118980864000</v>
+        <v>64398881000</v>
       </c>
       <c r="F16">
-        <v>144427954000</v>
+        <v>56535226000</v>
       </c>
       <c r="G16">
-        <v>954786000</v>
+        <v>570479000</v>
       </c>
       <c r="H16">
-        <v>16004200</v>
+        <v>7184400</v>
       </c>
       <c r="I16">
-        <v>264363604000</v>
+        <v>121504586000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-16T10:25:00.000Z</v>
+        <v>2022-12-16T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>4948489642000</v>
+        <v>2224191547000</v>
       </c>
       <c r="L16">
-        <v>299406100</v>
+        <v>135632500</v>
       </c>
       <c r="M16">
-        <v>1050800</v>
+        <v>-666200</v>
       </c>
       <c r="N16">
-        <v>25447090000</v>
+        <v>-7863655000</v>
       </c>
       <c r="O16">
-        <v>75761800</v>
+        <v>24642000</v>
       </c>
       <c r="P16">
-        <v>1169575970000</v>
+        <v>355799812000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1671186600000</v>
+        <v>1671183840000</v>
       </c>
       <c r="B17">
-        <v>9474100</v>
+        <v>2591600</v>
       </c>
       <c r="C17">
-        <v>4497900</v>
+        <v>4867400</v>
       </c>
       <c r="D17">
-        <v>55200</v>
+        <v>4100</v>
       </c>
       <c r="E17">
-        <v>162008946000</v>
+        <v>41757694000</v>
       </c>
       <c r="F17">
-        <v>74120832000</v>
+        <v>86434993000</v>
       </c>
       <c r="G17">
-        <v>1080450000</v>
+        <v>232860000</v>
       </c>
       <c r="H17">
-        <v>14027200</v>
+        <v>7463100</v>
       </c>
       <c r="I17">
-        <v>237210228000</v>
+        <v>128425547000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-16T10:30:00.000Z</v>
+        <v>2022-12-16T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>5185699870000</v>
+        <v>2352617094000</v>
       </c>
       <c r="L17">
-        <v>313433300</v>
+        <v>143095600</v>
       </c>
       <c r="M17">
-        <v>-4976200</v>
+        <v>2275800</v>
       </c>
       <c r="N17">
-        <v>-87888114000</v>
+        <v>44677299000</v>
       </c>
       <c r="O17">
-        <v>70785600</v>
+        <v>26917800</v>
       </c>
       <c r="P17">
-        <v>1081687856000</v>
+        <v>400477111000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1671186900000</v>
+        <v>1671183960000</v>
       </c>
       <c r="B18">
-        <v>7708100</v>
+        <v>2193100</v>
       </c>
       <c r="C18">
-        <v>3691000</v>
+        <v>7911400</v>
       </c>
       <c r="D18">
-        <v>43100</v>
+        <v>12500</v>
       </c>
       <c r="E18">
-        <v>134064495000</v>
+        <v>36874667000</v>
       </c>
       <c r="F18">
-        <v>68478799000</v>
+        <v>127862468000</v>
       </c>
       <c r="G18">
-        <v>844959000</v>
+        <v>147176000</v>
       </c>
       <c r="H18">
-        <v>11442200</v>
+        <v>10117000</v>
       </c>
       <c r="I18">
-        <v>203388253000</v>
+        <v>164884311000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-16T10:35:00.000Z</v>
+        <v>2022-12-16T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>5389088123000</v>
+        <v>2517501405000</v>
       </c>
       <c r="L18">
-        <v>324875500</v>
+        <v>153212600</v>
       </c>
       <c r="M18">
-        <v>-4017100</v>
+        <v>5718300</v>
       </c>
       <c r="N18">
-        <v>-65585696000</v>
+        <v>90987801000</v>
       </c>
       <c r="O18">
-        <v>66768500</v>
+        <v>32636100</v>
       </c>
       <c r="P18">
-        <v>1016102160000</v>
+        <v>491464912000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1671187200000</v>
+        <v>1671184080000</v>
       </c>
       <c r="B19">
-        <v>5619500</v>
+        <v>1512600</v>
       </c>
       <c r="C19">
-        <v>2810100</v>
+        <v>9743500</v>
       </c>
       <c r="D19">
-        <v>28900</v>
+        <v>3400</v>
       </c>
       <c r="E19">
-        <v>95064841000</v>
+        <v>27312384000</v>
       </c>
       <c r="F19">
-        <v>52666199000</v>
+        <v>151607172000</v>
       </c>
       <c r="G19">
-        <v>442600000</v>
+        <v>143451000</v>
       </c>
       <c r="H19">
-        <v>8458500</v>
+        <v>11259500</v>
       </c>
       <c r="I19">
-        <v>148173640000</v>
+        <v>179063007000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-16T10:40:00.000Z</v>
+        <v>2022-12-16T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>5537261763000</v>
+        <v>2696564412000</v>
       </c>
       <c r="L19">
-        <v>333334000</v>
+        <v>164472100</v>
       </c>
       <c r="M19">
-        <v>-2809400</v>
+        <v>8230900</v>
       </c>
       <c r="N19">
-        <v>-42398642000</v>
+        <v>124294788000</v>
       </c>
       <c r="O19">
-        <v>63959100</v>
+        <v>40867000</v>
       </c>
       <c r="P19">
-        <v>973703518000</v>
+        <v>615759700000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1671187500000</v>
+        <v>1671184200000</v>
       </c>
       <c r="B20">
-        <v>6286600</v>
+        <v>2015000</v>
       </c>
       <c r="C20">
-        <v>2928400</v>
+        <v>4907600</v>
       </c>
       <c r="D20">
-        <v>34500</v>
+        <v>4100</v>
       </c>
       <c r="E20">
-        <v>104895691000</v>
+        <v>34998397000</v>
       </c>
       <c r="F20">
-        <v>60269007000</v>
+        <v>84138769000</v>
       </c>
       <c r="G20">
-        <v>502382000</v>
+        <v>91094000</v>
       </c>
       <c r="H20">
-        <v>9249500</v>
+        <v>6926700</v>
       </c>
       <c r="I20">
-        <v>165667080000</v>
+        <v>119228260000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-16T10:45:00.000Z</v>
+        <v>2022-12-16T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>5702928843000</v>
+        <v>2815792672000</v>
       </c>
       <c r="L20">
-        <v>342583500</v>
+        <v>171398800</v>
       </c>
       <c r="M20">
-        <v>-3358200</v>
+        <v>2892600</v>
       </c>
       <c r="N20">
-        <v>-44626684000</v>
+        <v>49140372000</v>
       </c>
       <c r="O20">
-        <v>60600900</v>
+        <v>43759600</v>
       </c>
       <c r="P20">
-        <v>929076834000</v>
+        <v>664900072000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1671187800000</v>
+        <v>1671184320000</v>
       </c>
       <c r="B21">
-        <v>5496100</v>
+        <v>1824300</v>
       </c>
       <c r="C21">
-        <v>2766000</v>
+        <v>4666700</v>
       </c>
       <c r="D21">
-        <v>25700</v>
+        <v>46300</v>
       </c>
       <c r="E21">
-        <v>97284693000</v>
+        <v>34439010000</v>
       </c>
       <c r="F21">
-        <v>47712246000</v>
+        <v>82762298000</v>
       </c>
       <c r="G21">
-        <v>385807000</v>
+        <v>535575000</v>
       </c>
       <c r="H21">
-        <v>8287800</v>
+        <v>6537300</v>
       </c>
       <c r="I21">
-        <v>145382746000</v>
+        <v>117736883000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-16T10:50:00.000Z</v>
+        <v>2022-12-16T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>5848311589000</v>
+        <v>2933529555000</v>
       </c>
       <c r="L21">
-        <v>350871300</v>
+        <v>177936100</v>
       </c>
       <c r="M21">
-        <v>-2730100</v>
+        <v>2842400</v>
       </c>
       <c r="N21">
-        <v>-49572447000</v>
+        <v>48323288000</v>
       </c>
       <c r="O21">
-        <v>57870800</v>
+        <v>46602000</v>
       </c>
       <c r="P21">
-        <v>879504387000</v>
+        <v>713223360000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1671188100000</v>
+        <v>1671184440000</v>
       </c>
       <c r="B22">
-        <v>2319500</v>
+        <v>3364800</v>
       </c>
       <c r="C22">
-        <v>4771500</v>
+        <v>4178200</v>
       </c>
       <c r="D22">
-        <v>28100</v>
+        <v>18200</v>
       </c>
       <c r="E22">
-        <v>40191810000</v>
+        <v>58437951000</v>
       </c>
       <c r="F22">
-        <v>86306787000</v>
+        <v>72293928000</v>
       </c>
       <c r="G22">
-        <v>516395000</v>
+        <v>213597000</v>
       </c>
       <c r="H22">
-        <v>7119100</v>
+        <v>7561200</v>
       </c>
       <c r="I22">
-        <v>127014992000</v>
+        <v>130945476000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-16T10:55:00.000Z</v>
+        <v>2022-12-16T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>5975326581000</v>
+        <v>3064475031000</v>
       </c>
       <c r="L22">
-        <v>357990400</v>
+        <v>185497300</v>
       </c>
       <c r="M22">
-        <v>2452000</v>
+        <v>813400</v>
       </c>
       <c r="N22">
-        <v>46114977000</v>
+        <v>13855977000</v>
       </c>
       <c r="O22">
-        <v>60322800</v>
+        <v>47415400</v>
       </c>
       <c r="P22">
-        <v>925619364000</v>
+        <v>727079337000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1671188400000</v>
+        <v>1671184560000</v>
       </c>
       <c r="B23">
-        <v>2854900</v>
+        <v>3141600</v>
       </c>
       <c r="C23">
-        <v>2224100</v>
+        <v>3518000</v>
       </c>
       <c r="D23">
-        <v>38600</v>
+        <v>7200</v>
       </c>
       <c r="E23">
-        <v>52721901000</v>
+        <v>50108726000</v>
       </c>
       <c r="F23">
-        <v>37332622000</v>
+        <v>65737625000</v>
       </c>
       <c r="G23">
-        <v>614663000</v>
+        <v>204017000</v>
       </c>
       <c r="H23">
-        <v>5117600</v>
+        <v>6666800</v>
       </c>
       <c r="I23">
-        <v>90669186000</v>
+        <v>116050368000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-16T11:00:00.000Z</v>
+        <v>2022-12-16T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>6065995767000</v>
+        <v>3180525399000</v>
       </c>
       <c r="L23">
-        <v>363108000</v>
+        <v>192164100</v>
       </c>
       <c r="M23">
-        <v>-630800</v>
+        <v>376400</v>
       </c>
       <c r="N23">
-        <v>-15389279000</v>
+        <v>15628899000</v>
       </c>
       <c r="O23">
-        <v>59692000</v>
+        <v>47791800</v>
       </c>
       <c r="P23">
-        <v>910230085000</v>
+        <v>742708236000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1671188700000</v>
+        <v>1671184680000</v>
       </c>
       <c r="B24">
-        <v>3747400</v>
+        <v>2457400</v>
       </c>
       <c r="C24">
-        <v>3118600</v>
+        <v>2883200</v>
       </c>
       <c r="D24">
-        <v>6600</v>
+        <v>10200</v>
       </c>
       <c r="E24">
-        <v>67192750000</v>
+        <v>46489783000</v>
       </c>
       <c r="F24">
-        <v>59938596000</v>
+        <v>49204868000</v>
       </c>
       <c r="G24">
-        <v>118616000</v>
+        <v>261063000</v>
       </c>
       <c r="H24">
-        <v>6872600</v>
+        <v>5350800</v>
       </c>
       <c r="I24">
-        <v>127249962000</v>
+        <v>95955714000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-16T11:05:00.000Z</v>
+        <v>2022-12-16T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>6193245729000</v>
+        <v>3276481113000</v>
       </c>
       <c r="L24">
-        <v>369980600</v>
+        <v>197514900</v>
       </c>
       <c r="M24">
-        <v>-628800</v>
+        <v>425800</v>
       </c>
       <c r="N24">
-        <v>-7254154000</v>
+        <v>2715085000</v>
       </c>
       <c r="O24">
-        <v>59063200</v>
+        <v>48217600</v>
       </c>
       <c r="P24">
-        <v>902975931000</v>
+        <v>745423321000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1671189000000</v>
+        <v>1671184800000</v>
       </c>
       <c r="B25">
-        <v>4490700</v>
+        <v>2928300</v>
       </c>
       <c r="C25">
-        <v>2112900</v>
+        <v>2255400</v>
       </c>
       <c r="D25">
-        <v>21200</v>
+        <v>11300</v>
       </c>
       <c r="E25">
-        <v>82585261000</v>
+        <v>50153307000</v>
       </c>
       <c r="F25">
-        <v>38125157000</v>
+        <v>35271042000</v>
       </c>
       <c r="G25">
-        <v>232001000</v>
+        <v>298922000</v>
       </c>
       <c r="H25">
-        <v>6624800</v>
+        <v>5195000</v>
       </c>
       <c r="I25">
-        <v>120942419000</v>
+        <v>85723271000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-16T11:10:00.000Z</v>
+        <v>2022-12-16T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>6314188148000</v>
+        <v>3362204384000</v>
       </c>
       <c r="L25">
-        <v>376605400</v>
+        <v>202709900</v>
       </c>
       <c r="M25">
-        <v>-2377800</v>
+        <v>-672900</v>
       </c>
       <c r="N25">
-        <v>-44460104000</v>
+        <v>-14882265000</v>
       </c>
       <c r="O25">
-        <v>56685400</v>
+        <v>47544700</v>
       </c>
       <c r="P25">
-        <v>858515827000</v>
+        <v>730541056000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1671189300000</v>
+        <v>1671184920000</v>
       </c>
       <c r="B26">
-        <v>6044900</v>
+        <v>2968800</v>
       </c>
       <c r="C26">
-        <v>2004900</v>
+        <v>1791900</v>
       </c>
       <c r="D26">
-        <v>16500</v>
+        <v>6600</v>
       </c>
       <c r="E26">
-        <v>103271484000</v>
+        <v>47623268000</v>
       </c>
       <c r="F26">
-        <v>40272787000</v>
+        <v>29089447000</v>
       </c>
       <c r="G26">
-        <v>328358000</v>
+        <v>195673000</v>
       </c>
       <c r="H26">
-        <v>8066300</v>
+        <v>4767300</v>
       </c>
       <c r="I26">
-        <v>143872629000</v>
+        <v>76908388000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-16T11:15:00.000Z</v>
+        <v>2022-12-16T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>6458060777000</v>
+        <v>3439112772000</v>
       </c>
       <c r="L26">
-        <v>384671700</v>
+        <v>207477200</v>
       </c>
       <c r="M26">
-        <v>-4040000</v>
+        <v>-1176900</v>
       </c>
       <c r="N26">
-        <v>-62998697000</v>
+        <v>-18533821000</v>
       </c>
       <c r="O26">
-        <v>52645400</v>
+        <v>46367800</v>
       </c>
       <c r="P26">
-        <v>795517130000</v>
+        <v>712007235000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1671189600000</v>
+        <v>1671185040000</v>
       </c>
       <c r="B27">
-        <v>7364400</v>
+        <v>2634600</v>
       </c>
       <c r="C27">
-        <v>2421100</v>
+        <v>1916200</v>
       </c>
       <c r="D27">
-        <v>31300</v>
+        <v>13200</v>
       </c>
       <c r="E27">
-        <v>117407406000</v>
+        <v>46043199000</v>
       </c>
       <c r="F27">
-        <v>43650011000</v>
+        <v>34440093000</v>
       </c>
       <c r="G27">
-        <v>457707000</v>
+        <v>171096000</v>
       </c>
       <c r="H27">
-        <v>9816800</v>
+        <v>4564000</v>
       </c>
       <c r="I27">
-        <v>161515124000</v>
+        <v>80654388000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-16T11:20:00.000Z</v>
+        <v>2022-12-16T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>6619575901000</v>
+        <v>3519767160000</v>
       </c>
       <c r="L27">
-        <v>394488500</v>
+        <v>212041200</v>
       </c>
       <c r="M27">
-        <v>-4943300</v>
+        <v>-718400</v>
       </c>
       <c r="N27">
-        <v>-73757395000</v>
+        <v>-11603106000</v>
       </c>
       <c r="O27">
-        <v>47702100</v>
+        <v>45649400</v>
       </c>
       <c r="P27">
-        <v>721759735000</v>
+        <v>700404129000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1671189900000</v>
+        <v>1671185160000</v>
       </c>
       <c r="B28">
-        <v>6736500</v>
+        <v>2470200</v>
       </c>
       <c r="C28">
-        <v>2434700</v>
+        <v>2285500</v>
       </c>
       <c r="D28">
-        <v>18800</v>
+        <v>29400</v>
       </c>
       <c r="E28">
-        <v>114749523000</v>
+        <v>41989395000</v>
       </c>
       <c r="F28">
-        <v>41757585000</v>
+        <v>38363591000</v>
       </c>
       <c r="G28">
-        <v>439769000</v>
+        <v>367671000</v>
       </c>
       <c r="H28">
-        <v>9190000</v>
+        <v>4785100</v>
       </c>
       <c r="I28">
-        <v>156946877000</v>
+        <v>80720657000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-16T11:25:00.000Z</v>
+        <v>2022-12-16T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>6776522778000</v>
+        <v>3600487817000</v>
       </c>
       <c r="L28">
-        <v>403678500</v>
+        <v>216826300</v>
       </c>
       <c r="M28">
-        <v>-4301800</v>
+        <v>-184700</v>
       </c>
       <c r="N28">
-        <v>-72991938000</v>
+        <v>-3625804000</v>
       </c>
       <c r="O28">
-        <v>43400300</v>
+        <v>45464700</v>
       </c>
       <c r="P28">
-        <v>648767797000</v>
+        <v>696778325000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1671190200000</v>
+        <v>1671185280000</v>
       </c>
       <c r="B29">
-        <v>37500</v>
+        <v>2158100</v>
       </c>
       <c r="C29">
-        <v>4700</v>
+        <v>2693000</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>9300</v>
       </c>
       <c r="E29">
-        <v>551244000</v>
+        <v>40081367000</v>
       </c>
       <c r="F29">
-        <v>57540000</v>
+        <v>43641779000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>154203000</v>
       </c>
       <c r="H29">
-        <v>42200</v>
+        <v>4860400</v>
       </c>
       <c r="I29">
-        <v>608784000</v>
+        <v>83877349000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-16T11:30:00.000Z</v>
+        <v>2022-12-16T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>6777131562000</v>
+        <v>3684365166000</v>
       </c>
       <c r="L29">
-        <v>403720700</v>
+        <v>221686700</v>
       </c>
       <c r="M29">
-        <v>-32800</v>
+        <v>534900</v>
       </c>
       <c r="N29">
-        <v>-493704000</v>
+        <v>3560412000</v>
       </c>
       <c r="O29">
-        <v>43367500</v>
+        <v>45999600</v>
       </c>
       <c r="P29">
-        <v>648274093000</v>
+        <v>700338737000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1671195600000</v>
+        <v>1671185400000</v>
       </c>
       <c r="B30">
-        <v>10391900</v>
+        <v>1990000</v>
       </c>
       <c r="C30">
-        <v>6770800</v>
+        <v>3505700</v>
       </c>
       <c r="D30">
-        <v>246000</v>
+        <v>2200</v>
       </c>
       <c r="E30">
-        <v>177625500000</v>
+        <v>33995106000</v>
       </c>
       <c r="F30">
-        <v>108405536000</v>
+        <v>49598421000</v>
       </c>
       <c r="G30">
-        <v>3135267000</v>
+        <v>36237000</v>
       </c>
       <c r="H30">
-        <v>17408700</v>
+        <v>5497900</v>
       </c>
       <c r="I30">
-        <v>289166303000</v>
+        <v>83629764000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-16T13:00:00.000Z</v>
+        <v>2022-12-16T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>7066297865000</v>
+        <v>3767994930000</v>
       </c>
       <c r="L30">
-        <v>421129400</v>
+        <v>227184600</v>
       </c>
       <c r="M30">
-        <v>-3621100</v>
+        <v>1515700</v>
       </c>
       <c r="N30">
-        <v>-69219964000</v>
+        <v>15603315000</v>
       </c>
       <c r="O30">
-        <v>39746400</v>
+        <v>47515300</v>
       </c>
       <c r="P30">
-        <v>579054129000</v>
+        <v>715942052000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1671195900000</v>
+        <v>1671185520000</v>
       </c>
       <c r="B31">
-        <v>6688300</v>
+        <v>1516500</v>
       </c>
       <c r="C31">
-        <v>5522100</v>
+        <v>4700500</v>
       </c>
       <c r="D31">
-        <v>104000</v>
+        <v>16300</v>
       </c>
       <c r="E31">
-        <v>123955390000</v>
+        <v>28779599000</v>
       </c>
       <c r="F31">
-        <v>87953260000</v>
+        <v>75067233000</v>
       </c>
       <c r="G31">
-        <v>1216095000</v>
+        <v>257964000</v>
       </c>
       <c r="H31">
-        <v>12314400</v>
+        <v>6233300</v>
       </c>
       <c r="I31">
-        <v>213124745000</v>
+        <v>104104796000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-16T13:05:00.000Z</v>
+        <v>2022-12-16T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>7279422610000</v>
+        <v>3872099726000</v>
       </c>
       <c r="L31">
-        <v>433443800</v>
+        <v>233417900</v>
       </c>
       <c r="M31">
-        <v>-1166200</v>
+        <v>3184000</v>
       </c>
       <c r="N31">
-        <v>-36002130000</v>
+        <v>46287634000</v>
       </c>
       <c r="O31">
-        <v>38580200</v>
+        <v>50699300</v>
       </c>
       <c r="P31">
-        <v>543051999000</v>
+        <v>762229686000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1671196200000</v>
+        <v>1671185640000</v>
       </c>
       <c r="B32">
-        <v>6156500</v>
+        <v>1999200</v>
       </c>
       <c r="C32">
-        <v>5649400</v>
+        <v>5464600</v>
       </c>
       <c r="D32">
-        <v>43900</v>
+        <v>22400</v>
       </c>
       <c r="E32">
-        <v>109611447000</v>
+        <v>33558265000</v>
       </c>
       <c r="F32">
-        <v>74998950000</v>
+        <v>84115470000</v>
       </c>
       <c r="G32">
-        <v>545474000</v>
+        <v>263944000</v>
       </c>
       <c r="H32">
-        <v>11849800</v>
+        <v>7486200</v>
       </c>
       <c r="I32">
-        <v>185155871000</v>
+        <v>117937679000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-16T13:10:00.000Z</v>
+        <v>2022-12-16T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>7464578481000</v>
+        <v>3990037405000</v>
       </c>
       <c r="L32">
-        <v>445293600</v>
+        <v>240904100</v>
       </c>
       <c r="M32">
-        <v>-507100</v>
+        <v>3465400</v>
       </c>
       <c r="N32">
-        <v>-34612497000</v>
+        <v>50557205000</v>
       </c>
       <c r="O32">
-        <v>38073100</v>
+        <v>54164700</v>
       </c>
       <c r="P32">
-        <v>508439502000</v>
+        <v>812786891000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1671196500000</v>
+        <v>1671185760000</v>
       </c>
       <c r="B33">
-        <v>3783900</v>
+        <v>2029900</v>
       </c>
       <c r="C33">
-        <v>7262700</v>
+        <v>5466100</v>
       </c>
       <c r="D33">
-        <v>19600</v>
+        <v>6000</v>
       </c>
       <c r="E33">
-        <v>69592666000</v>
+        <v>37874172000</v>
       </c>
       <c r="F33">
-        <v>125138115000</v>
+        <v>95325320000</v>
       </c>
       <c r="G33">
-        <v>444664000</v>
+        <v>55761000</v>
       </c>
       <c r="H33">
-        <v>11066200</v>
+        <v>7502000</v>
       </c>
       <c r="I33">
-        <v>195175445000</v>
+        <v>133255253000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-16T13:15:00.000Z</v>
+        <v>2022-12-16T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>7659753926000</v>
+        <v>4123292658000</v>
       </c>
       <c r="L33">
-        <v>456359800</v>
+        <v>248406100</v>
       </c>
       <c r="M33">
-        <v>3478800</v>
+        <v>3436200</v>
       </c>
       <c r="N33">
-        <v>55545449000</v>
+        <v>57451148000</v>
       </c>
       <c r="O33">
-        <v>41551900</v>
+        <v>57600900</v>
       </c>
       <c r="P33">
-        <v>563984951000</v>
+        <v>870238039000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1671196800000</v>
+        <v>1671185880000</v>
       </c>
       <c r="B34">
-        <v>4243400</v>
+        <v>2110500</v>
       </c>
       <c r="C34">
-        <v>8397100</v>
+        <v>7674200</v>
       </c>
       <c r="D34">
-        <v>15400</v>
+        <v>56500</v>
       </c>
       <c r="E34">
-        <v>78962360000</v>
+        <v>34636362000</v>
       </c>
       <c r="F34">
-        <v>137908733000</v>
+        <v>121989206000</v>
       </c>
       <c r="G34">
-        <v>574478000</v>
+        <v>1304835000</v>
       </c>
       <c r="H34">
-        <v>12655900</v>
+        <v>9841200</v>
       </c>
       <c r="I34">
-        <v>217445571000</v>
+        <v>157930403000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-16T13:20:00.000Z</v>
+        <v>2022-12-16T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>7877199497000</v>
+        <v>4281223061000</v>
       </c>
       <c r="L34">
-        <v>469015700</v>
+        <v>258247300</v>
       </c>
       <c r="M34">
-        <v>4153700</v>
+        <v>5563700</v>
       </c>
       <c r="N34">
-        <v>58946373000</v>
+        <v>87352844000</v>
       </c>
       <c r="O34">
-        <v>45705600</v>
+        <v>63164600</v>
       </c>
       <c r="P34">
-        <v>622931324000</v>
+        <v>957590883000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1671197100000</v>
+        <v>1671186000000</v>
       </c>
       <c r="B35">
-        <v>7038300</v>
+        <v>2368800</v>
       </c>
       <c r="C35">
-        <v>4105400</v>
+        <v>7794600</v>
       </c>
       <c r="D35">
-        <v>15100</v>
+        <v>9600</v>
       </c>
       <c r="E35">
-        <v>127901915000</v>
+        <v>39018626000</v>
       </c>
       <c r="F35">
-        <v>66556545000</v>
+        <v>126647664000</v>
       </c>
       <c r="G35">
-        <v>196295000</v>
+        <v>77497000</v>
       </c>
       <c r="H35">
-        <v>11158800</v>
+        <v>10173000</v>
       </c>
       <c r="I35">
-        <v>194654755000</v>
+        <v>165743787000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-16T13:25:00.000Z</v>
+        <v>2022-12-16T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>8071854252000</v>
+        <v>4446966848000</v>
       </c>
       <c r="L35">
-        <v>480174500</v>
+        <v>268420300</v>
       </c>
       <c r="M35">
-        <v>-2932900</v>
+        <v>5425800</v>
       </c>
       <c r="N35">
-        <v>-61345370000</v>
+        <v>87629038000</v>
       </c>
       <c r="O35">
-        <v>42772700</v>
+        <v>68590400</v>
       </c>
       <c r="P35">
-        <v>561585954000</v>
+        <v>1045219921000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1671197400000</v>
+        <v>1671186120000</v>
       </c>
       <c r="B36">
-        <v>14435400</v>
+        <v>2698300</v>
       </c>
       <c r="C36">
-        <v>3338400</v>
+        <v>7882100</v>
       </c>
       <c r="D36">
-        <v>48300</v>
+        <v>39100</v>
       </c>
       <c r="E36">
-        <v>248776829000</v>
+        <v>42220961000</v>
       </c>
       <c r="F36">
-        <v>57923757000</v>
+        <v>125358478000</v>
       </c>
       <c r="G36">
-        <v>754462000</v>
+        <v>891747000</v>
       </c>
       <c r="H36">
-        <v>17822100</v>
+        <v>10619500</v>
       </c>
       <c r="I36">
-        <v>307455048000</v>
+        <v>168471186000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-16T13:30:00.000Z</v>
+        <v>2022-12-16T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>8379309300000</v>
+        <v>4615438034000</v>
       </c>
       <c r="L36">
-        <v>497996600</v>
+        <v>279039800</v>
       </c>
       <c r="M36">
-        <v>-11097000</v>
+        <v>5183800</v>
       </c>
       <c r="N36">
-        <v>-190853072000</v>
+        <v>83137517000</v>
       </c>
       <c r="O36">
-        <v>31675700</v>
+        <v>73774200</v>
       </c>
       <c r="P36">
-        <v>370732882000</v>
+        <v>1128357438000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1671197700000</v>
+        <v>1671186240000</v>
       </c>
       <c r="B37">
-        <v>4662200</v>
+        <v>2984400</v>
       </c>
       <c r="C37">
-        <v>5457200</v>
+        <v>4861400</v>
       </c>
       <c r="D37">
-        <v>9100</v>
+        <v>62000</v>
       </c>
       <c r="E37">
-        <v>74118879000</v>
+        <v>46955436000</v>
       </c>
       <c r="F37">
-        <v>100309720000</v>
+        <v>77262988000</v>
       </c>
       <c r="G37">
-        <v>177305000</v>
+        <v>974209000</v>
       </c>
       <c r="H37">
-        <v>10128500</v>
+        <v>7907800</v>
       </c>
       <c r="I37">
-        <v>174605904000</v>
+        <v>125192633000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-16T13:35:00.000Z</v>
+        <v>2022-12-16T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>8553915204000</v>
+        <v>4740630667000</v>
       </c>
       <c r="L37">
-        <v>508125100</v>
+        <v>286947600</v>
       </c>
       <c r="M37">
-        <v>795000</v>
+        <v>1877000</v>
       </c>
       <c r="N37">
-        <v>26190841000</v>
+        <v>30307552000</v>
       </c>
       <c r="O37">
-        <v>32470700</v>
+        <v>75651200</v>
       </c>
       <c r="P37">
-        <v>396923723000</v>
+        <v>1158664990000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1671198000000</v>
+        <v>1671186360000</v>
       </c>
       <c r="B38">
-        <v>6766700</v>
+        <v>3175700</v>
       </c>
       <c r="C38">
-        <v>3643200</v>
+        <v>3167400</v>
       </c>
       <c r="D38">
-        <v>10600</v>
+        <v>4500</v>
       </c>
       <c r="E38">
-        <v>115645372000</v>
+        <v>50976814000</v>
       </c>
       <c r="F38">
-        <v>64983452000</v>
+        <v>57883324000</v>
       </c>
       <c r="G38">
-        <v>430686000</v>
+        <v>45531000</v>
       </c>
       <c r="H38">
-        <v>10420500</v>
+        <v>6347600</v>
       </c>
       <c r="I38">
-        <v>181059510000</v>
+        <v>108905669000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-16T13:40:00.000Z</v>
+        <v>2022-12-16T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>8734974714000</v>
+        <v>4849536336000</v>
       </c>
       <c r="L38">
-        <v>518545600</v>
+        <v>293295200</v>
       </c>
       <c r="M38">
-        <v>-3123500</v>
+        <v>-8300</v>
       </c>
       <c r="N38">
-        <v>-50661920000</v>
+        <v>6906510000</v>
       </c>
       <c r="O38">
-        <v>29347200</v>
+        <v>75642900</v>
       </c>
       <c r="P38">
-        <v>346261803000</v>
+        <v>1165571500000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1671198300000</v>
+        <v>1671186480000</v>
       </c>
       <c r="B39">
-        <v>4069400</v>
+        <v>2987200</v>
       </c>
       <c r="C39">
-        <v>5283100</v>
+        <v>3106100</v>
       </c>
       <c r="D39">
-        <v>20600</v>
+        <v>17600</v>
       </c>
       <c r="E39">
-        <v>69569396000</v>
+        <v>47288523000</v>
       </c>
       <c r="F39">
-        <v>96733433000</v>
+        <v>51292993000</v>
       </c>
       <c r="G39">
-        <v>307183000</v>
+        <v>371790000</v>
       </c>
       <c r="H39">
-        <v>9373100</v>
+        <v>6110900</v>
       </c>
       <c r="I39">
-        <v>166610012000</v>
+        <v>98953306000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-16T13:45:00.000Z</v>
+        <v>2022-12-16T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>8901584726000</v>
+        <v>4948489642000</v>
       </c>
       <c r="L39">
-        <v>527918700</v>
+        <v>299406100</v>
       </c>
       <c r="M39">
-        <v>1213700</v>
+        <v>118900</v>
       </c>
       <c r="N39">
-        <v>27164037000</v>
+        <v>4004470000</v>
       </c>
       <c r="O39">
-        <v>30560900</v>
+        <v>75761800</v>
       </c>
       <c r="P39">
-        <v>373425840000</v>
+        <v>1169575970000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1671198600000</v>
+        <v>1671186600000</v>
       </c>
       <c r="B40">
-        <v>3825900</v>
+        <v>3704400</v>
       </c>
       <c r="C40">
-        <v>9160600</v>
+        <v>1892900</v>
       </c>
       <c r="D40">
-        <v>35900</v>
+        <v>8200</v>
       </c>
       <c r="E40">
-        <v>66285127000</v>
+        <v>67539738000</v>
       </c>
       <c r="F40">
-        <v>177703987000</v>
+        <v>30646074000</v>
       </c>
       <c r="G40">
-        <v>500622000</v>
+        <v>137140000</v>
       </c>
       <c r="H40">
-        <v>13022400</v>
+        <v>5605500</v>
       </c>
       <c r="I40">
-        <v>244489736000</v>
+        <v>98322952000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-16T13:50:00.000Z</v>
+        <v>2022-12-16T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>9146074462000</v>
+        <v>5046812594000</v>
       </c>
       <c r="L40">
-        <v>540941100</v>
+        <v>305011600</v>
       </c>
       <c r="M40">
-        <v>5334700</v>
+        <v>-1811500</v>
       </c>
       <c r="N40">
-        <v>111418860000</v>
+        <v>-36893664000</v>
       </c>
       <c r="O40">
-        <v>35895600</v>
+        <v>73950300</v>
       </c>
       <c r="P40">
-        <v>484844700000</v>
+        <v>1132682306000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1671198900000</v>
+        <v>1671186720000</v>
       </c>
       <c r="B41">
-        <v>6820900</v>
+        <v>4381500</v>
       </c>
       <c r="C41">
-        <v>5369600</v>
+        <v>1714200</v>
       </c>
       <c r="D41">
-        <v>19600</v>
+        <v>15800</v>
       </c>
       <c r="E41">
-        <v>129376794000</v>
+        <v>70368310000</v>
       </c>
       <c r="F41">
-        <v>102209304000</v>
+        <v>27466979000</v>
       </c>
       <c r="G41">
-        <v>681734000</v>
+        <v>349190000</v>
       </c>
       <c r="H41">
-        <v>12210100</v>
+        <v>6111500</v>
       </c>
       <c r="I41">
-        <v>232267832000</v>
+        <v>98184479000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-16T13:55:00.000Z</v>
+        <v>2022-12-16T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>9378342294000</v>
+        <v>5144997073000</v>
       </c>
       <c r="L41">
-        <v>553151200</v>
+        <v>311123100</v>
       </c>
       <c r="M41">
-        <v>-1451300</v>
+        <v>-2667300</v>
       </c>
       <c r="N41">
-        <v>-27167490000</v>
+        <v>-42901331000</v>
       </c>
       <c r="O41">
-        <v>34444300</v>
+        <v>71283000</v>
       </c>
       <c r="P41">
-        <v>457677210000</v>
+        <v>1089780975000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1671199200000</v>
+        <v>1671186840000</v>
       </c>
       <c r="B42">
-        <v>5804900</v>
+        <v>2969500</v>
       </c>
       <c r="C42">
-        <v>4239400</v>
+        <v>1512800</v>
       </c>
       <c r="D42">
-        <v>73900</v>
+        <v>31200</v>
       </c>
       <c r="E42">
-        <v>111552674000</v>
+        <v>49818002000</v>
       </c>
       <c r="F42">
-        <v>88105805000</v>
+        <v>28231942000</v>
       </c>
       <c r="G42">
-        <v>1437133000</v>
+        <v>594120000</v>
       </c>
       <c r="H42">
-        <v>10118200</v>
+        <v>4513500</v>
       </c>
       <c r="I42">
-        <v>201095612000</v>
+        <v>78644064000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-16T14:00:00.000Z</v>
+        <v>2022-12-16T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>9579437906000</v>
+        <v>5223641137000</v>
       </c>
       <c r="L42">
-        <v>563269400</v>
+        <v>315636600</v>
       </c>
       <c r="M42">
-        <v>-1565500</v>
+        <v>-1456700</v>
       </c>
       <c r="N42">
-        <v>-23446869000</v>
+        <v>-21586060000</v>
       </c>
       <c r="O42">
-        <v>32878800</v>
+        <v>69826300</v>
       </c>
       <c r="P42">
-        <v>434230341000</v>
+        <v>1068194915000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1671199500000</v>
+        <v>1671186960000</v>
       </c>
       <c r="B43">
-        <v>3936100</v>
+        <v>3851500</v>
       </c>
       <c r="C43">
-        <v>9210500</v>
+        <v>1818100</v>
       </c>
       <c r="D43">
-        <v>51900</v>
+        <v>24300</v>
       </c>
       <c r="E43">
-        <v>64932241000</v>
+        <v>66960518000</v>
       </c>
       <c r="F43">
-        <v>182296100000</v>
+        <v>32256131000</v>
       </c>
       <c r="G43">
-        <v>476183000</v>
+        <v>464503000</v>
       </c>
       <c r="H43">
-        <v>13198500</v>
+        <v>5693900</v>
       </c>
       <c r="I43">
-        <v>247704524000</v>
+        <v>99681152000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-16T14:05:00.000Z</v>
+        <v>2022-12-16T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>9827142430000</v>
+        <v>5323322289000</v>
       </c>
       <c r="L43">
-        <v>576467900</v>
+        <v>321330500</v>
       </c>
       <c r="M43">
-        <v>5274400</v>
+        <v>-2033400</v>
       </c>
       <c r="N43">
-        <v>117363859000</v>
+        <v>-34704387000</v>
       </c>
       <c r="O43">
-        <v>38153200</v>
+        <v>67792900</v>
       </c>
       <c r="P43">
-        <v>551594200000</v>
+        <v>1033490528000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1671199800000</v>
+        <v>1671187080000</v>
       </c>
       <c r="B44">
-        <v>5808900</v>
+        <v>2275300</v>
       </c>
       <c r="C44">
-        <v>10402700</v>
+        <v>1250900</v>
       </c>
       <c r="D44">
-        <v>57900</v>
+        <v>18800</v>
       </c>
       <c r="E44">
-        <v>109281969000</v>
+        <v>41386873000</v>
       </c>
       <c r="F44">
-        <v>187354526000</v>
+        <v>23998505000</v>
       </c>
       <c r="G44">
-        <v>813919000</v>
+        <v>380456000</v>
       </c>
       <c r="H44">
-        <v>16269500</v>
+        <v>3545000</v>
       </c>
       <c r="I44">
-        <v>297450414000</v>
+        <v>65765834000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-16T14:10:00.000Z</v>
+        <v>2022-12-16T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>10124592844000</v>
+        <v>5389088123000</v>
       </c>
       <c r="L44">
-        <v>592737400</v>
+        <v>324875500</v>
       </c>
       <c r="M44">
-        <v>4593800</v>
+        <v>-1024400</v>
       </c>
       <c r="N44">
-        <v>78072557000</v>
+        <v>-17388368000</v>
       </c>
       <c r="O44">
-        <v>42747000</v>
+        <v>66768500</v>
       </c>
       <c r="P44">
-        <v>629666757000</v>
+        <v>1016102160000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1671200100000</v>
+        <v>1671187200000</v>
       </c>
       <c r="B45">
-        <v>8129800</v>
+        <v>2377100</v>
       </c>
       <c r="C45">
-        <v>6315800</v>
+        <v>1206300</v>
       </c>
       <c r="D45">
-        <v>28500</v>
+        <v>6600</v>
       </c>
       <c r="E45">
-        <v>164201226000</v>
+        <v>39684939000</v>
       </c>
       <c r="F45">
-        <v>124208475000</v>
+        <v>21092554000</v>
       </c>
       <c r="G45">
-        <v>668384000</v>
+        <v>64207000</v>
       </c>
       <c r="H45">
-        <v>14474100</v>
+        <v>3590000</v>
       </c>
       <c r="I45">
-        <v>289078085000</v>
+        <v>60841700000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-16T14:15:00.000Z</v>
+        <v>2022-12-16T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>10413670929000</v>
+        <v>5449929823000</v>
       </c>
       <c r="L45">
-        <v>607211500</v>
+        <v>328465500</v>
       </c>
       <c r="M45">
-        <v>-1814000</v>
+        <v>-1170800</v>
       </c>
       <c r="N45">
-        <v>-39992751000</v>
+        <v>-18592385000</v>
       </c>
       <c r="O45">
-        <v>40933000</v>
+        <v>65597700</v>
       </c>
       <c r="P45">
-        <v>589674006000</v>
+        <v>997509775000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1671200400000</v>
+        <v>1671187320000</v>
       </c>
       <c r="B46">
-        <v>14060000</v>
+        <v>2017300</v>
       </c>
       <c r="C46">
-        <v>6614300</v>
+        <v>1188500</v>
       </c>
       <c r="D46">
-        <v>129300</v>
+        <v>12000</v>
       </c>
       <c r="E46">
-        <v>243448440000</v>
+        <v>34364740000</v>
       </c>
       <c r="F46">
-        <v>122646547000</v>
+        <v>23888163000</v>
       </c>
       <c r="G46">
-        <v>2201306000</v>
+        <v>238003000</v>
       </c>
       <c r="H46">
-        <v>20803600</v>
+        <v>3217800</v>
       </c>
       <c r="I46">
-        <v>368296293000</v>
+        <v>58490906000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-16T14:20:00.000Z</v>
+        <v>2022-12-16T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>10781967222000</v>
+        <v>5508420729000</v>
       </c>
       <c r="L46">
-        <v>628015100</v>
+        <v>331683300</v>
       </c>
       <c r="M46">
-        <v>-7445700</v>
+        <v>-828800</v>
       </c>
       <c r="N46">
-        <v>-120801893000</v>
+        <v>-10476577000</v>
       </c>
       <c r="O46">
-        <v>33487300</v>
+        <v>64768900</v>
       </c>
       <c r="P46">
-        <v>468872113000</v>
+        <v>987033198000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1671200700000</v>
+        <v>1671187440000</v>
       </c>
       <c r="B47">
-        <v>11033700</v>
+        <v>2610200</v>
       </c>
       <c r="C47">
-        <v>9337100</v>
+        <v>835400</v>
       </c>
       <c r="D47">
-        <v>169100</v>
+        <v>10500</v>
       </c>
       <c r="E47">
-        <v>192900669000</v>
+        <v>41844432000</v>
       </c>
       <c r="F47">
-        <v>173655998000</v>
+        <v>16614406000</v>
       </c>
       <c r="G47">
-        <v>3228335000</v>
+        <v>152030000</v>
       </c>
       <c r="H47">
-        <v>20539900</v>
+        <v>3456100</v>
       </c>
       <c r="I47">
-        <v>369785002000</v>
+        <v>58610868000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-16T14:25:00.000Z</v>
+        <v>2022-12-16T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>11151752224000</v>
+        <v>5567031597000</v>
       </c>
       <c r="L47">
-        <v>648555000</v>
+        <v>335139400</v>
       </c>
       <c r="M47">
-        <v>-1696600</v>
+        <v>-1774800</v>
       </c>
       <c r="N47">
-        <v>-19244671000</v>
+        <v>-25230026000</v>
       </c>
       <c r="O47">
-        <v>31790700</v>
+        <v>62994100</v>
       </c>
       <c r="P47">
-        <v>449627442000</v>
+        <v>961803172000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1671201000000</v>
+        <v>1671187560000</v>
       </c>
       <c r="B48">
-        <v>10900</v>
+        <v>2124300</v>
       </c>
       <c r="C48">
-        <v>12800</v>
+        <v>1206000</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="E48">
-        <v>234715000</v>
+        <v>37726550000</v>
       </c>
       <c r="F48">
-        <v>125505000</v>
+        <v>23607482000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>20639000</v>
       </c>
       <c r="H48">
-        <v>23700</v>
+        <v>3333400</v>
       </c>
       <c r="I48">
-        <v>360220000</v>
+        <v>61354671000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-16T14:30:00.000Z</v>
+        <v>2022-12-16T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>11152112444000</v>
+        <v>5628386268000</v>
       </c>
       <c r="L48">
-        <v>648578700</v>
+        <v>338472800</v>
       </c>
       <c r="M48">
-        <v>1900</v>
+        <v>-918300</v>
       </c>
       <c r="N48">
-        <v>-109210000</v>
+        <v>-14119068000</v>
       </c>
       <c r="O48">
-        <v>31792600</v>
+        <v>62075800</v>
       </c>
       <c r="P48">
-        <v>449518232000</v>
+        <v>947684104000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1671201300000</v>
+        <v>1671187680000</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>2777200</v>
       </c>
       <c r="C49">
-        <v>5800</v>
+        <v>1302300</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>31200</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>46339871000</v>
       </c>
       <c r="F49">
-        <v>58580000</v>
+        <v>27732601000</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>470103000</v>
       </c>
       <c r="H49">
-        <v>5800</v>
+        <v>4110700</v>
       </c>
       <c r="I49">
-        <v>58580000</v>
+        <v>74542575000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-16T14:35:00.000Z</v>
+        <v>2022-12-16T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>11152171024000</v>
+        <v>5702928843000</v>
       </c>
       <c r="L49">
-        <v>648584500</v>
+        <v>342583500</v>
       </c>
       <c r="M49">
-        <v>5800</v>
+        <v>-1474900</v>
       </c>
       <c r="N49">
-        <v>58580000</v>
+        <v>-18607270000</v>
       </c>
       <c r="O49">
-        <v>31798400</v>
+        <v>60600900</v>
       </c>
       <c r="P49">
-        <v>449576812000</v>
+        <v>929076834000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1671201600000</v>
+        <v>1671187800000</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>2501800</v>
       </c>
       <c r="C50">
-        <v>2200</v>
+        <v>1028300</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>12400</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>46896968000</v>
       </c>
       <c r="F50">
-        <v>22430000</v>
+        <v>16582727000</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>139665000</v>
       </c>
       <c r="H50">
-        <v>2200</v>
+        <v>3542500</v>
       </c>
       <c r="I50">
-        <v>22430000</v>
+        <v>63619360000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-16T14:40:00.000Z</v>
+        <v>2022-12-16T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>11152193454000</v>
+        <v>5766548203000</v>
       </c>
       <c r="L50">
-        <v>648586700</v>
+        <v>346126000</v>
       </c>
       <c r="M50">
-        <v>2200</v>
+        <v>-1473500</v>
       </c>
       <c r="N50">
-        <v>22430000</v>
+        <v>-30314241000</v>
       </c>
       <c r="O50">
-        <v>31800600</v>
+        <v>59127400</v>
       </c>
       <c r="P50">
-        <v>449599242000</v>
+        <v>898762593000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1671201900000</v>
+        <v>1671187920000</v>
       </c>
       <c r="B51">
-        <v>2812800</v>
+        <v>2075100</v>
       </c>
       <c r="C51">
-        <v>10830200</v>
+        <v>1205400</v>
       </c>
       <c r="D51">
-        <v>92698400</v>
+        <v>2700</v>
       </c>
       <c r="E51">
-        <v>42613815000</v>
+        <v>32626054000</v>
       </c>
       <c r="F51">
-        <v>250115025000</v>
+        <v>20768692000</v>
       </c>
       <c r="G51">
-        <v>2095471327000</v>
+        <v>97665000</v>
       </c>
       <c r="H51">
-        <v>106341400</v>
+        <v>3283200</v>
       </c>
       <c r="I51">
-        <v>2388200167000</v>
+        <v>53492411000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-16T14:45:00.000Z</v>
+        <v>2022-12-16T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>13540393621000</v>
+        <v>5820040614000</v>
       </c>
       <c r="L51">
-        <v>754928100</v>
+        <v>349409200</v>
       </c>
       <c r="M51">
-        <v>8017400</v>
+        <v>-869700</v>
       </c>
       <c r="N51">
-        <v>207501210000</v>
+        <v>-11857362000</v>
       </c>
       <c r="O51">
-        <v>39818000</v>
+        <v>58257700</v>
       </c>
       <c r="P51">
-        <v>657100452000</v>
+        <v>886905231000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
+        <v>1671188040000</v>
+      </c>
+      <c r="B52">
+        <v>1363200</v>
+      </c>
+      <c r="C52">
+        <v>1844600</v>
+      </c>
+      <c r="D52">
+        <v>12800</v>
+      </c>
+      <c r="E52">
+        <v>26160587000</v>
+      </c>
+      <c r="F52">
+        <v>34364893000</v>
+      </c>
+      <c r="G52">
+        <v>213993000</v>
+      </c>
+      <c r="H52">
+        <v>3220600</v>
+      </c>
+      <c r="I52">
+        <v>60739473000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2022-12-16T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>5880780087000</v>
+      </c>
+      <c r="L52">
+        <v>352629800</v>
+      </c>
+      <c r="M52">
+        <v>481400</v>
+      </c>
+      <c r="N52">
+        <v>8204306000</v>
+      </c>
+      <c r="O52">
+        <v>58739100</v>
+      </c>
+      <c r="P52">
+        <v>895109537000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1671188160000</v>
+      </c>
+      <c r="B53">
+        <v>1131400</v>
+      </c>
+      <c r="C53">
+        <v>1874000</v>
+      </c>
+      <c r="D53">
+        <v>13500</v>
+      </c>
+      <c r="E53">
+        <v>19586063000</v>
+      </c>
+      <c r="F53">
+        <v>29099113000</v>
+      </c>
+      <c r="G53">
+        <v>312299000</v>
+      </c>
+      <c r="H53">
+        <v>3018900</v>
+      </c>
+      <c r="I53">
+        <v>48997475000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2022-12-16T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>5929777562000</v>
+      </c>
+      <c r="L53">
+        <v>355648700</v>
+      </c>
+      <c r="M53">
+        <v>742600</v>
+      </c>
+      <c r="N53">
+        <v>9513050000</v>
+      </c>
+      <c r="O53">
+        <v>59481700</v>
+      </c>
+      <c r="P53">
+        <v>904622587000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1671188280000</v>
+      </c>
+      <c r="B54">
+        <v>744100</v>
+      </c>
+      <c r="C54">
+        <v>1585200</v>
+      </c>
+      <c r="D54">
+        <v>12400</v>
+      </c>
+      <c r="E54">
+        <v>12206831000</v>
+      </c>
+      <c r="F54">
+        <v>33203608000</v>
+      </c>
+      <c r="G54">
+        <v>138580000</v>
+      </c>
+      <c r="H54">
+        <v>2341700</v>
+      </c>
+      <c r="I54">
+        <v>45549019000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-16T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>5975326581000</v>
+      </c>
+      <c r="L54">
+        <v>357990400</v>
+      </c>
+      <c r="M54">
+        <v>841100</v>
+      </c>
+      <c r="N54">
+        <v>20996777000</v>
+      </c>
+      <c r="O54">
+        <v>60322800</v>
+      </c>
+      <c r="P54">
+        <v>925619364000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1671188400000</v>
+      </c>
+      <c r="B55">
+        <v>1122500</v>
+      </c>
+      <c r="C55">
+        <v>934100</v>
+      </c>
+      <c r="D55">
+        <v>28100</v>
+      </c>
+      <c r="E55">
+        <v>20606962000</v>
+      </c>
+      <c r="F55">
+        <v>17293959000</v>
+      </c>
+      <c r="G55">
+        <v>383143000</v>
+      </c>
+      <c r="H55">
+        <v>2084700</v>
+      </c>
+      <c r="I55">
+        <v>38284064000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-16T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>6013610645000</v>
+      </c>
+      <c r="L55">
+        <v>360075100</v>
+      </c>
+      <c r="M55">
+        <v>-188400</v>
+      </c>
+      <c r="N55">
+        <v>-3313003000</v>
+      </c>
+      <c r="O55">
+        <v>60134400</v>
+      </c>
+      <c r="P55">
+        <v>922306361000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1671188520000</v>
+      </c>
+      <c r="B56">
+        <v>1203600</v>
+      </c>
+      <c r="C56">
+        <v>718000</v>
+      </c>
+      <c r="D56">
+        <v>9500</v>
+      </c>
+      <c r="E56">
+        <v>22749751000</v>
+      </c>
+      <c r="F56">
+        <v>12461959000</v>
+      </c>
+      <c r="G56">
+        <v>226710000</v>
+      </c>
+      <c r="H56">
+        <v>1931100</v>
+      </c>
+      <c r="I56">
+        <v>35438420000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-16T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>6049049065000</v>
+      </c>
+      <c r="L56">
+        <v>362006200</v>
+      </c>
+      <c r="M56">
+        <v>-485600</v>
+      </c>
+      <c r="N56">
+        <v>-10287792000</v>
+      </c>
+      <c r="O56">
+        <v>59648800</v>
+      </c>
+      <c r="P56">
+        <v>912018569000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1671188640000</v>
+      </c>
+      <c r="B57">
+        <v>1265600</v>
+      </c>
+      <c r="C57">
+        <v>1484000</v>
+      </c>
+      <c r="D57">
+        <v>2800</v>
+      </c>
+      <c r="E57">
+        <v>22662665000</v>
+      </c>
+      <c r="F57">
+        <v>22271963000</v>
+      </c>
+      <c r="G57">
+        <v>24175000</v>
+      </c>
+      <c r="H57">
+        <v>2752400</v>
+      </c>
+      <c r="I57">
+        <v>44958803000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-16T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>6094007868000</v>
+      </c>
+      <c r="L57">
+        <v>364758600</v>
+      </c>
+      <c r="M57">
+        <v>218400</v>
+      </c>
+      <c r="N57">
+        <v>-390702000</v>
+      </c>
+      <c r="O57">
+        <v>59867200</v>
+      </c>
+      <c r="P57">
+        <v>911627867000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1671188760000</v>
+      </c>
+      <c r="B58">
+        <v>1588600</v>
+      </c>
+      <c r="C58">
+        <v>1150700</v>
+      </c>
+      <c r="D58">
+        <v>4300</v>
+      </c>
+      <c r="E58">
+        <v>29180289000</v>
+      </c>
+      <c r="F58">
+        <v>26817720000</v>
+      </c>
+      <c r="G58">
+        <v>80341000</v>
+      </c>
+      <c r="H58">
+        <v>2743600</v>
+      </c>
+      <c r="I58">
+        <v>56078350000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-16T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>6150086218000</v>
+      </c>
+      <c r="L58">
+        <v>367502200</v>
+      </c>
+      <c r="M58">
+        <v>-437900</v>
+      </c>
+      <c r="N58">
+        <v>-2362569000</v>
+      </c>
+      <c r="O58">
+        <v>59429300</v>
+      </c>
+      <c r="P58">
+        <v>909265298000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1671188880000</v>
+      </c>
+      <c r="B59">
+        <v>1422000</v>
+      </c>
+      <c r="C59">
+        <v>1055900</v>
+      </c>
+      <c r="D59">
+        <v>500</v>
+      </c>
+      <c r="E59">
+        <v>24714984000</v>
+      </c>
+      <c r="F59">
+        <v>18425617000</v>
+      </c>
+      <c r="G59">
+        <v>18910000</v>
+      </c>
+      <c r="H59">
+        <v>2478400</v>
+      </c>
+      <c r="I59">
+        <v>43159511000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-16T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>6193245729000</v>
+      </c>
+      <c r="L59">
+        <v>369980600</v>
+      </c>
+      <c r="M59">
+        <v>-366100</v>
+      </c>
+      <c r="N59">
+        <v>-6289367000</v>
+      </c>
+      <c r="O59">
+        <v>59063200</v>
+      </c>
+      <c r="P59">
+        <v>902975931000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1671189000000</v>
+      </c>
+      <c r="B60">
+        <v>1818900</v>
+      </c>
+      <c r="C60">
+        <v>974700</v>
+      </c>
+      <c r="D60">
+        <v>5700</v>
+      </c>
+      <c r="E60">
+        <v>35464918000</v>
+      </c>
+      <c r="F60">
+        <v>16276993000</v>
+      </c>
+      <c r="G60">
+        <v>55445000</v>
+      </c>
+      <c r="H60">
+        <v>2799300</v>
+      </c>
+      <c r="I60">
+        <v>51797356000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-16T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>6245043085000</v>
+      </c>
+      <c r="L60">
+        <v>372779900</v>
+      </c>
+      <c r="M60">
+        <v>-844200</v>
+      </c>
+      <c r="N60">
+        <v>-19187925000</v>
+      </c>
+      <c r="O60">
+        <v>58219000</v>
+      </c>
+      <c r="P60">
+        <v>883788006000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1671189120000</v>
+      </c>
+      <c r="B61">
+        <v>1983000</v>
+      </c>
+      <c r="C61">
+        <v>782200</v>
+      </c>
+      <c r="D61">
+        <v>15400</v>
+      </c>
+      <c r="E61">
+        <v>34203252000</v>
+      </c>
+      <c r="F61">
+        <v>15319886000</v>
+      </c>
+      <c r="G61">
+        <v>158706000</v>
+      </c>
+      <c r="H61">
+        <v>2780600</v>
+      </c>
+      <c r="I61">
+        <v>49681844000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-16T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>6294724929000</v>
+      </c>
+      <c r="L61">
+        <v>375560500</v>
+      </c>
+      <c r="M61">
+        <v>-1200800</v>
+      </c>
+      <c r="N61">
+        <v>-18883366000</v>
+      </c>
+      <c r="O61">
+        <v>57018200</v>
+      </c>
+      <c r="P61">
+        <v>864904640000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1671189240000</v>
+      </c>
+      <c r="B62">
+        <v>1841300</v>
+      </c>
+      <c r="C62">
+        <v>893400</v>
+      </c>
+      <c r="D62">
+        <v>2000</v>
+      </c>
+      <c r="E62">
+        <v>32540372000</v>
+      </c>
+      <c r="F62">
+        <v>16695104000</v>
+      </c>
+      <c r="G62">
+        <v>37017000</v>
+      </c>
+      <c r="H62">
+        <v>2736700</v>
+      </c>
+      <c r="I62">
+        <v>49272493000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-16T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>6343997422000</v>
+      </c>
+      <c r="L62">
+        <v>378297200</v>
+      </c>
+      <c r="M62">
+        <v>-947900</v>
+      </c>
+      <c r="N62">
+        <v>-15845268000</v>
+      </c>
+      <c r="O62">
+        <v>56070300</v>
+      </c>
+      <c r="P62">
+        <v>849059372000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1671189360000</v>
+      </c>
+      <c r="B63">
+        <v>1605700</v>
+      </c>
+      <c r="C63">
+        <v>749700</v>
+      </c>
+      <c r="D63">
+        <v>400</v>
+      </c>
+      <c r="E63">
+        <v>23483476000</v>
+      </c>
+      <c r="F63">
+        <v>14859957000</v>
+      </c>
+      <c r="G63">
+        <v>16275000.000000002</v>
+      </c>
+      <c r="H63">
+        <v>2355800</v>
+      </c>
+      <c r="I63">
+        <v>38359708000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-16T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>6382357130000</v>
+      </c>
+      <c r="L63">
+        <v>380653000</v>
+      </c>
+      <c r="M63">
+        <v>-856000</v>
+      </c>
+      <c r="N63">
+        <v>-8623519000</v>
+      </c>
+      <c r="O63">
+        <v>55214300</v>
+      </c>
+      <c r="P63">
+        <v>840435853000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1671189480000</v>
+      </c>
+      <c r="B64">
+        <v>3286700</v>
+      </c>
+      <c r="C64">
+        <v>717800</v>
+      </c>
+      <c r="D64">
+        <v>14200</v>
+      </c>
+      <c r="E64">
+        <v>60164727000</v>
+      </c>
+      <c r="F64">
+        <v>15246004000</v>
+      </c>
+      <c r="G64">
+        <v>292916000</v>
+      </c>
+      <c r="H64">
+        <v>4018700</v>
+      </c>
+      <c r="I64">
+        <v>75703647000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-16T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>6458060777000</v>
+      </c>
+      <c r="L64">
+        <v>384671700</v>
+      </c>
+      <c r="M64">
+        <v>-2568900</v>
+      </c>
+      <c r="N64">
+        <v>-44918723000</v>
+      </c>
+      <c r="O64">
+        <v>52645400</v>
+      </c>
+      <c r="P64">
+        <v>795517130000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1671189600000</v>
+      </c>
+      <c r="B65">
+        <v>4732300</v>
+      </c>
+      <c r="C65">
+        <v>897900</v>
+      </c>
+      <c r="D65">
+        <v>3600</v>
+      </c>
+      <c r="E65">
+        <v>71318586000</v>
+      </c>
+      <c r="F65">
+        <v>18024222000</v>
+      </c>
+      <c r="G65">
+        <v>24617000</v>
+      </c>
+      <c r="H65">
+        <v>5633800</v>
+      </c>
+      <c r="I65">
+        <v>89367425000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-16T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>6547428202000</v>
+      </c>
+      <c r="L65">
+        <v>390305500</v>
+      </c>
+      <c r="M65">
+        <v>-3834400</v>
+      </c>
+      <c r="N65">
+        <v>-53294364000</v>
+      </c>
+      <c r="O65">
+        <v>48811000</v>
+      </c>
+      <c r="P65">
+        <v>742222766000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1671189720000</v>
+      </c>
+      <c r="B66">
+        <v>1511000</v>
+      </c>
+      <c r="C66">
+        <v>1043300</v>
+      </c>
+      <c r="D66">
+        <v>19500</v>
+      </c>
+      <c r="E66">
+        <v>26046915000</v>
+      </c>
+      <c r="F66">
+        <v>16496120000</v>
+      </c>
+      <c r="G66">
+        <v>261300000</v>
+      </c>
+      <c r="H66">
+        <v>2573800</v>
+      </c>
+      <c r="I66">
+        <v>42804335000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-16T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>6590232537000</v>
+      </c>
+      <c r="L66">
+        <v>392879300</v>
+      </c>
+      <c r="M66">
+        <v>-467700</v>
+      </c>
+      <c r="N66">
+        <v>-9550795000</v>
+      </c>
+      <c r="O66">
+        <v>48343300</v>
+      </c>
+      <c r="P66">
+        <v>732671971000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1671189840000</v>
+      </c>
+      <c r="B67">
+        <v>1950100</v>
+      </c>
+      <c r="C67">
+        <v>930400</v>
+      </c>
+      <c r="D67">
+        <v>10400</v>
+      </c>
+      <c r="E67">
+        <v>34924025000</v>
+      </c>
+      <c r="F67">
+        <v>15759730000</v>
+      </c>
+      <c r="G67">
+        <v>201460000</v>
+      </c>
+      <c r="H67">
+        <v>2890900</v>
+      </c>
+      <c r="I67">
+        <v>50885215000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-16T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>6641117752000</v>
+      </c>
+      <c r="L67">
+        <v>395770200</v>
+      </c>
+      <c r="M67">
+        <v>-1019700</v>
+      </c>
+      <c r="N67">
+        <v>-19164295000</v>
+      </c>
+      <c r="O67">
+        <v>47323600</v>
+      </c>
+      <c r="P67">
+        <v>713507676000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1671189960000</v>
+      </c>
+      <c r="B68">
+        <v>2702200</v>
+      </c>
+      <c r="C68">
+        <v>1063000</v>
+      </c>
+      <c r="D68">
+        <v>1800</v>
+      </c>
+      <c r="E68">
+        <v>46077170000</v>
+      </c>
+      <c r="F68">
+        <v>17820852000</v>
+      </c>
+      <c r="G68">
+        <v>32232000</v>
+      </c>
+      <c r="H68">
+        <v>3767000</v>
+      </c>
+      <c r="I68">
+        <v>63930254000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-16T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>6705048006000</v>
+      </c>
+      <c r="L68">
+        <v>399537200</v>
+      </c>
+      <c r="M68">
+        <v>-1639200</v>
+      </c>
+      <c r="N68">
+        <v>-28256318000</v>
+      </c>
+      <c r="O68">
+        <v>45684400</v>
+      </c>
+      <c r="P68">
+        <v>685251358000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1671190080000</v>
+      </c>
+      <c r="B69">
+        <v>3205300</v>
+      </c>
+      <c r="C69">
+        <v>921200</v>
+      </c>
+      <c r="D69">
+        <v>14800</v>
+      </c>
+      <c r="E69">
+        <v>53790233000</v>
+      </c>
+      <c r="F69">
+        <v>17306672000</v>
+      </c>
+      <c r="G69">
+        <v>377867000</v>
+      </c>
+      <c r="H69">
+        <v>4141300</v>
+      </c>
+      <c r="I69">
+        <v>71474772000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-16T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>6776522778000</v>
+      </c>
+      <c r="L69">
+        <v>403678500</v>
+      </c>
+      <c r="M69">
+        <v>-2284100</v>
+      </c>
+      <c r="N69">
+        <v>-36483561000</v>
+      </c>
+      <c r="O69">
+        <v>43400300</v>
+      </c>
+      <c r="P69">
+        <v>648767797000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1671190200000</v>
+      </c>
+      <c r="B70">
+        <v>37500</v>
+      </c>
+      <c r="C70">
+        <v>4700</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>551244000</v>
+      </c>
+      <c r="F70">
+        <v>57540000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>42200</v>
+      </c>
+      <c r="I70">
+        <v>608784000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-16T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>6777131562000</v>
+      </c>
+      <c r="L70">
+        <v>403720700</v>
+      </c>
+      <c r="M70">
+        <v>-32800</v>
+      </c>
+      <c r="N70">
+        <v>-493704000</v>
+      </c>
+      <c r="O70">
+        <v>43367500</v>
+      </c>
+      <c r="P70">
+        <v>648274093000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1671195600000</v>
+      </c>
+      <c r="B71">
+        <v>7191500</v>
+      </c>
+      <c r="C71">
+        <v>3199500</v>
+      </c>
+      <c r="D71">
+        <v>239600</v>
+      </c>
+      <c r="E71">
+        <v>120650318000</v>
+      </c>
+      <c r="F71">
+        <v>50470263000</v>
+      </c>
+      <c r="G71">
+        <v>2944607000</v>
+      </c>
+      <c r="H71">
+        <v>10630600</v>
+      </c>
+      <c r="I71">
+        <v>174065188000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-16T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>6951196750000</v>
+      </c>
+      <c r="L71">
+        <v>414351300</v>
+      </c>
+      <c r="M71">
+        <v>-3992000</v>
+      </c>
+      <c r="N71">
+        <v>-70180055000</v>
+      </c>
+      <c r="O71">
+        <v>39375500</v>
+      </c>
+      <c r="P71">
+        <v>578094038000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1671195720000</v>
+      </c>
+      <c r="B72">
+        <v>2176000</v>
+      </c>
+      <c r="C72">
+        <v>1755600</v>
+      </c>
+      <c r="D72">
+        <v>2200</v>
+      </c>
+      <c r="E72">
+        <v>38961235000</v>
+      </c>
+      <c r="F72">
+        <v>29942224000</v>
+      </c>
+      <c r="G72">
+        <v>118385000</v>
+      </c>
+      <c r="H72">
+        <v>3933800</v>
+      </c>
+      <c r="I72">
+        <v>69021844000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-16T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>7020218594000</v>
+      </c>
+      <c r="L72">
+        <v>418285100</v>
+      </c>
+      <c r="M72">
+        <v>-420400</v>
+      </c>
+      <c r="N72">
+        <v>-9019011000</v>
+      </c>
+      <c r="O72">
+        <v>38955100</v>
+      </c>
+      <c r="P72">
+        <v>569075027000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1671195840000</v>
+      </c>
+      <c r="B73">
+        <v>2247400</v>
+      </c>
+      <c r="C73">
+        <v>2895000</v>
+      </c>
+      <c r="D73">
+        <v>63200</v>
+      </c>
+      <c r="E73">
+        <v>39797479000</v>
+      </c>
+      <c r="F73">
+        <v>47808162000</v>
+      </c>
+      <c r="G73">
+        <v>915880000</v>
+      </c>
+      <c r="H73">
+        <v>5205600</v>
+      </c>
+      <c r="I73">
+        <v>88521521000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-16T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>7108740115000</v>
+      </c>
+      <c r="L73">
+        <v>423490700</v>
+      </c>
+      <c r="M73">
+        <v>647600</v>
+      </c>
+      <c r="N73">
+        <v>8010683000</v>
+      </c>
+      <c r="O73">
+        <v>39602700</v>
+      </c>
+      <c r="P73">
+        <v>577085710000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1671195960000</v>
+      </c>
+      <c r="B74">
+        <v>2601400</v>
+      </c>
+      <c r="C74">
+        <v>2209800</v>
+      </c>
+      <c r="D74">
+        <v>30500</v>
+      </c>
+      <c r="E74">
+        <v>43580619000</v>
+      </c>
+      <c r="F74">
+        <v>32928309000</v>
+      </c>
+      <c r="G74">
+        <v>225665000</v>
+      </c>
+      <c r="H74">
+        <v>4841700</v>
+      </c>
+      <c r="I74">
+        <v>76734593000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-16T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>7185474708000</v>
+      </c>
+      <c r="L74">
+        <v>428332400</v>
+      </c>
+      <c r="M74">
+        <v>-391600</v>
+      </c>
+      <c r="N74">
+        <v>-10652310000</v>
+      </c>
+      <c r="O74">
+        <v>39211100</v>
+      </c>
+      <c r="P74">
+        <v>566433400000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1671196080000</v>
+      </c>
+      <c r="B75">
+        <v>2863900</v>
+      </c>
+      <c r="C75">
+        <v>2233000</v>
+      </c>
+      <c r="D75">
+        <v>14500</v>
+      </c>
+      <c r="E75">
+        <v>58591239000</v>
+      </c>
+      <c r="F75">
+        <v>35209838000</v>
+      </c>
+      <c r="G75">
+        <v>146825000</v>
+      </c>
+      <c r="H75">
+        <v>5111400</v>
+      </c>
+      <c r="I75">
+        <v>93947902000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-16T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>7279422610000</v>
+      </c>
+      <c r="L75">
+        <v>433443800</v>
+      </c>
+      <c r="M75">
+        <v>-630900</v>
+      </c>
+      <c r="N75">
+        <v>-23381401000</v>
+      </c>
+      <c r="O75">
+        <v>38580200</v>
+      </c>
+      <c r="P75">
+        <v>543051999000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1671196200000</v>
+      </c>
+      <c r="B76">
+        <v>2264700</v>
+      </c>
+      <c r="C76">
+        <v>1826900</v>
+      </c>
+      <c r="D76">
+        <v>11300</v>
+      </c>
+      <c r="E76">
+        <v>46566530000</v>
+      </c>
+      <c r="F76">
+        <v>24124480000</v>
+      </c>
+      <c r="G76">
+        <v>71100000</v>
+      </c>
+      <c r="H76">
+        <v>4102900</v>
+      </c>
+      <c r="I76">
+        <v>70762110000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-16T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>7350184720000</v>
+      </c>
+      <c r="L76">
+        <v>437546700</v>
+      </c>
+      <c r="M76">
+        <v>-437800</v>
+      </c>
+      <c r="N76">
+        <v>-22442050000</v>
+      </c>
+      <c r="O76">
+        <v>38142400</v>
+      </c>
+      <c r="P76">
+        <v>520609949000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1671196320000</v>
+      </c>
+      <c r="B77">
+        <v>2890900</v>
+      </c>
+      <c r="C77">
+        <v>2708400</v>
+      </c>
+      <c r="D77">
+        <v>23400</v>
+      </c>
+      <c r="E77">
+        <v>46368145000</v>
+      </c>
+      <c r="F77">
+        <v>33173844000</v>
+      </c>
+      <c r="G77">
+        <v>309180000</v>
+      </c>
+      <c r="H77">
+        <v>5622700</v>
+      </c>
+      <c r="I77">
+        <v>79851169000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-16T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>7430035889000</v>
+      </c>
+      <c r="L77">
+        <v>443169400</v>
+      </c>
+      <c r="M77">
+        <v>-182500</v>
+      </c>
+      <c r="N77">
+        <v>-13194301000</v>
+      </c>
+      <c r="O77">
+        <v>37959900</v>
+      </c>
+      <c r="P77">
+        <v>507415648000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1671196440000</v>
+      </c>
+      <c r="B78">
+        <v>1822000</v>
+      </c>
+      <c r="C78">
+        <v>2261200</v>
+      </c>
+      <c r="D78">
+        <v>10400</v>
+      </c>
+      <c r="E78">
+        <v>31548613000</v>
+      </c>
+      <c r="F78">
+        <v>36564034000</v>
+      </c>
+      <c r="G78">
+        <v>186578000</v>
+      </c>
+      <c r="H78">
+        <v>4093600</v>
+      </c>
+      <c r="I78">
+        <v>68299225000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-16T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>7498335114000</v>
+      </c>
+      <c r="L78">
+        <v>447263000</v>
+      </c>
+      <c r="M78">
+        <v>439200</v>
+      </c>
+      <c r="N78">
+        <v>5015421000</v>
+      </c>
+      <c r="O78">
+        <v>38399100</v>
+      </c>
+      <c r="P78">
+        <v>512431069000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1671196560000</v>
+      </c>
+      <c r="B79">
+        <v>1576400</v>
+      </c>
+      <c r="C79">
+        <v>2356500</v>
+      </c>
+      <c r="D79">
+        <v>5100</v>
+      </c>
+      <c r="E79">
+        <v>30224797000</v>
+      </c>
+      <c r="F79">
+        <v>40405286000</v>
+      </c>
+      <c r="G79">
+        <v>252750000</v>
+      </c>
+      <c r="H79">
+        <v>3938000</v>
+      </c>
+      <c r="I79">
+        <v>70882833000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-16T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>7569217947000</v>
+      </c>
+      <c r="L79">
+        <v>451201000</v>
+      </c>
+      <c r="M79">
+        <v>780100</v>
+      </c>
+      <c r="N79">
+        <v>10180489000</v>
+      </c>
+      <c r="O79">
+        <v>39179200</v>
+      </c>
+      <c r="P79">
+        <v>522611558000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1671196680000</v>
+      </c>
+      <c r="B80">
+        <v>1386400</v>
+      </c>
+      <c r="C80">
+        <v>3759100</v>
+      </c>
+      <c r="D80">
+        <v>13300</v>
+      </c>
+      <c r="E80">
+        <v>24496028000</v>
+      </c>
+      <c r="F80">
+        <v>65869421000</v>
+      </c>
+      <c r="G80">
+        <v>170530000</v>
+      </c>
+      <c r="H80">
+        <v>5158800</v>
+      </c>
+      <c r="I80">
+        <v>90535979000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-16T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>7659753926000</v>
+      </c>
+      <c r="L80">
+        <v>456359800</v>
+      </c>
+      <c r="M80">
+        <v>2372700</v>
+      </c>
+      <c r="N80">
+        <v>41373393000</v>
+      </c>
+      <c r="O80">
+        <v>41551900</v>
+      </c>
+      <c r="P80">
+        <v>563984951000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1671196800000</v>
+      </c>
+      <c r="B81">
+        <v>1614800</v>
+      </c>
+      <c r="C81">
+        <v>4225700</v>
+      </c>
+      <c r="D81">
+        <v>12400</v>
+      </c>
+      <c r="E81">
+        <v>33373133000</v>
+      </c>
+      <c r="F81">
+        <v>65407336000</v>
+      </c>
+      <c r="G81">
+        <v>483264000</v>
+      </c>
+      <c r="H81">
+        <v>5852900</v>
+      </c>
+      <c r="I81">
+        <v>99263733000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-16T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>7759017659000</v>
+      </c>
+      <c r="L81">
+        <v>462212700</v>
+      </c>
+      <c r="M81">
+        <v>2610900</v>
+      </c>
+      <c r="N81">
+        <v>32034203000</v>
+      </c>
+      <c r="O81">
+        <v>44162800</v>
+      </c>
+      <c r="P81">
+        <v>596019154000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1671196920000</v>
+      </c>
+      <c r="B82">
+        <v>1627000</v>
+      </c>
+      <c r="C82">
+        <v>2632600</v>
+      </c>
+      <c r="D82">
+        <v>1800</v>
+      </c>
+      <c r="E82">
+        <v>25913750000</v>
+      </c>
+      <c r="F82">
+        <v>44299331000</v>
+      </c>
+      <c r="G82">
+        <v>30854000</v>
+      </c>
+      <c r="H82">
+        <v>4261400</v>
+      </c>
+      <c r="I82">
+        <v>70243935000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-16T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>7829261594000</v>
+      </c>
+      <c r="L82">
+        <v>466474100</v>
+      </c>
+      <c r="M82">
+        <v>1005600</v>
+      </c>
+      <c r="N82">
+        <v>18385581000</v>
+      </c>
+      <c r="O82">
+        <v>45168400</v>
+      </c>
+      <c r="P82">
+        <v>614404735000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1671197040000</v>
+      </c>
+      <c r="B83">
+        <v>2022400</v>
+      </c>
+      <c r="C83">
+        <v>2690200</v>
+      </c>
+      <c r="D83">
+        <v>5500</v>
+      </c>
+      <c r="E83">
+        <v>40556703000</v>
+      </c>
+      <c r="F83">
+        <v>45915438000</v>
+      </c>
+      <c r="G83">
+        <v>122575000</v>
+      </c>
+      <c r="H83">
+        <v>4718100</v>
+      </c>
+      <c r="I83">
+        <v>86594716000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-16T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>7915856310000</v>
+      </c>
+      <c r="L83">
+        <v>471192200</v>
+      </c>
+      <c r="M83">
+        <v>667800</v>
+      </c>
+      <c r="N83">
+        <v>5358735000</v>
+      </c>
+      <c r="O83">
+        <v>45836200</v>
+      </c>
+      <c r="P83">
+        <v>619763470000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1671197160000</v>
+      </c>
+      <c r="B84">
+        <v>2628800</v>
+      </c>
+      <c r="C84">
+        <v>1754100</v>
+      </c>
+      <c r="D84">
+        <v>3700</v>
+      </c>
+      <c r="E84">
+        <v>42047464000</v>
+      </c>
+      <c r="F84">
+        <v>29956321000</v>
+      </c>
+      <c r="G84">
+        <v>49240000</v>
+      </c>
+      <c r="H84">
+        <v>4386600</v>
+      </c>
+      <c r="I84">
+        <v>72053025000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-16T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>7987909335000</v>
+      </c>
+      <c r="L84">
+        <v>475578800</v>
+      </c>
+      <c r="M84">
+        <v>-874700</v>
+      </c>
+      <c r="N84">
+        <v>-12091143000</v>
+      </c>
+      <c r="O84">
+        <v>44961500</v>
+      </c>
+      <c r="P84">
+        <v>607672327000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1671197280000</v>
+      </c>
+      <c r="B85">
+        <v>3388700</v>
+      </c>
+      <c r="C85">
+        <v>1199900</v>
+      </c>
+      <c r="D85">
+        <v>7100</v>
+      </c>
+      <c r="E85">
+        <v>64973225000</v>
+      </c>
+      <c r="F85">
+        <v>18886852000</v>
+      </c>
+      <c r="G85">
+        <v>84840000</v>
+      </c>
+      <c r="H85">
+        <v>4595700</v>
+      </c>
+      <c r="I85">
+        <v>83944917000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-16T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>8071854252000</v>
+      </c>
+      <c r="L85">
+        <v>480174500</v>
+      </c>
+      <c r="M85">
+        <v>-2188800</v>
+      </c>
+      <c r="N85">
+        <v>-46086373000</v>
+      </c>
+      <c r="O85">
+        <v>42772700</v>
+      </c>
+      <c r="P85">
+        <v>561585954000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1671197400000</v>
+      </c>
+      <c r="B86">
+        <v>5808100</v>
+      </c>
+      <c r="C86">
+        <v>1275900</v>
+      </c>
+      <c r="D86">
+        <v>6500</v>
+      </c>
+      <c r="E86">
+        <v>104296664000</v>
+      </c>
+      <c r="F86">
+        <v>22493541000</v>
+      </c>
+      <c r="G86">
+        <v>119236000</v>
+      </c>
+      <c r="H86">
+        <v>7090500</v>
+      </c>
+      <c r="I86">
+        <v>126909441000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-16T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>8198763693000</v>
+      </c>
+      <c r="L86">
+        <v>487265000</v>
+      </c>
+      <c r="M86">
+        <v>-4532200</v>
+      </c>
+      <c r="N86">
+        <v>-81803123000</v>
+      </c>
+      <c r="O86">
+        <v>38240500</v>
+      </c>
+      <c r="P86">
+        <v>479782831000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1671197520000</v>
+      </c>
+      <c r="B87">
+        <v>5744900</v>
+      </c>
+      <c r="C87">
+        <v>1188900</v>
+      </c>
+      <c r="D87">
+        <v>30100</v>
+      </c>
+      <c r="E87">
+        <v>91354523000</v>
+      </c>
+      <c r="F87">
+        <v>19823210000</v>
+      </c>
+      <c r="G87">
+        <v>446721000</v>
+      </c>
+      <c r="H87">
+        <v>6963900</v>
+      </c>
+      <c r="I87">
+        <v>111624454000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-16T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>8310388147000</v>
+      </c>
+      <c r="L87">
+        <v>494228900</v>
+      </c>
+      <c r="M87">
+        <v>-4556000</v>
+      </c>
+      <c r="N87">
+        <v>-71531313000</v>
+      </c>
+      <c r="O87">
+        <v>33684500</v>
+      </c>
+      <c r="P87">
+        <v>408251518000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1671197640000</v>
+      </c>
+      <c r="B88">
+        <v>3888700</v>
+      </c>
+      <c r="C88">
+        <v>1940700</v>
+      </c>
+      <c r="D88">
+        <v>17000</v>
+      </c>
+      <c r="E88">
+        <v>69505662000</v>
+      </c>
+      <c r="F88">
+        <v>34572143000</v>
+      </c>
+      <c r="G88">
+        <v>266285000</v>
+      </c>
+      <c r="H88">
+        <v>5846400</v>
+      </c>
+      <c r="I88">
+        <v>104344090000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-16T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>8414732237000</v>
+      </c>
+      <c r="L88">
+        <v>500075300</v>
+      </c>
+      <c r="M88">
+        <v>-1948000</v>
+      </c>
+      <c r="N88">
+        <v>-34933519000</v>
+      </c>
+      <c r="O88">
+        <v>31736500</v>
+      </c>
+      <c r="P88">
+        <v>373317999000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1671197760000</v>
+      </c>
+      <c r="B89">
+        <v>2174600</v>
+      </c>
+      <c r="C89">
+        <v>2360600</v>
+      </c>
+      <c r="D89">
+        <v>2500</v>
+      </c>
+      <c r="E89">
+        <v>32620574000</v>
+      </c>
+      <c r="F89">
+        <v>39615531000</v>
+      </c>
+      <c r="G89">
+        <v>83820000</v>
+      </c>
+      <c r="H89">
+        <v>4537700</v>
+      </c>
+      <c r="I89">
+        <v>72319925000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-16T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>8487052162000</v>
+      </c>
+      <c r="L89">
+        <v>504613000</v>
+      </c>
+      <c r="M89">
+        <v>186000</v>
+      </c>
+      <c r="N89">
+        <v>6994957000</v>
+      </c>
+      <c r="O89">
+        <v>31922500</v>
+      </c>
+      <c r="P89">
+        <v>380312956000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1671197880000</v>
+      </c>
+      <c r="B90">
+        <v>1481300</v>
+      </c>
+      <c r="C90">
+        <v>2029500</v>
+      </c>
+      <c r="D90">
+        <v>1300</v>
+      </c>
+      <c r="E90">
+        <v>25118285000</v>
+      </c>
+      <c r="F90">
+        <v>41729052000</v>
+      </c>
+      <c r="G90">
+        <v>15705000</v>
+      </c>
+      <c r="H90">
+        <v>3512100</v>
+      </c>
+      <c r="I90">
+        <v>66863042000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-16T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>8553915204000</v>
+      </c>
+      <c r="L90">
+        <v>508125100</v>
+      </c>
+      <c r="M90">
+        <v>548200</v>
+      </c>
+      <c r="N90">
+        <v>16610767000</v>
+      </c>
+      <c r="O90">
+        <v>32470700</v>
+      </c>
+      <c r="P90">
+        <v>396923723000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1671198000000</v>
+      </c>
+      <c r="B91">
+        <v>2142700</v>
+      </c>
+      <c r="C91">
+        <v>1569000</v>
+      </c>
+      <c r="D91">
+        <v>7700</v>
+      </c>
+      <c r="E91">
+        <v>35324472000</v>
+      </c>
+      <c r="F91">
+        <v>27144330000</v>
+      </c>
+      <c r="G91">
+        <v>322551000</v>
+      </c>
+      <c r="H91">
+        <v>3719400</v>
+      </c>
+      <c r="I91">
+        <v>62791353000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-16T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>8616706557000</v>
+      </c>
+      <c r="L91">
+        <v>511844500</v>
+      </c>
+      <c r="M91">
+        <v>-573700</v>
+      </c>
+      <c r="N91">
+        <v>-8180142000</v>
+      </c>
+      <c r="O91">
+        <v>31897000</v>
+      </c>
+      <c r="P91">
+        <v>388743581000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1671198120000</v>
+      </c>
+      <c r="B92">
+        <v>3372600</v>
+      </c>
+      <c r="C92">
+        <v>1456800</v>
+      </c>
+      <c r="D92">
+        <v>2700</v>
+      </c>
+      <c r="E92">
+        <v>61391614000</v>
+      </c>
+      <c r="F92">
+        <v>26019167000</v>
+      </c>
+      <c r="G92">
+        <v>102565000</v>
+      </c>
+      <c r="H92">
+        <v>4832100</v>
+      </c>
+      <c r="I92">
+        <v>87513346000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-16T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>8704219903000</v>
+      </c>
+      <c r="L92">
+        <v>516676600</v>
+      </c>
+      <c r="M92">
+        <v>-1915800</v>
+      </c>
+      <c r="N92">
+        <v>-35372447000</v>
+      </c>
+      <c r="O92">
+        <v>29981200</v>
+      </c>
+      <c r="P92">
+        <v>353371134000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1671198240000</v>
+      </c>
+      <c r="B93">
+        <v>1899500</v>
+      </c>
+      <c r="C93">
+        <v>1310800</v>
+      </c>
+      <c r="D93">
+        <v>800</v>
+      </c>
+      <c r="E93">
+        <v>29271328000</v>
+      </c>
+      <c r="F93">
+        <v>24893094000</v>
+      </c>
+      <c r="G93">
+        <v>61210000</v>
+      </c>
+      <c r="H93">
+        <v>3211100</v>
+      </c>
+      <c r="I93">
+        <v>54225632000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-16T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>8758445535000</v>
+      </c>
+      <c r="L93">
+        <v>519887700</v>
+      </c>
+      <c r="M93">
+        <v>-588700</v>
+      </c>
+      <c r="N93">
+        <v>-4378234000</v>
+      </c>
+      <c r="O93">
+        <v>29392500</v>
+      </c>
+      <c r="P93">
+        <v>348992900000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1671198360000</v>
+      </c>
+      <c r="B94">
+        <v>1559000</v>
+      </c>
+      <c r="C94">
+        <v>2033000</v>
+      </c>
+      <c r="D94">
+        <v>18500</v>
+      </c>
+      <c r="E94">
+        <v>27242121000</v>
+      </c>
+      <c r="F94">
+        <v>37903736000</v>
+      </c>
+      <c r="G94">
+        <v>238903000</v>
+      </c>
+      <c r="H94">
+        <v>3610500</v>
+      </c>
+      <c r="I94">
+        <v>65384760000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-16T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>8823830295000</v>
+      </c>
+      <c r="L94">
+        <v>523498200</v>
+      </c>
+      <c r="M94">
+        <v>474000</v>
+      </c>
+      <c r="N94">
+        <v>10661615000</v>
+      </c>
+      <c r="O94">
+        <v>29866500</v>
+      </c>
+      <c r="P94">
+        <v>359654515000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1671198480000</v>
+      </c>
+      <c r="B95">
+        <v>1862300</v>
+      </c>
+      <c r="C95">
+        <v>2556700</v>
+      </c>
+      <c r="D95">
+        <v>1500</v>
+      </c>
+      <c r="E95">
+        <v>31985233000</v>
+      </c>
+      <c r="F95">
+        <v>45756558000</v>
+      </c>
+      <c r="G95">
+        <v>12640000</v>
+      </c>
+      <c r="H95">
+        <v>4420500</v>
+      </c>
+      <c r="I95">
+        <v>77754431000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-16T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>8901584726000</v>
+      </c>
+      <c r="L95">
+        <v>527918700</v>
+      </c>
+      <c r="M95">
+        <v>694400</v>
+      </c>
+      <c r="N95">
+        <v>13771325000</v>
+      </c>
+      <c r="O95">
+        <v>30560900</v>
+      </c>
+      <c r="P95">
+        <v>373425840000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1671198600000</v>
+      </c>
+      <c r="B96">
+        <v>1554700</v>
+      </c>
+      <c r="C96">
+        <v>3235300</v>
+      </c>
+      <c r="D96">
+        <v>8700</v>
+      </c>
+      <c r="E96">
+        <v>27026540000</v>
+      </c>
+      <c r="F96">
+        <v>62451022000</v>
+      </c>
+      <c r="G96">
+        <v>114478000</v>
+      </c>
+      <c r="H96">
+        <v>4798700</v>
+      </c>
+      <c r="I96">
+        <v>89592040000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-16T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>8991176766000</v>
+      </c>
+      <c r="L96">
+        <v>532717400</v>
+      </c>
+      <c r="M96">
+        <v>1680600</v>
+      </c>
+      <c r="N96">
+        <v>35424482000</v>
+      </c>
+      <c r="O96">
+        <v>32241500</v>
+      </c>
+      <c r="P96">
+        <v>408850322000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1671198720000</v>
+      </c>
+      <c r="B97">
+        <v>1602700</v>
+      </c>
+      <c r="C97">
+        <v>3609400</v>
+      </c>
+      <c r="D97">
+        <v>17600</v>
+      </c>
+      <c r="E97">
+        <v>25975850000</v>
+      </c>
+      <c r="F97">
+        <v>71751281000</v>
+      </c>
+      <c r="G97">
+        <v>220140000</v>
+      </c>
+      <c r="H97">
+        <v>5229700</v>
+      </c>
+      <c r="I97">
+        <v>97947271000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-16T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>9089124037000</v>
+      </c>
+      <c r="L97">
+        <v>537947100</v>
+      </c>
+      <c r="M97">
+        <v>2006700</v>
+      </c>
+      <c r="N97">
+        <v>45775431000</v>
+      </c>
+      <c r="O97">
+        <v>34248200</v>
+      </c>
+      <c r="P97">
+        <v>454625753000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1671198840000</v>
+      </c>
+      <c r="B98">
+        <v>1466400</v>
+      </c>
+      <c r="C98">
+        <v>4190100</v>
+      </c>
+      <c r="D98">
+        <v>10600</v>
+      </c>
+      <c r="E98">
+        <v>28883202000</v>
+      </c>
+      <c r="F98">
+        <v>79814997000</v>
+      </c>
+      <c r="G98">
+        <v>211144000</v>
+      </c>
+      <c r="H98">
+        <v>5667100</v>
+      </c>
+      <c r="I98">
+        <v>108909343000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-16T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>9198033380000</v>
+      </c>
+      <c r="L98">
+        <v>543614200</v>
+      </c>
+      <c r="M98">
+        <v>2723700</v>
+      </c>
+      <c r="N98">
+        <v>50931795000</v>
+      </c>
+      <c r="O98">
+        <v>36971900</v>
+      </c>
+      <c r="P98">
+        <v>505557548000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1671198960000</v>
+      </c>
+      <c r="B99">
+        <v>2625600</v>
+      </c>
+      <c r="C99">
+        <v>2268900</v>
+      </c>
+      <c r="D99">
+        <v>9100</v>
+      </c>
+      <c r="E99">
+        <v>51542910000</v>
+      </c>
+      <c r="F99">
+        <v>41826960000</v>
+      </c>
+      <c r="G99">
+        <v>317079000</v>
+      </c>
+      <c r="H99">
+        <v>4903600</v>
+      </c>
+      <c r="I99">
+        <v>93686949000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-16T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>9291720329000</v>
+      </c>
+      <c r="L99">
+        <v>548517800</v>
+      </c>
+      <c r="M99">
+        <v>-356700</v>
+      </c>
+      <c r="N99">
+        <v>-9715950000</v>
+      </c>
+      <c r="O99">
+        <v>36615200</v>
+      </c>
+      <c r="P99">
+        <v>495841598000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1671199080000</v>
+      </c>
+      <c r="B100">
+        <v>3397400</v>
+      </c>
+      <c r="C100">
+        <v>1226500</v>
+      </c>
+      <c r="D100">
+        <v>9500</v>
+      </c>
+      <c r="E100">
+        <v>62233419000</v>
+      </c>
+      <c r="F100">
+        <v>24069031000</v>
+      </c>
+      <c r="G100">
+        <v>319515000</v>
+      </c>
+      <c r="H100">
+        <v>4633400</v>
+      </c>
+      <c r="I100">
+        <v>86621965000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-16T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>9378342294000</v>
+      </c>
+      <c r="L100">
+        <v>553151200</v>
+      </c>
+      <c r="M100">
+        <v>-2170900</v>
+      </c>
+      <c r="N100">
+        <v>-38164388000</v>
+      </c>
+      <c r="O100">
+        <v>34444300</v>
+      </c>
+      <c r="P100">
+        <v>457677210000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1671199200000</v>
+      </c>
+      <c r="B101">
+        <v>2441200</v>
+      </c>
+      <c r="C101">
+        <v>1835100</v>
+      </c>
+      <c r="D101">
+        <v>31800</v>
+      </c>
+      <c r="E101">
+        <v>47862002000</v>
+      </c>
+      <c r="F101">
+        <v>36964448000</v>
+      </c>
+      <c r="G101">
+        <v>525769000</v>
+      </c>
+      <c r="H101">
+        <v>4308100</v>
+      </c>
+      <c r="I101">
+        <v>85352219000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-16T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>9463694513000</v>
+      </c>
+      <c r="L101">
+        <v>557459300</v>
+      </c>
+      <c r="M101">
+        <v>-606100</v>
+      </c>
+      <c r="N101">
+        <v>-10897554000</v>
+      </c>
+      <c r="O101">
+        <v>33838200</v>
+      </c>
+      <c r="P101">
+        <v>446779656000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1671199320000</v>
+      </c>
+      <c r="B102">
+        <v>2199700</v>
+      </c>
+      <c r="C102">
+        <v>1653100</v>
+      </c>
+      <c r="D102">
+        <v>34400</v>
+      </c>
+      <c r="E102">
+        <v>41610397000</v>
+      </c>
+      <c r="F102">
+        <v>35703529000</v>
+      </c>
+      <c r="G102">
+        <v>850360000</v>
+      </c>
+      <c r="H102">
+        <v>3887200</v>
+      </c>
+      <c r="I102">
+        <v>78164286000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-16T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>9541858799000</v>
+      </c>
+      <c r="L102">
+        <v>561346500</v>
+      </c>
+      <c r="M102">
+        <v>-546600</v>
+      </c>
+      <c r="N102">
+        <v>-5906868000</v>
+      </c>
+      <c r="O102">
+        <v>33291600</v>
+      </c>
+      <c r="P102">
+        <v>440872788000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1671199440000</v>
+      </c>
+      <c r="B103">
+        <v>1880600</v>
+      </c>
+      <c r="C103">
+        <v>2244900</v>
+      </c>
+      <c r="D103">
+        <v>12300</v>
+      </c>
+      <c r="E103">
+        <v>34561469000</v>
+      </c>
+      <c r="F103">
+        <v>45190878000</v>
+      </c>
+      <c r="G103">
+        <v>124824000</v>
+      </c>
+      <c r="H103">
+        <v>4137800</v>
+      </c>
+      <c r="I103">
+        <v>79877171000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-16T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>9621735970000</v>
+      </c>
+      <c r="L103">
+        <v>565484300</v>
+      </c>
+      <c r="M103">
+        <v>364300</v>
+      </c>
+      <c r="N103">
+        <v>10629409000</v>
+      </c>
+      <c r="O103">
+        <v>33655900</v>
+      </c>
+      <c r="P103">
+        <v>451502197000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1671199560000</v>
+      </c>
+      <c r="B104">
+        <v>1793600</v>
+      </c>
+      <c r="C104">
+        <v>2912100</v>
+      </c>
+      <c r="D104">
+        <v>29200</v>
+      </c>
+      <c r="E104">
+        <v>26547101000</v>
+      </c>
+      <c r="F104">
+        <v>57165892000</v>
+      </c>
+      <c r="G104">
+        <v>274377000</v>
+      </c>
+      <c r="H104">
+        <v>4734900</v>
+      </c>
+      <c r="I104">
+        <v>83987370000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-16T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>9705723340000</v>
+      </c>
+      <c r="L104">
+        <v>570219200</v>
+      </c>
+      <c r="M104">
+        <v>1118500</v>
+      </c>
+      <c r="N104">
+        <v>30618791000</v>
+      </c>
+      <c r="O104">
+        <v>34774400</v>
+      </c>
+      <c r="P104">
+        <v>482120988000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1671199680000</v>
+      </c>
+      <c r="B105">
+        <v>1425900</v>
+      </c>
+      <c r="C105">
+        <v>4804700</v>
+      </c>
+      <c r="D105">
+        <v>18100</v>
+      </c>
+      <c r="E105">
+        <v>25903946000</v>
+      </c>
+      <c r="F105">
+        <v>95377158000</v>
+      </c>
+      <c r="G105">
+        <v>137986000</v>
+      </c>
+      <c r="H105">
+        <v>6248700</v>
+      </c>
+      <c r="I105">
+        <v>121419090000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-16T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>9827142430000</v>
+      </c>
+      <c r="L105">
+        <v>576467900</v>
+      </c>
+      <c r="M105">
+        <v>3378800</v>
+      </c>
+      <c r="N105">
+        <v>69473212000</v>
+      </c>
+      <c r="O105">
+        <v>38153200</v>
+      </c>
+      <c r="P105">
+        <v>551594200000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1671199800000</v>
+      </c>
+      <c r="B106">
+        <v>1497200</v>
+      </c>
+      <c r="C106">
+        <v>4921400</v>
+      </c>
+      <c r="D106">
+        <v>17700</v>
+      </c>
+      <c r="E106">
+        <v>30894384000</v>
+      </c>
+      <c r="F106">
+        <v>88803543000</v>
+      </c>
+      <c r="G106">
+        <v>298529000</v>
+      </c>
+      <c r="H106">
+        <v>6436300</v>
+      </c>
+      <c r="I106">
+        <v>119996456000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-16T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>9947138886000</v>
+      </c>
+      <c r="L106">
+        <v>582904200</v>
+      </c>
+      <c r="M106">
+        <v>3424200</v>
+      </c>
+      <c r="N106">
+        <v>57909159000</v>
+      </c>
+      <c r="O106">
+        <v>41577400</v>
+      </c>
+      <c r="P106">
+        <v>609503359000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1671199920000</v>
+      </c>
+      <c r="B107">
+        <v>3216900</v>
+      </c>
+      <c r="C107">
+        <v>4509300</v>
+      </c>
+      <c r="D107">
+        <v>38000</v>
+      </c>
+      <c r="E107">
+        <v>55695370000</v>
+      </c>
+      <c r="F107">
+        <v>79009924000</v>
+      </c>
+      <c r="G107">
+        <v>462435000</v>
+      </c>
+      <c r="H107">
+        <v>7764200</v>
+      </c>
+      <c r="I107">
+        <v>135167729000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-16T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>10082306615000</v>
+      </c>
+      <c r="L107">
+        <v>590668400</v>
+      </c>
+      <c r="M107">
+        <v>1292400</v>
+      </c>
+      <c r="N107">
+        <v>23314554000</v>
+      </c>
+      <c r="O107">
+        <v>42869800</v>
+      </c>
+      <c r="P107">
+        <v>632817913000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1671200040000</v>
+      </c>
+      <c r="B108">
+        <v>2017800</v>
+      </c>
+      <c r="C108">
+        <v>2337800</v>
+      </c>
+      <c r="D108">
+        <v>4600</v>
+      </c>
+      <c r="E108">
+        <v>41775587000</v>
+      </c>
+      <c r="F108">
+        <v>50436504000</v>
+      </c>
+      <c r="G108">
+        <v>119387000</v>
+      </c>
+      <c r="H108">
+        <v>4360200</v>
+      </c>
+      <c r="I108">
+        <v>92331478000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-16T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>10174638093000</v>
+      </c>
+      <c r="L108">
+        <v>595028600</v>
+      </c>
+      <c r="M108">
+        <v>320000</v>
+      </c>
+      <c r="N108">
+        <v>8660917000</v>
+      </c>
+      <c r="O108">
+        <v>43189800</v>
+      </c>
+      <c r="P108">
+        <v>641478830000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1671200160000</v>
+      </c>
+      <c r="B109">
+        <v>2808500</v>
+      </c>
+      <c r="C109">
+        <v>2657400</v>
+      </c>
+      <c r="D109">
+        <v>11000</v>
+      </c>
+      <c r="E109">
+        <v>61947076000</v>
+      </c>
+      <c r="F109">
+        <v>47075399000</v>
+      </c>
+      <c r="G109">
+        <v>284201000</v>
+      </c>
+      <c r="H109">
+        <v>5476900</v>
+      </c>
+      <c r="I109">
+        <v>109306676000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-16T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>10283944769000</v>
+      </c>
+      <c r="L109">
+        <v>600505500</v>
+      </c>
+      <c r="M109">
+        <v>-151100</v>
+      </c>
+      <c r="N109">
+        <v>-14871677000</v>
+      </c>
+      <c r="O109">
+        <v>43038700</v>
+      </c>
+      <c r="P109">
+        <v>626607153000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1671200280000</v>
+      </c>
+      <c r="B110">
+        <v>4398300</v>
+      </c>
+      <c r="C110">
+        <v>2292600</v>
+      </c>
+      <c r="D110">
+        <v>15100</v>
+      </c>
+      <c r="E110">
+        <v>83170778000</v>
+      </c>
+      <c r="F110">
+        <v>46237631000</v>
+      </c>
+      <c r="G110">
+        <v>317751000</v>
+      </c>
+      <c r="H110">
+        <v>6706000</v>
+      </c>
+      <c r="I110">
+        <v>129726160000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-16T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>10413670929000</v>
+      </c>
+      <c r="L110">
+        <v>607211500</v>
+      </c>
+      <c r="M110">
+        <v>-2105700</v>
+      </c>
+      <c r="N110">
+        <v>-36933147000</v>
+      </c>
+      <c r="O110">
+        <v>40933000</v>
+      </c>
+      <c r="P110">
+        <v>589674006000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1671200400000</v>
+      </c>
+      <c r="B111">
+        <v>7029500</v>
+      </c>
+      <c r="C111">
+        <v>2148500</v>
+      </c>
+      <c r="D111">
+        <v>50000</v>
+      </c>
+      <c r="E111">
+        <v>120864972000</v>
+      </c>
+      <c r="F111">
+        <v>42198436000</v>
+      </c>
+      <c r="G111">
+        <v>949810000</v>
+      </c>
+      <c r="H111">
+        <v>9228000</v>
+      </c>
+      <c r="I111">
+        <v>164013218000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-16T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>10577684147000</v>
+      </c>
+      <c r="L111">
+        <v>616439500</v>
+      </c>
+      <c r="M111">
+        <v>-4881000</v>
+      </c>
+      <c r="N111">
+        <v>-78666536000</v>
+      </c>
+      <c r="O111">
+        <v>36052000</v>
+      </c>
+      <c r="P111">
+        <v>511007470000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1671200520000</v>
+      </c>
+      <c r="B112">
+        <v>5527400</v>
+      </c>
+      <c r="C112">
+        <v>2304700</v>
+      </c>
+      <c r="D112">
+        <v>57200</v>
+      </c>
+      <c r="E112">
+        <v>95583042000</v>
+      </c>
+      <c r="F112">
+        <v>40663175000</v>
+      </c>
+      <c r="G112">
+        <v>1008374000</v>
+      </c>
+      <c r="H112">
+        <v>7889300</v>
+      </c>
+      <c r="I112">
+        <v>137254591000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-16T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>10714938738000</v>
+      </c>
+      <c r="L112">
+        <v>624328800</v>
+      </c>
+      <c r="M112">
+        <v>-3222700</v>
+      </c>
+      <c r="N112">
+        <v>-54919867000</v>
+      </c>
+      <c r="O112">
+        <v>32829300</v>
+      </c>
+      <c r="P112">
+        <v>456087603000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1671200640000</v>
+      </c>
+      <c r="B113">
+        <v>3185000</v>
+      </c>
+      <c r="C113">
+        <v>3734200</v>
+      </c>
+      <c r="D113">
+        <v>39000</v>
+      </c>
+      <c r="E113">
+        <v>58948125000</v>
+      </c>
+      <c r="F113">
+        <v>72085890000</v>
+      </c>
+      <c r="G113">
+        <v>808080000</v>
+      </c>
+      <c r="H113">
+        <v>6958200</v>
+      </c>
+      <c r="I113">
+        <v>131842095000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-16T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>10846780833000</v>
+      </c>
+      <c r="L113">
+        <v>631287000</v>
+      </c>
+      <c r="M113">
+        <v>549200</v>
+      </c>
+      <c r="N113">
+        <v>13137765000</v>
+      </c>
+      <c r="O113">
+        <v>33378500</v>
+      </c>
+      <c r="P113">
+        <v>469225368000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1671200760000</v>
+      </c>
+      <c r="B114">
+        <v>3768800</v>
+      </c>
+      <c r="C114">
+        <v>3583000</v>
+      </c>
+      <c r="D114">
+        <v>112000</v>
+      </c>
+      <c r="E114">
+        <v>67708824000</v>
+      </c>
+      <c r="F114">
+        <v>74356450000</v>
+      </c>
+      <c r="G114">
+        <v>1959734999.9999998</v>
+      </c>
+      <c r="H114">
+        <v>7463800</v>
+      </c>
+      <c r="I114">
+        <v>144025009000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-16T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>10990805842000</v>
+      </c>
+      <c r="L114">
+        <v>638750800</v>
+      </c>
+      <c r="M114">
+        <v>-185800</v>
+      </c>
+      <c r="N114">
+        <v>6647626000</v>
+      </c>
+      <c r="O114">
+        <v>33192700</v>
+      </c>
+      <c r="P114">
+        <v>475872994000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1671200880000</v>
+      </c>
+      <c r="B115">
+        <v>5583000</v>
+      </c>
+      <c r="C115">
+        <v>4181000</v>
+      </c>
+      <c r="D115">
+        <v>40200</v>
+      </c>
+      <c r="E115">
+        <v>93244146000</v>
+      </c>
+      <c r="F115">
+        <v>66998594000</v>
+      </c>
+      <c r="G115">
+        <v>703642000</v>
+      </c>
+      <c r="H115">
+        <v>9804200</v>
+      </c>
+      <c r="I115">
+        <v>160946382000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-16T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>11151752224000</v>
+      </c>
+      <c r="L115">
+        <v>648555000</v>
+      </c>
+      <c r="M115">
+        <v>-1402000</v>
+      </c>
+      <c r="N115">
+        <v>-26245552000</v>
+      </c>
+      <c r="O115">
+        <v>31790700</v>
+      </c>
+      <c r="P115">
+        <v>449627442000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1671201000000</v>
+      </c>
+      <c r="B116">
+        <v>10900</v>
+      </c>
+      <c r="C116">
+        <v>12800</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>234715000</v>
+      </c>
+      <c r="F116">
+        <v>125505000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>23700</v>
+      </c>
+      <c r="I116">
+        <v>360220000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-16T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>11152112444000</v>
+      </c>
+      <c r="L116">
+        <v>648578700</v>
+      </c>
+      <c r="M116">
+        <v>1900</v>
+      </c>
+      <c r="N116">
+        <v>-109210000</v>
+      </c>
+      <c r="O116">
+        <v>31792600</v>
+      </c>
+      <c r="P116">
+        <v>449518232000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1671201360000</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>5000</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>50500000</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>5000</v>
+      </c>
+      <c r="I117">
+        <v>50500000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-16T14:36:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>11152162944000</v>
+      </c>
+      <c r="L117">
+        <v>648583700</v>
+      </c>
+      <c r="M117">
+        <v>5000</v>
+      </c>
+      <c r="N117">
+        <v>50500000</v>
+      </c>
+      <c r="O117">
+        <v>31797600</v>
+      </c>
+      <c r="P117">
+        <v>449568732000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1671201480000</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>800</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>8080000</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>800</v>
+      </c>
+      <c r="I118">
+        <v>8080000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-16T14:38:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>11152171024000</v>
+      </c>
+      <c r="L118">
+        <v>648584500</v>
+      </c>
+      <c r="M118">
+        <v>800</v>
+      </c>
+      <c r="N118">
+        <v>8080000</v>
+      </c>
+      <c r="O118">
+        <v>31798400</v>
+      </c>
+      <c r="P118">
+        <v>449576812000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1671201720000</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>200</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>2030000</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>200</v>
+      </c>
+      <c r="I119">
+        <v>2030000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-16T14:42:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>11152173054000</v>
+      </c>
+      <c r="L119">
+        <v>648584700</v>
+      </c>
+      <c r="M119">
+        <v>200</v>
+      </c>
+      <c r="N119">
+        <v>2030000</v>
+      </c>
+      <c r="O119">
+        <v>31798600</v>
+      </c>
+      <c r="P119">
+        <v>449578842000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1671201840000</v>
+      </c>
+      <c r="B120">
+        <v>2812300</v>
+      </c>
+      <c r="C120">
+        <v>10832200</v>
+      </c>
+      <c r="D120">
+        <v>92698400</v>
+      </c>
+      <c r="E120">
+        <v>42608765000</v>
+      </c>
+      <c r="F120">
+        <v>250135425000</v>
+      </c>
+      <c r="G120">
+        <v>2095471327000</v>
+      </c>
+      <c r="H120">
+        <v>106342900</v>
+      </c>
+      <c r="I120">
+        <v>2388215517000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-16T14:44:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>13540388571000</v>
+      </c>
+      <c r="L120">
+        <v>754927600</v>
+      </c>
+      <c r="M120">
+        <v>8019900</v>
+      </c>
+      <c r="N120">
+        <v>207526660000</v>
+      </c>
+      <c r="O120">
+        <v>39818500</v>
+      </c>
+      <c r="P120">
+        <v>657105502000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1671202080000</v>
+      </c>
+      <c r="B121">
+        <v>500</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>5050000</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>500</v>
+      </c>
+      <c r="I121">
+        <v>5050000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-16T14:48:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>13540393621000</v>
+      </c>
+      <c r="L121">
+        <v>754928100</v>
+      </c>
+      <c r="M121">
+        <v>-500</v>
+      </c>
+      <c r="N121">
+        <v>-5050000</v>
+      </c>
+      <c r="O121">
+        <v>39818000</v>
+      </c>
+      <c r="P121">
+        <v>657100452000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
         <v>1671202200000</v>
       </c>
-      <c r="B52">
+      <c r="B122">
         <v>28000</v>
       </c>
-      <c r="C52">
+      <c r="C122">
         <v>0</v>
       </c>
-      <c r="D52">
+      <c r="D122">
         <v>0</v>
       </c>
-      <c r="E52">
+      <c r="E122">
         <v>277200000</v>
       </c>
-      <c r="F52">
+      <c r="F122">
         <v>0</v>
       </c>
-      <c r="G52">
+      <c r="G122">
         <v>0</v>
       </c>
-      <c r="H52">
+      <c r="H122">
         <v>28000</v>
       </c>
-      <c r="I52">
+      <c r="I122">
         <v>277200000</v>
       </c>
-      <c r="J52" t="str">
+      <c r="J122" t="str">
         <v>2022-12-16T14:50:00.000Z</v>
       </c>
-      <c r="K52">
+      <c r="K122">
         <v>13540670821000</v>
       </c>
-      <c r="L52">
+      <c r="L122">
         <v>754956100</v>
       </c>
-      <c r="M52">
+      <c r="M122">
         <v>-28000</v>
       </c>
-      <c r="N52">
+      <c r="N122">
         <v>-277200000</v>
       </c>
-      <c r="O52">
+      <c r="O122">
         <v>39790000</v>
       </c>
-      <c r="P52">
+      <c r="P122">
         <v>656823252000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P122"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221216/VNINDEX_HOSE_5p_20221216.xlsx
+++ b/name/vnindex/20221216/VNINDEX_HOSE_5p_20221216.xlsx
@@ -466,25 +466,25 @@
         <v>5083800</v>
       </c>
       <c r="E2">
-        <v>111978878000</v>
+        <v>98585285000</v>
       </c>
       <c r="F2">
-        <v>48406763000</v>
+        <v>43347427400</v>
       </c>
       <c r="G2">
-        <v>75705805000</v>
+        <v>60111215200</v>
       </c>
       <c r="H2">
         <v>15806600</v>
       </c>
       <c r="I2">
-        <v>236091446000</v>
+        <v>202043927600</v>
       </c>
       <c r="J2" t="str">
         <v>2022-12-16T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>236091446000</v>
+        <v>202043927600</v>
       </c>
       <c r="L2">
         <v>15806600</v>
@@ -493,13 +493,13 @@
         <v>-3012600</v>
       </c>
       <c r="N2">
-        <v>-63572115000</v>
+        <v>-55237857600</v>
       </c>
       <c r="O2">
         <v>-3012600</v>
       </c>
       <c r="P2">
-        <v>-63572115000</v>
+        <v>-55237857600</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>97800</v>
       </c>
       <c r="E3">
-        <v>71876629000</v>
+        <v>59520497500</v>
       </c>
       <c r="F3">
-        <v>71080175000</v>
+        <v>65210950100</v>
       </c>
       <c r="G3">
-        <v>1453124000</v>
+        <v>1337439800</v>
       </c>
       <c r="H3">
         <v>8736400</v>
       </c>
       <c r="I3">
-        <v>144409928000</v>
+        <v>126068887400</v>
       </c>
       <c r="J3" t="str">
         <v>2022-12-16T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>380501374000</v>
+        <v>328112815000</v>
       </c>
       <c r="L3">
         <v>24543000</v>
@@ -543,13 +543,13 @@
         <v>46600</v>
       </c>
       <c r="N3">
-        <v>-796454000</v>
+        <v>5690452600</v>
       </c>
       <c r="O3">
         <v>-2966000</v>
       </c>
       <c r="P3">
-        <v>-64368569000</v>
+        <v>-49547405000</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         <v>39100</v>
       </c>
       <c r="E4">
-        <v>45002114000</v>
+        <v>42748370000</v>
       </c>
       <c r="F4">
-        <v>86205343000</v>
+        <v>74835624100</v>
       </c>
       <c r="G4">
         <v>638337000</v>
@@ -578,13 +578,13 @@
         <v>8089100</v>
       </c>
       <c r="I4">
-        <v>131845794000</v>
+        <v>118222331100</v>
       </c>
       <c r="J4" t="str">
         <v>2022-12-16T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>512347168000</v>
+        <v>446335146100</v>
       </c>
       <c r="L4">
         <v>32632100</v>
@@ -593,13 +593,13 @@
         <v>2550000</v>
       </c>
       <c r="N4">
-        <v>41203229000</v>
+        <v>32087254100</v>
       </c>
       <c r="O4">
         <v>-416000</v>
       </c>
       <c r="P4">
-        <v>-23165340000</v>
+        <v>-17460150900</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>51700</v>
       </c>
       <c r="E5">
-        <v>53989281000</v>
+        <v>50754818700</v>
       </c>
       <c r="F5">
-        <v>75043412000</v>
+        <v>68258204000</v>
       </c>
       <c r="G5">
         <v>1081760000</v>
@@ -628,13 +628,13 @@
         <v>7714600</v>
       </c>
       <c r="I5">
-        <v>130114453000</v>
+        <v>120094782700</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-16T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>642461621000</v>
+        <v>566429928800</v>
       </c>
       <c r="L5">
         <v>40346700</v>
@@ -643,13 +643,13 @@
         <v>1365300</v>
       </c>
       <c r="N5">
-        <v>21054131000</v>
+        <v>17503385300</v>
       </c>
       <c r="O5">
         <v>949300</v>
       </c>
       <c r="P5">
-        <v>-2111209000</v>
+        <v>43234400</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>15700</v>
       </c>
       <c r="E6">
-        <v>58348054000</v>
+        <v>55496508400</v>
       </c>
       <c r="F6">
-        <v>57835756000</v>
+        <v>53318677600</v>
       </c>
       <c r="G6">
-        <v>237405000</v>
+        <v>235606800</v>
       </c>
       <c r="H6">
         <v>6614200</v>
       </c>
       <c r="I6">
-        <v>116421215000</v>
+        <v>109050792800</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-16T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>758882836000</v>
+        <v>675480721600</v>
       </c>
       <c r="L6">
         <v>46960900</v>
@@ -693,13 +693,13 @@
         <v>37300</v>
       </c>
       <c r="N6">
-        <v>-512298000</v>
+        <v>-2177830800</v>
       </c>
       <c r="O6">
         <v>986600</v>
       </c>
       <c r="P6">
-        <v>-2623507000</v>
+        <v>-2134596400</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>45500</v>
       </c>
       <c r="E7">
-        <v>55577671000</v>
+        <v>50889164200</v>
       </c>
       <c r="F7">
-        <v>39572269000</v>
+        <v>35436908500</v>
       </c>
       <c r="G7">
         <v>572204000</v>
@@ -728,13 +728,13 @@
         <v>6090700</v>
       </c>
       <c r="I7">
-        <v>95722144000</v>
+        <v>86898276700</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-16T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>854604980000</v>
+        <v>762378998300</v>
       </c>
       <c r="L7">
         <v>53051600</v>
@@ -743,13 +743,13 @@
         <v>-1147400</v>
       </c>
       <c r="N7">
-        <v>-16005402000</v>
+        <v>-15452255700</v>
       </c>
       <c r="O7">
         <v>-160800</v>
       </c>
       <c r="P7">
-        <v>-18628909000</v>
+        <v>-17586852100</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>5800</v>
       </c>
       <c r="E8">
-        <v>46083317000</v>
+        <v>44870031500</v>
       </c>
       <c r="F8">
-        <v>39594218000</v>
+        <v>38712300800</v>
       </c>
       <c r="G8">
         <v>74332000</v>
@@ -778,13 +778,13 @@
         <v>5221500</v>
       </c>
       <c r="I8">
-        <v>85751867000</v>
+        <v>83656664300</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-16T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>940356847000</v>
+        <v>846035662600</v>
       </c>
       <c r="L8">
         <v>58273100</v>
@@ -793,13 +793,13 @@
         <v>-506300</v>
       </c>
       <c r="N8">
-        <v>-6489099000</v>
+        <v>-6157730700</v>
       </c>
       <c r="O8">
         <v>-667100</v>
       </c>
       <c r="P8">
-        <v>-25118008000</v>
+        <v>-23744582800</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>8100</v>
       </c>
       <c r="E9">
-        <v>43196033000</v>
+        <v>42829699700</v>
       </c>
       <c r="F9">
-        <v>52930839000</v>
+        <v>46155920700</v>
       </c>
       <c r="G9">
         <v>176558000</v>
@@ -828,13 +828,13 @@
         <v>5584200</v>
       </c>
       <c r="I9">
-        <v>96303430000</v>
+        <v>89162178400</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-16T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1036660277000</v>
+        <v>935197841000</v>
       </c>
       <c r="L9">
         <v>63857300</v>
@@ -843,13 +843,13 @@
         <v>756700</v>
       </c>
       <c r="N9">
-        <v>9734806000</v>
+        <v>3326221000</v>
       </c>
       <c r="O9">
         <v>89600</v>
       </c>
       <c r="P9">
-        <v>-15383202000</v>
+        <v>-20418361800</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>7600</v>
       </c>
       <c r="E10">
-        <v>31130450000</v>
+        <v>30534146900</v>
       </c>
       <c r="F10">
-        <v>68936324000</v>
+        <v>53244631400</v>
       </c>
       <c r="G10">
         <v>111905000</v>
@@ -878,13 +878,13 @@
         <v>6462200</v>
       </c>
       <c r="I10">
-        <v>100178679000</v>
+        <v>83890683300</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-16T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1136838956000</v>
+        <v>1019088524300</v>
       </c>
       <c r="L10">
         <v>70319500</v>
@@ -893,13 +893,13 @@
         <v>2882800</v>
       </c>
       <c r="N10">
-        <v>37805874000</v>
+        <v>22710484500</v>
       </c>
       <c r="O10">
         <v>2972400</v>
       </c>
       <c r="P10">
-        <v>22422672000</v>
+        <v>2292122700</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>79800</v>
       </c>
       <c r="E11">
-        <v>37229760000</v>
+        <v>36520470000</v>
       </c>
       <c r="F11">
-        <v>185344794000</v>
+        <v>171544608000</v>
       </c>
       <c r="G11">
-        <v>1168900000</v>
+        <v>1160108800</v>
       </c>
       <c r="H11">
         <v>13963300</v>
       </c>
       <c r="I11">
-        <v>223743454000</v>
+        <v>209225186800</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-16T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1360582410000</v>
+        <v>1228313711100</v>
       </c>
       <c r="L11">
         <v>84282800</v>
@@ -943,13 +943,13 @@
         <v>9477900</v>
       </c>
       <c r="N11">
-        <v>148115034000</v>
+        <v>135024138000</v>
       </c>
       <c r="O11">
         <v>12450300</v>
       </c>
       <c r="P11">
-        <v>170537706000</v>
+        <v>137316260700</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>147000</v>
       </c>
       <c r="E12">
-        <v>42295915000</v>
+        <v>39991321900</v>
       </c>
       <c r="F12">
-        <v>187401121000</v>
+        <v>162855091600</v>
       </c>
       <c r="G12">
-        <v>2273633000</v>
+        <v>2239866800</v>
       </c>
       <c r="H12">
         <v>13901500</v>
       </c>
       <c r="I12">
-        <v>231970669000</v>
+        <v>205086280300</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-16T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1592553079000</v>
+        <v>1433399991400</v>
       </c>
       <c r="L12">
         <v>98184300</v>
@@ -993,13 +993,13 @@
         <v>8876700</v>
       </c>
       <c r="N12">
-        <v>145105206000</v>
+        <v>122863769700</v>
       </c>
       <c r="O12">
         <v>21327000</v>
       </c>
       <c r="P12">
-        <v>315642912000</v>
+        <v>260180030400</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>72500</v>
       </c>
       <c r="E13">
-        <v>71855183000</v>
+        <v>67654587800</v>
       </c>
       <c r="F13">
-        <v>162270342000</v>
+        <v>132115227300</v>
       </c>
       <c r="G13">
         <v>1029677000</v>
@@ -1028,13 +1028,13 @@
         <v>13939400</v>
       </c>
       <c r="I13">
-        <v>235155202000</v>
+        <v>200799492100</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-16T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1827708281000</v>
+        <v>1634199483500</v>
       </c>
       <c r="L13">
         <v>112123700</v>
@@ -1043,13 +1043,13 @@
         <v>5883700</v>
       </c>
       <c r="N13">
-        <v>90415159000</v>
+        <v>64460639500</v>
       </c>
       <c r="O13">
         <v>27210700</v>
       </c>
       <c r="P13">
-        <v>406058071000</v>
+        <v>324640669900</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>12800</v>
       </c>
       <c r="E14">
-        <v>86229840000</v>
+        <v>72627655800</v>
       </c>
       <c r="F14">
-        <v>72955527000</v>
+        <v>65143546800</v>
       </c>
       <c r="G14">
         <v>304400000</v>
@@ -1078,13 +1078,13 @@
         <v>9706400</v>
       </c>
       <c r="I14">
-        <v>159489767000</v>
+        <v>138075602600</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-16T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1987198048000</v>
+        <v>1772275086100</v>
       </c>
       <c r="L14">
         <v>121830100</v>
@@ -1093,13 +1093,13 @@
         <v>-318400</v>
       </c>
       <c r="N14">
-        <v>-13274313000</v>
+        <v>-7484109000</v>
       </c>
       <c r="O14">
         <v>26892300</v>
       </c>
       <c r="P14">
-        <v>392783758000</v>
+        <v>317156560900</v>
       </c>
     </row>
     <row r="15">
@@ -1116,25 +1116,25 @@
         <v>12300</v>
       </c>
       <c r="E15">
-        <v>72199534000</v>
+        <v>58570177000</v>
       </c>
       <c r="F15">
-        <v>43079243000</v>
+        <v>35720908700</v>
       </c>
       <c r="G15">
-        <v>210136000</v>
+        <v>66379900</v>
       </c>
       <c r="H15">
         <v>6618000</v>
       </c>
       <c r="I15">
-        <v>115488913000</v>
+        <v>94357465600</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-16T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2102686961000</v>
+        <v>1866632551700</v>
       </c>
       <c r="L15">
         <v>128448100</v>
@@ -1143,13 +1143,13 @@
         <v>-1584100</v>
       </c>
       <c r="N15">
-        <v>-29120291000</v>
+        <v>-22849268300</v>
       </c>
       <c r="O15">
         <v>25308200</v>
       </c>
       <c r="P15">
-        <v>363663467000</v>
+        <v>294307292600</v>
       </c>
     </row>
     <row r="16">
@@ -1166,25 +1166,25 @@
         <v>49000</v>
       </c>
       <c r="E16">
-        <v>64398881000</v>
+        <v>43930370000</v>
       </c>
       <c r="F16">
-        <v>56535226000</v>
+        <v>39459418900</v>
       </c>
       <c r="G16">
-        <v>570479000</v>
+        <v>311138600</v>
       </c>
       <c r="H16">
         <v>7184400</v>
       </c>
       <c r="I16">
-        <v>121504586000</v>
+        <v>83700927500</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-16T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2224191547000</v>
+        <v>1950333479200</v>
       </c>
       <c r="L16">
         <v>135632500</v>
@@ -1193,13 +1193,13 @@
         <v>-666200</v>
       </c>
       <c r="N16">
-        <v>-7863655000</v>
+        <v>-4470951100</v>
       </c>
       <c r="O16">
         <v>24642000</v>
       </c>
       <c r="P16">
-        <v>355799812000</v>
+        <v>289836341500</v>
       </c>
     </row>
     <row r="17">
@@ -1216,25 +1216,25 @@
         <v>4100</v>
       </c>
       <c r="E17">
-        <v>41757694000</v>
+        <v>35984772700</v>
       </c>
       <c r="F17">
-        <v>86434993000</v>
+        <v>79086848500</v>
       </c>
       <c r="G17">
-        <v>232860000</v>
+        <v>14678400</v>
       </c>
       <c r="H17">
         <v>7463100</v>
       </c>
       <c r="I17">
-        <v>128425547000</v>
+        <v>115086299600</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-16T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2352617094000</v>
+        <v>2065419778800</v>
       </c>
       <c r="L17">
         <v>143095600</v>
@@ -1243,13 +1243,13 @@
         <v>2275800</v>
       </c>
       <c r="N17">
-        <v>44677299000</v>
+        <v>43102075800</v>
       </c>
       <c r="O17">
         <v>26917800</v>
       </c>
       <c r="P17">
-        <v>400477111000</v>
+        <v>332938417300</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>12500</v>
       </c>
       <c r="E18">
-        <v>36874667000</v>
+        <v>34890553100</v>
       </c>
       <c r="F18">
-        <v>127862468000</v>
+        <v>123510224600</v>
       </c>
       <c r="G18">
         <v>147176000</v>
@@ -1278,13 +1278,13 @@
         <v>10117000</v>
       </c>
       <c r="I18">
-        <v>164884311000</v>
+        <v>158547953700</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-16T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2517501405000</v>
+        <v>2223967732500</v>
       </c>
       <c r="L18">
         <v>153212600</v>
@@ -1293,13 +1293,13 @@
         <v>5718300</v>
       </c>
       <c r="N18">
-        <v>90987801000</v>
+        <v>88619671500</v>
       </c>
       <c r="O18">
         <v>32636100</v>
       </c>
       <c r="P18">
-        <v>491464912000</v>
+        <v>421558088800</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>3400</v>
       </c>
       <c r="E19">
-        <v>27312384000</v>
+        <v>26195002500</v>
       </c>
       <c r="F19">
-        <v>151607172000</v>
+        <v>143024563200</v>
       </c>
       <c r="G19">
         <v>143451000</v>
@@ -1328,13 +1328,13 @@
         <v>11259500</v>
       </c>
       <c r="I19">
-        <v>179063007000</v>
+        <v>169363016700</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-16T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2696564412000</v>
+        <v>2393330749200</v>
       </c>
       <c r="L19">
         <v>164472100</v>
@@ -1343,13 +1343,13 @@
         <v>8230900</v>
       </c>
       <c r="N19">
-        <v>124294788000</v>
+        <v>116829560700</v>
       </c>
       <c r="O19">
         <v>40867000</v>
       </c>
       <c r="P19">
-        <v>615759700000</v>
+        <v>538387649500</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>4100</v>
       </c>
       <c r="E20">
-        <v>34998397000</v>
+        <v>32120877400</v>
       </c>
       <c r="F20">
-        <v>84138769000</v>
+        <v>79080632200</v>
       </c>
       <c r="G20">
         <v>91094000</v>
@@ -1378,13 +1378,13 @@
         <v>6926700</v>
       </c>
       <c r="I20">
-        <v>119228260000</v>
+        <v>111292603600</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-16T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2815792672000</v>
+        <v>2504623352800</v>
       </c>
       <c r="L20">
         <v>171398800</v>
@@ -1393,13 +1393,13 @@
         <v>2892600</v>
       </c>
       <c r="N20">
-        <v>49140372000</v>
+        <v>46959754800</v>
       </c>
       <c r="O20">
         <v>43759600</v>
       </c>
       <c r="P20">
-        <v>664900072000</v>
+        <v>585347404300</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>46300</v>
       </c>
       <c r="E21">
-        <v>34439010000</v>
+        <v>31369882200</v>
       </c>
       <c r="F21">
-        <v>82762298000</v>
+        <v>77019846200</v>
       </c>
       <c r="G21">
         <v>535575000</v>
@@ -1428,13 +1428,13 @@
         <v>6537300</v>
       </c>
       <c r="I21">
-        <v>117736883000</v>
+        <v>108925303400</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-16T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2933529555000</v>
+        <v>2613548656200</v>
       </c>
       <c r="L21">
         <v>177936100</v>
@@ -1443,13 +1443,13 @@
         <v>2842400</v>
       </c>
       <c r="N21">
-        <v>48323288000</v>
+        <v>45649964000</v>
       </c>
       <c r="O21">
         <v>46602000</v>
       </c>
       <c r="P21">
-        <v>713223360000</v>
+        <v>630997368300</v>
       </c>
     </row>
     <row r="22">
@@ -1466,25 +1466,25 @@
         <v>18200</v>
       </c>
       <c r="E22">
-        <v>58437951000</v>
+        <v>53192401800</v>
       </c>
       <c r="F22">
-        <v>72293928000</v>
+        <v>70249774200</v>
       </c>
       <c r="G22">
-        <v>213597000</v>
+        <v>206703900</v>
       </c>
       <c r="H22">
         <v>7561200</v>
       </c>
       <c r="I22">
-        <v>130945476000</v>
+        <v>123648879900</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-16T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>3064475031000</v>
+        <v>2737197536100</v>
       </c>
       <c r="L22">
         <v>185497300</v>
@@ -1493,13 +1493,13 @@
         <v>813400</v>
       </c>
       <c r="N22">
-        <v>13855977000</v>
+        <v>17057372400</v>
       </c>
       <c r="O22">
         <v>47415400</v>
       </c>
       <c r="P22">
-        <v>727079337000</v>
+        <v>648054740700</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>7200</v>
       </c>
       <c r="E23">
-        <v>50108726000</v>
+        <v>44098142600</v>
       </c>
       <c r="F23">
-        <v>65737625000</v>
+        <v>60052016300</v>
       </c>
       <c r="G23">
         <v>204017000</v>
@@ -1528,13 +1528,13 @@
         <v>6666800</v>
       </c>
       <c r="I23">
-        <v>116050368000</v>
+        <v>104354175900</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-16T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>3180525399000</v>
+        <v>2841551712000</v>
       </c>
       <c r="L23">
         <v>192164100</v>
@@ -1543,13 +1543,13 @@
         <v>376400</v>
       </c>
       <c r="N23">
-        <v>15628899000</v>
+        <v>15953873700</v>
       </c>
       <c r="O23">
         <v>47791800</v>
       </c>
       <c r="P23">
-        <v>742708236000</v>
+        <v>664008614400</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>10200</v>
       </c>
       <c r="E24">
-        <v>46489783000</v>
+        <v>42195681400</v>
       </c>
       <c r="F24">
-        <v>49204868000</v>
+        <v>42225254600</v>
       </c>
       <c r="G24">
         <v>261063000</v>
@@ -1578,13 +1578,13 @@
         <v>5350800</v>
       </c>
       <c r="I24">
-        <v>95955714000</v>
+        <v>84681999000</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-16T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>3276481113000</v>
+        <v>2926233711000</v>
       </c>
       <c r="L24">
         <v>197514900</v>
@@ -1593,13 +1593,13 @@
         <v>425800</v>
       </c>
       <c r="N24">
-        <v>2715085000</v>
+        <v>29573200</v>
       </c>
       <c r="O24">
         <v>48217600</v>
       </c>
       <c r="P24">
-        <v>745423321000</v>
+        <v>664038187600</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>11300</v>
       </c>
       <c r="E25">
-        <v>50153307000</v>
+        <v>45203461800</v>
       </c>
       <c r="F25">
-        <v>35271042000</v>
+        <v>31662054600</v>
       </c>
       <c r="G25">
-        <v>298922000</v>
+        <v>275545400</v>
       </c>
       <c r="H25">
         <v>5195000</v>
       </c>
       <c r="I25">
-        <v>85723271000</v>
+        <v>77141061800</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-16T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>3362204384000</v>
+        <v>3003374772800</v>
       </c>
       <c r="L25">
         <v>202709900</v>
@@ -1643,13 +1643,13 @@
         <v>-672900</v>
       </c>
       <c r="N25">
-        <v>-14882265000</v>
+        <v>-13541407200</v>
       </c>
       <c r="O25">
         <v>47544700</v>
       </c>
       <c r="P25">
-        <v>730541056000</v>
+        <v>650496780400</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>6600</v>
       </c>
       <c r="E26">
-        <v>47623268000</v>
+        <v>41612484800</v>
       </c>
       <c r="F26">
-        <v>29089447000</v>
+        <v>25640399500</v>
       </c>
       <c r="G26">
-        <v>195673000</v>
+        <v>186881800</v>
       </c>
       <c r="H26">
         <v>4767300</v>
       </c>
       <c r="I26">
-        <v>76908388000</v>
+        <v>67439766100</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-16T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>3439112772000</v>
+        <v>3070814538900</v>
       </c>
       <c r="L26">
         <v>207477200</v>
@@ -1693,13 +1693,13 @@
         <v>-1176900</v>
       </c>
       <c r="N26">
-        <v>-18533821000</v>
+        <v>-15972085300</v>
       </c>
       <c r="O26">
         <v>46367800</v>
       </c>
       <c r="P26">
-        <v>712007235000</v>
+        <v>634524695100</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>13200</v>
       </c>
       <c r="E27">
-        <v>46043199000</v>
+        <v>39111537600</v>
       </c>
       <c r="F27">
-        <v>34440093000</v>
+        <v>29375163000</v>
       </c>
       <c r="G27">
         <v>171096000</v>
@@ -1728,13 +1728,13 @@
         <v>4564000</v>
       </c>
       <c r="I27">
-        <v>80654388000</v>
+        <v>68657796600</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-16T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3519767160000</v>
+        <v>3139472335500</v>
       </c>
       <c r="L27">
         <v>212041200</v>
@@ -1743,13 +1743,13 @@
         <v>-718400</v>
       </c>
       <c r="N27">
-        <v>-11603106000</v>
+        <v>-9736374600</v>
       </c>
       <c r="O27">
         <v>45649400</v>
       </c>
       <c r="P27">
-        <v>700404129000</v>
+        <v>624788320500</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>29400</v>
       </c>
       <c r="E28">
-        <v>41989395000</v>
+        <v>38259029100</v>
       </c>
       <c r="F28">
-        <v>38363591000</v>
+        <v>29733629600</v>
       </c>
       <c r="G28">
         <v>367671000</v>
@@ -1778,13 +1778,13 @@
         <v>4785100</v>
       </c>
       <c r="I28">
-        <v>80720657000</v>
+        <v>68360329700</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-16T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>3600487817000</v>
+        <v>3207832665200</v>
       </c>
       <c r="L28">
         <v>216826300</v>
@@ -1793,13 +1793,13 @@
         <v>-184700</v>
       </c>
       <c r="N28">
-        <v>-3625804000</v>
+        <v>-8525399500</v>
       </c>
       <c r="O28">
         <v>45464700</v>
       </c>
       <c r="P28">
-        <v>696778325000</v>
+        <v>616262921000</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>9300</v>
       </c>
       <c r="E29">
-        <v>40081367000</v>
+        <v>36862489100</v>
       </c>
       <c r="F29">
-        <v>43641779000</v>
+        <v>36919408100</v>
       </c>
       <c r="G29">
         <v>154203000</v>
@@ -1828,13 +1828,13 @@
         <v>4860400</v>
       </c>
       <c r="I29">
-        <v>83877349000</v>
+        <v>73936100200</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-16T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3684365166000</v>
+        <v>3281768765400</v>
       </c>
       <c r="L29">
         <v>221686700</v>
@@ -1843,13 +1843,13 @@
         <v>534900</v>
       </c>
       <c r="N29">
-        <v>3560412000</v>
+        <v>56919000</v>
       </c>
       <c r="O29">
         <v>45999600</v>
       </c>
       <c r="P29">
-        <v>700338737000</v>
+        <v>616319840000</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>2200</v>
       </c>
       <c r="E30">
-        <v>33995106000</v>
+        <v>32524378200</v>
       </c>
       <c r="F30">
-        <v>49598421000</v>
+        <v>45601422000</v>
       </c>
       <c r="G30">
         <v>36237000</v>
@@ -1878,13 +1878,13 @@
         <v>5497900</v>
       </c>
       <c r="I30">
-        <v>83629764000</v>
+        <v>78162037200</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-16T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3767994930000</v>
+        <v>3359930802600</v>
       </c>
       <c r="L30">
         <v>227184600</v>
@@ -1893,13 +1893,13 @@
         <v>1515700</v>
       </c>
       <c r="N30">
-        <v>15603315000</v>
+        <v>13077043800</v>
       </c>
       <c r="O30">
         <v>47515300</v>
       </c>
       <c r="P30">
-        <v>715942052000</v>
+        <v>629396883800</v>
       </c>
     </row>
     <row r="31">
@@ -1916,25 +1916,25 @@
         <v>16300</v>
       </c>
       <c r="E31">
-        <v>28779599000</v>
+        <v>24802180400</v>
       </c>
       <c r="F31">
-        <v>75067233000</v>
+        <v>63731480100</v>
       </c>
       <c r="G31">
-        <v>257964000</v>
+        <v>249572400</v>
       </c>
       <c r="H31">
         <v>6233300</v>
       </c>
       <c r="I31">
-        <v>104104796000</v>
+        <v>88783232900</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-16T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3872099726000</v>
+        <v>3448714035500</v>
       </c>
       <c r="L31">
         <v>233417900</v>
@@ -1943,13 +1943,13 @@
         <v>3184000</v>
       </c>
       <c r="N31">
-        <v>46287634000</v>
+        <v>38929299700</v>
       </c>
       <c r="O31">
         <v>50699300</v>
       </c>
       <c r="P31">
-        <v>762229686000</v>
+        <v>668326183500</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>22400</v>
       </c>
       <c r="E32">
-        <v>33558265000</v>
+        <v>33045478300</v>
       </c>
       <c r="F32">
-        <v>84115470000</v>
+        <v>71354443800</v>
       </c>
       <c r="G32">
         <v>263944000</v>
@@ -1978,13 +1978,13 @@
         <v>7486200</v>
       </c>
       <c r="I32">
-        <v>117937679000</v>
+        <v>104663866100</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-16T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3990037405000</v>
+        <v>3553377901600</v>
       </c>
       <c r="L32">
         <v>240904100</v>
@@ -1993,13 +1993,13 @@
         <v>3465400</v>
       </c>
       <c r="N32">
-        <v>50557205000</v>
+        <v>38308965500</v>
       </c>
       <c r="O32">
         <v>54164700</v>
       </c>
       <c r="P32">
-        <v>812786891000</v>
+        <v>706635149000</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>6000</v>
       </c>
       <c r="E33">
-        <v>37874172000</v>
+        <v>36170177700</v>
       </c>
       <c r="F33">
-        <v>95325320000</v>
+        <v>88667484500</v>
       </c>
       <c r="G33">
         <v>55761000</v>
@@ -2028,13 +2028,13 @@
         <v>7502000</v>
       </c>
       <c r="I33">
-        <v>133255253000</v>
+        <v>124893423200</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-16T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>4123292658000</v>
+        <v>3678271324800</v>
       </c>
       <c r="L33">
         <v>248406100</v>
@@ -2043,13 +2043,13 @@
         <v>3436200</v>
       </c>
       <c r="N33">
-        <v>57451148000</v>
+        <v>52497306800</v>
       </c>
       <c r="O33">
         <v>57600900</v>
       </c>
       <c r="P33">
-        <v>870238039000</v>
+        <v>759132455800</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>56500</v>
       </c>
       <c r="E34">
-        <v>34636362000</v>
+        <v>31648053300</v>
       </c>
       <c r="F34">
-        <v>121989206000</v>
+        <v>91291934000</v>
       </c>
       <c r="G34">
         <v>1304835000</v>
@@ -2078,13 +2078,13 @@
         <v>9841200</v>
       </c>
       <c r="I34">
-        <v>157930403000</v>
+        <v>124244822300</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-16T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>4281223061000</v>
+        <v>3802516147100</v>
       </c>
       <c r="L34">
         <v>258247300</v>
@@ -2093,13 +2093,13 @@
         <v>5563700</v>
       </c>
       <c r="N34">
-        <v>87352844000</v>
+        <v>59643880700</v>
       </c>
       <c r="O34">
         <v>63164600</v>
       </c>
       <c r="P34">
-        <v>957590883000</v>
+        <v>818776336500</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>9600</v>
       </c>
       <c r="E35">
-        <v>39018626000</v>
+        <v>35661986000</v>
       </c>
       <c r="F35">
-        <v>126647664000</v>
+        <v>112345780200</v>
       </c>
       <c r="G35">
         <v>77497000</v>
@@ -2128,13 +2128,13 @@
         <v>10173000</v>
       </c>
       <c r="I35">
-        <v>165743787000</v>
+        <v>148085263200</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-16T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>4446966848000</v>
+        <v>3950601410300</v>
       </c>
       <c r="L35">
         <v>268420300</v>
@@ -2143,13 +2143,13 @@
         <v>5425800</v>
       </c>
       <c r="N35">
-        <v>87629038000</v>
+        <v>76683794200</v>
       </c>
       <c r="O35">
         <v>68590400</v>
       </c>
       <c r="P35">
-        <v>1045219921000</v>
+        <v>895460130700</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>39100</v>
       </c>
       <c r="E36">
-        <v>42220961000</v>
+        <v>39444440300</v>
       </c>
       <c r="F36">
-        <v>125358478000</v>
+        <v>119258883700</v>
       </c>
       <c r="G36">
         <v>891747000</v>
@@ -2178,13 +2178,13 @@
         <v>10619500</v>
       </c>
       <c r="I36">
-        <v>168471186000</v>
+        <v>159595071000</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-16T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>4615438034000</v>
+        <v>4110196481300</v>
       </c>
       <c r="L36">
         <v>279039800</v>
@@ -2193,13 +2193,13 @@
         <v>5183800</v>
       </c>
       <c r="N36">
-        <v>83137517000</v>
+        <v>79814443400</v>
       </c>
       <c r="O36">
         <v>73774200</v>
       </c>
       <c r="P36">
-        <v>1128357438000</v>
+        <v>975274574100</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>62000</v>
       </c>
       <c r="E37">
-        <v>46955436000</v>
+        <v>45886705800</v>
       </c>
       <c r="F37">
-        <v>77262988000</v>
+        <v>74950402900</v>
       </c>
       <c r="G37">
         <v>974209000</v>
@@ -2228,13 +2228,13 @@
         <v>7907800</v>
       </c>
       <c r="I37">
-        <v>125192633000</v>
+        <v>121811317700</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-16T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4740630667000</v>
+        <v>4232007799000</v>
       </c>
       <c r="L37">
         <v>286947600</v>
@@ -2243,13 +2243,13 @@
         <v>1877000</v>
       </c>
       <c r="N37">
-        <v>30307552000</v>
+        <v>29063697100</v>
       </c>
       <c r="O37">
         <v>75651200</v>
       </c>
       <c r="P37">
-        <v>1158664990000</v>
+        <v>1004338271200</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>4500</v>
       </c>
       <c r="E38">
-        <v>50976814000</v>
+        <v>41537063200</v>
       </c>
       <c r="F38">
-        <v>57883324000</v>
+        <v>53526585100</v>
       </c>
       <c r="G38">
         <v>45531000</v>
@@ -2278,13 +2278,13 @@
         <v>6347600</v>
       </c>
       <c r="I38">
-        <v>108905669000</v>
+        <v>95109179300</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-16T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4849536336000</v>
+        <v>4327116978300</v>
       </c>
       <c r="L38">
         <v>293295200</v>
@@ -2293,13 +2293,13 @@
         <v>-8300</v>
       </c>
       <c r="N38">
-        <v>6906510000</v>
+        <v>11989521900</v>
       </c>
       <c r="O38">
         <v>75642900</v>
       </c>
       <c r="P38">
-        <v>1165571500000</v>
+        <v>1016327793100</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>17600</v>
       </c>
       <c r="E39">
-        <v>47288523000</v>
+        <v>41421396000</v>
       </c>
       <c r="F39">
-        <v>51292993000</v>
+        <v>48645543100</v>
       </c>
       <c r="G39">
-        <v>371790000</v>
+        <v>207454500</v>
       </c>
       <c r="H39">
         <v>6110900</v>
       </c>
       <c r="I39">
-        <v>98953306000</v>
+        <v>90274393600</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-16T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4948489642000</v>
+        <v>4417391371900</v>
       </c>
       <c r="L39">
         <v>299406100</v>
@@ -2343,13 +2343,13 @@
         <v>118900</v>
       </c>
       <c r="N39">
-        <v>4004470000</v>
+        <v>7224147100</v>
       </c>
       <c r="O39">
         <v>75761800</v>
       </c>
       <c r="P39">
-        <v>1169575970000</v>
+        <v>1023551940200</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>8200</v>
       </c>
       <c r="E40">
-        <v>67539738000</v>
+        <v>63005976300</v>
       </c>
       <c r="F40">
-        <v>30646074000</v>
+        <v>29096025600</v>
       </c>
       <c r="G40">
         <v>137140000</v>
@@ -2378,13 +2378,13 @@
         <v>5605500</v>
       </c>
       <c r="I40">
-        <v>98322952000</v>
+        <v>92239141900</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-16T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>5046812594000</v>
+        <v>4509630513800</v>
       </c>
       <c r="L40">
         <v>305011600</v>
@@ -2393,13 +2393,13 @@
         <v>-1811500</v>
       </c>
       <c r="N40">
-        <v>-36893664000</v>
+        <v>-33909950700</v>
       </c>
       <c r="O40">
         <v>73950300</v>
       </c>
       <c r="P40">
-        <v>1132682306000</v>
+        <v>989641989500</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>15800</v>
       </c>
       <c r="E41">
-        <v>70368310000</v>
+        <v>62775010900</v>
       </c>
       <c r="F41">
-        <v>27466979000</v>
+        <v>24501747200</v>
       </c>
       <c r="G41">
-        <v>349190000</v>
+        <v>348091100</v>
       </c>
       <c r="H41">
         <v>6111500</v>
       </c>
       <c r="I41">
-        <v>98184479000</v>
+        <v>87624849200</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-16T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>5144997073000</v>
+        <v>4597255363000</v>
       </c>
       <c r="L41">
         <v>311123100</v>
@@ -2443,13 +2443,13 @@
         <v>-2667300</v>
       </c>
       <c r="N41">
-        <v>-42901331000</v>
+        <v>-38273263700</v>
       </c>
       <c r="O41">
         <v>71283000</v>
       </c>
       <c r="P41">
-        <v>1089780975000</v>
+        <v>951368725800</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>31200</v>
       </c>
       <c r="E42">
-        <v>49818002000</v>
+        <v>46150772900</v>
       </c>
       <c r="F42">
-        <v>28231942000</v>
+        <v>26186989000</v>
       </c>
       <c r="G42">
         <v>594120000</v>
@@ -2478,13 +2478,13 @@
         <v>4513500</v>
       </c>
       <c r="I42">
-        <v>78644064000</v>
+        <v>72931881900</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-16T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>5223641137000</v>
+        <v>4670187244900</v>
       </c>
       <c r="L42">
         <v>315636600</v>
@@ -2493,13 +2493,13 @@
         <v>-1456700</v>
       </c>
       <c r="N42">
-        <v>-21586060000</v>
+        <v>-19963783900</v>
       </c>
       <c r="O42">
         <v>69826300</v>
       </c>
       <c r="P42">
-        <v>1068194915000</v>
+        <v>931404941900</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>24300</v>
       </c>
       <c r="E43">
-        <v>66960518000</v>
+        <v>61820263400</v>
       </c>
       <c r="F43">
-        <v>32256131000</v>
+        <v>31027061300</v>
       </c>
       <c r="G43">
         <v>464503000</v>
@@ -2528,13 +2528,13 @@
         <v>5693900</v>
       </c>
       <c r="I43">
-        <v>99681152000</v>
+        <v>93311827700</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-16T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>5323322289000</v>
+        <v>4763499072600</v>
       </c>
       <c r="L43">
         <v>321330500</v>
@@ -2543,13 +2543,13 @@
         <v>-2033400</v>
       </c>
       <c r="N43">
-        <v>-34704387000</v>
+        <v>-30793202100</v>
       </c>
       <c r="O43">
         <v>67792900</v>
       </c>
       <c r="P43">
-        <v>1033490528000</v>
+        <v>900611739800</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>18800</v>
       </c>
       <c r="E44">
-        <v>41386873000</v>
+        <v>37805857600</v>
       </c>
       <c r="F44">
-        <v>23998505000</v>
+        <v>22635869000</v>
       </c>
       <c r="G44">
         <v>380456000</v>
@@ -2578,13 +2578,13 @@
         <v>3545000</v>
       </c>
       <c r="I44">
-        <v>65765834000</v>
+        <v>60822182600</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-16T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>5389088123000</v>
+        <v>4824321255200</v>
       </c>
       <c r="L44">
         <v>324875500</v>
@@ -2593,13 +2593,13 @@
         <v>-1024400</v>
       </c>
       <c r="N44">
-        <v>-17388368000</v>
+        <v>-15169988600</v>
       </c>
       <c r="O44">
         <v>66768500</v>
       </c>
       <c r="P44">
-        <v>1016102160000</v>
+        <v>885441751200</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>6600</v>
       </c>
       <c r="E45">
-        <v>39684939000</v>
+        <v>38950374300</v>
       </c>
       <c r="F45">
-        <v>21092554000</v>
+        <v>20318728600</v>
       </c>
       <c r="G45">
         <v>64207000</v>
@@ -2628,13 +2628,13 @@
         <v>3590000</v>
       </c>
       <c r="I45">
-        <v>60841700000</v>
+        <v>59333309900</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-16T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>5449929823000</v>
+        <v>4883654565100</v>
       </c>
       <c r="L45">
         <v>328465500</v>
@@ -2643,13 +2643,13 @@
         <v>-1170800</v>
       </c>
       <c r="N45">
-        <v>-18592385000</v>
+        <v>-18631645700</v>
       </c>
       <c r="O45">
         <v>65597700</v>
       </c>
       <c r="P45">
-        <v>997509775000</v>
+        <v>866810105500</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>12000</v>
       </c>
       <c r="E46">
-        <v>34364740000</v>
+        <v>29873835400</v>
       </c>
       <c r="F46">
-        <v>23888163000</v>
+        <v>22885766400</v>
       </c>
       <c r="G46">
         <v>238003000</v>
@@ -2678,13 +2678,13 @@
         <v>3217800</v>
       </c>
       <c r="I46">
-        <v>58490906000</v>
+        <v>52997604800</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-16T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>5508420729000</v>
+        <v>4936652169900</v>
       </c>
       <c r="L46">
         <v>331683300</v>
@@ -2693,13 +2693,13 @@
         <v>-828800</v>
       </c>
       <c r="N46">
-        <v>-10476577000</v>
+        <v>-6988069000</v>
       </c>
       <c r="O46">
         <v>64768900</v>
       </c>
       <c r="P46">
-        <v>987033198000</v>
+        <v>859822036500</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>10500</v>
       </c>
       <c r="E47">
-        <v>41844432000</v>
+        <v>38067912300</v>
       </c>
       <c r="F47">
-        <v>16614406000</v>
+        <v>14111811100</v>
       </c>
       <c r="G47">
         <v>152030000</v>
@@ -2728,13 +2728,13 @@
         <v>3456100</v>
       </c>
       <c r="I47">
-        <v>58610868000</v>
+        <v>52331753400</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-16T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>5567031597000</v>
+        <v>4988983923300</v>
       </c>
       <c r="L47">
         <v>335139400</v>
@@ -2743,13 +2743,13 @@
         <v>-1774800</v>
       </c>
       <c r="N47">
-        <v>-25230026000</v>
+        <v>-23956101200</v>
       </c>
       <c r="O47">
         <v>62994100</v>
       </c>
       <c r="P47">
-        <v>961803172000</v>
+        <v>835865935300</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>3100</v>
       </c>
       <c r="E48">
-        <v>37726550000</v>
+        <v>37012265000</v>
       </c>
       <c r="F48">
-        <v>23607482000</v>
+        <v>19571621900</v>
       </c>
       <c r="G48">
         <v>20639000</v>
@@ -2778,13 +2778,13 @@
         <v>3333400</v>
       </c>
       <c r="I48">
-        <v>61354671000</v>
+        <v>56604525900</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-16T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>5628386268000</v>
+        <v>5045588449200</v>
       </c>
       <c r="L48">
         <v>338472800</v>
@@ -2793,13 +2793,13 @@
         <v>-918300</v>
       </c>
       <c r="N48">
-        <v>-14119068000</v>
+        <v>-17440643100</v>
       </c>
       <c r="O48">
         <v>62075800</v>
       </c>
       <c r="P48">
-        <v>947684104000</v>
+        <v>818425292200</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>31200</v>
       </c>
       <c r="E49">
-        <v>46339871000</v>
+        <v>43754459000</v>
       </c>
       <c r="F49">
-        <v>27732601000</v>
+        <v>23304933100</v>
       </c>
       <c r="G49">
         <v>470103000</v>
@@ -2828,13 +2828,13 @@
         <v>4110700</v>
       </c>
       <c r="I49">
-        <v>74542575000</v>
+        <v>67529495100</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-16T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>5702928843000</v>
+        <v>5113117944300</v>
       </c>
       <c r="L49">
         <v>342583500</v>
@@ -2843,13 +2843,13 @@
         <v>-1474900</v>
       </c>
       <c r="N49">
-        <v>-18607270000</v>
+        <v>-20449525900</v>
       </c>
       <c r="O49">
         <v>60600900</v>
       </c>
       <c r="P49">
-        <v>929076834000</v>
+        <v>797975766300</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>12400</v>
       </c>
       <c r="E50">
-        <v>46896968000</v>
+        <v>43496372000</v>
       </c>
       <c r="F50">
-        <v>16582727000</v>
+        <v>16285124900</v>
       </c>
       <c r="G50">
         <v>139665000</v>
@@ -2878,13 +2878,13 @@
         <v>3542500</v>
       </c>
       <c r="I50">
-        <v>63619360000</v>
+        <v>59921161900</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-16T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>5766548203000</v>
+        <v>5173039106200</v>
       </c>
       <c r="L50">
         <v>346126000</v>
@@ -2893,13 +2893,13 @@
         <v>-1473500</v>
       </c>
       <c r="N50">
-        <v>-30314241000</v>
+        <v>-27211247100</v>
       </c>
       <c r="O50">
         <v>59127400</v>
       </c>
       <c r="P50">
-        <v>898762593000</v>
+        <v>770764519200</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>2700</v>
       </c>
       <c r="E51">
-        <v>32626054000</v>
+        <v>31637843200</v>
       </c>
       <c r="F51">
-        <v>20768692000</v>
+        <v>19257504700</v>
       </c>
       <c r="G51">
         <v>97665000</v>
@@ -2928,13 +2928,13 @@
         <v>3283200</v>
       </c>
       <c r="I51">
-        <v>53492411000</v>
+        <v>50993012900</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-16T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>5820040614000</v>
+        <v>5224032119100</v>
       </c>
       <c r="L51">
         <v>349409200</v>
@@ -2943,13 +2943,13 @@
         <v>-869700</v>
       </c>
       <c r="N51">
-        <v>-11857362000</v>
+        <v>-12380338500</v>
       </c>
       <c r="O51">
         <v>58257700</v>
       </c>
       <c r="P51">
-        <v>886905231000</v>
+        <v>758384180700</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>12800</v>
       </c>
       <c r="E52">
-        <v>26160587000</v>
+        <v>22498352900</v>
       </c>
       <c r="F52">
-        <v>34364893000</v>
+        <v>31105655500</v>
       </c>
       <c r="G52">
         <v>213993000</v>
@@ -2978,13 +2978,13 @@
         <v>3220600</v>
       </c>
       <c r="I52">
-        <v>60739473000</v>
+        <v>53818001400</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-16T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>5880780087000</v>
+        <v>5277850120500</v>
       </c>
       <c r="L52">
         <v>352629800</v>
@@ -2993,13 +2993,13 @@
         <v>481400</v>
       </c>
       <c r="N52">
-        <v>8204306000</v>
+        <v>8607302600</v>
       </c>
       <c r="O52">
         <v>58739100</v>
       </c>
       <c r="P52">
-        <v>895109537000</v>
+        <v>766991483300</v>
       </c>
     </row>
     <row r="53">
@@ -3016,10 +3016,10 @@
         <v>13500</v>
       </c>
       <c r="E53">
-        <v>19586063000</v>
+        <v>17655195800</v>
       </c>
       <c r="F53">
-        <v>29099113000</v>
+        <v>26996517700</v>
       </c>
       <c r="G53">
         <v>312299000</v>
@@ -3028,13 +3028,13 @@
         <v>3018900</v>
       </c>
       <c r="I53">
-        <v>48997475000</v>
+        <v>44964012500</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-16T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>5929777562000</v>
+        <v>5322814133000</v>
       </c>
       <c r="L53">
         <v>355648700</v>
@@ -3043,13 +3043,13 @@
         <v>742600</v>
       </c>
       <c r="N53">
-        <v>9513050000</v>
+        <v>9341321900</v>
       </c>
       <c r="O53">
         <v>59481700</v>
       </c>
       <c r="P53">
-        <v>904622587000</v>
+        <v>776332805200</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>12400</v>
       </c>
       <c r="E54">
-        <v>12206831000</v>
+        <v>11605732700</v>
       </c>
       <c r="F54">
-        <v>33203608000</v>
+        <v>30997516300</v>
       </c>
       <c r="G54">
         <v>138580000</v>
@@ -3078,13 +3078,13 @@
         <v>2341700</v>
       </c>
       <c r="I54">
-        <v>45549019000</v>
+        <v>42741829000</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-16T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>5975326581000</v>
+        <v>5365555962000</v>
       </c>
       <c r="L54">
         <v>357990400</v>
@@ -3093,13 +3093,13 @@
         <v>841100</v>
       </c>
       <c r="N54">
-        <v>20996777000</v>
+        <v>19391783600</v>
       </c>
       <c r="O54">
         <v>60322800</v>
       </c>
       <c r="P54">
-        <v>925619364000</v>
+        <v>795724588800</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>28100</v>
       </c>
       <c r="E55">
-        <v>20606962000</v>
+        <v>17257015300</v>
       </c>
       <c r="F55">
-        <v>17293959000</v>
+        <v>16570383300</v>
       </c>
       <c r="G55">
         <v>383143000</v>
@@ -3128,13 +3128,13 @@
         <v>2084700</v>
       </c>
       <c r="I55">
-        <v>38284064000</v>
+        <v>34210541600</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-16T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>6013610645000</v>
+        <v>5399766503600</v>
       </c>
       <c r="L55">
         <v>360075100</v>
@@ -3143,13 +3143,13 @@
         <v>-188400</v>
       </c>
       <c r="N55">
-        <v>-3313003000</v>
+        <v>-686632000</v>
       </c>
       <c r="O55">
         <v>60134400</v>
       </c>
       <c r="P55">
-        <v>922306361000</v>
+        <v>795037956800</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>9500</v>
       </c>
       <c r="E56">
-        <v>22749751000</v>
+        <v>21912589000</v>
       </c>
       <c r="F56">
-        <v>12461959000</v>
+        <v>12255365800</v>
       </c>
       <c r="G56">
         <v>226710000</v>
@@ -3178,13 +3178,13 @@
         <v>1931100</v>
       </c>
       <c r="I56">
-        <v>35438420000</v>
+        <v>34394664800</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-16T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>6049049065000</v>
+        <v>5434161168400</v>
       </c>
       <c r="L56">
         <v>362006200</v>
@@ -3193,13 +3193,13 @@
         <v>-485600</v>
       </c>
       <c r="N56">
-        <v>-10287792000</v>
+        <v>-9657223200</v>
       </c>
       <c r="O56">
         <v>59648800</v>
       </c>
       <c r="P56">
-        <v>912018569000</v>
+        <v>785380733600</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>2800</v>
       </c>
       <c r="E57">
-        <v>22662665000</v>
+        <v>20124305900</v>
       </c>
       <c r="F57">
-        <v>22271963000</v>
+        <v>17381758100</v>
       </c>
       <c r="G57">
         <v>24175000</v>
@@ -3228,13 +3228,13 @@
         <v>2752400</v>
       </c>
       <c r="I57">
-        <v>44958803000</v>
+        <v>37530239000</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-16T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>6094007868000</v>
+        <v>5471691407400</v>
       </c>
       <c r="L57">
         <v>364758600</v>
@@ -3243,13 +3243,13 @@
         <v>218400</v>
       </c>
       <c r="N57">
-        <v>-390702000</v>
+        <v>-2742547800</v>
       </c>
       <c r="O57">
         <v>59867200</v>
       </c>
       <c r="P57">
-        <v>911627867000</v>
+        <v>782638185800</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>4300</v>
       </c>
       <c r="E58">
-        <v>29180289000</v>
+        <v>24741532200</v>
       </c>
       <c r="F58">
-        <v>26817720000</v>
+        <v>25702636200</v>
       </c>
       <c r="G58">
         <v>80341000</v>
@@ -3278,13 +3278,13 @@
         <v>2743600</v>
       </c>
       <c r="I58">
-        <v>56078350000</v>
+        <v>50524509400</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-16T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>6150086218000</v>
+        <v>5522215916800</v>
       </c>
       <c r="L58">
         <v>367502200</v>
@@ -3293,13 +3293,13 @@
         <v>-437900</v>
       </c>
       <c r="N58">
-        <v>-2362569000</v>
+        <v>961104000</v>
       </c>
       <c r="O58">
         <v>59429300</v>
       </c>
       <c r="P58">
-        <v>909265298000</v>
+        <v>783599289800</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>500</v>
       </c>
       <c r="E59">
-        <v>24714984000</v>
+        <v>23232168300</v>
       </c>
       <c r="F59">
-        <v>18425617000</v>
+        <v>15935609500</v>
       </c>
       <c r="G59">
-        <v>18910000</v>
+        <v>4524400</v>
       </c>
       <c r="H59">
         <v>2478400</v>
       </c>
       <c r="I59">
-        <v>43159511000</v>
+        <v>39172302200</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-16T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>6193245729000</v>
+        <v>5561388219000</v>
       </c>
       <c r="L59">
         <v>369980600</v>
@@ -3343,13 +3343,13 @@
         <v>-366100</v>
       </c>
       <c r="N59">
-        <v>-6289367000</v>
+        <v>-7296558800</v>
       </c>
       <c r="O59">
         <v>59063200</v>
       </c>
       <c r="P59">
-        <v>902975931000</v>
+        <v>776302731000</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>5700</v>
       </c>
       <c r="E60">
-        <v>35464918000</v>
+        <v>34292191900</v>
       </c>
       <c r="F60">
-        <v>16276993000</v>
+        <v>14862109300</v>
       </c>
       <c r="G60">
         <v>55445000</v>
@@ -3378,13 +3378,13 @@
         <v>2799300</v>
       </c>
       <c r="I60">
-        <v>51797356000</v>
+        <v>49209746200</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-16T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>6245043085000</v>
+        <v>5610597965200</v>
       </c>
       <c r="L60">
         <v>372779900</v>
@@ -3393,13 +3393,13 @@
         <v>-844200</v>
       </c>
       <c r="N60">
-        <v>-19187925000</v>
+        <v>-19430082600</v>
       </c>
       <c r="O60">
         <v>58219000</v>
       </c>
       <c r="P60">
-        <v>883788006000</v>
+        <v>756872648400</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>15400</v>
       </c>
       <c r="E61">
-        <v>34203252000</v>
+        <v>33150805500</v>
       </c>
       <c r="F61">
-        <v>15319886000</v>
+        <v>14454652100</v>
       </c>
       <c r="G61">
         <v>158706000</v>
@@ -3428,13 +3428,13 @@
         <v>2780600</v>
       </c>
       <c r="I61">
-        <v>49681844000</v>
+        <v>47764163600</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-16T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>6294724929000</v>
+        <v>5658362128800</v>
       </c>
       <c r="L61">
         <v>375560500</v>
@@ -3443,13 +3443,13 @@
         <v>-1200800</v>
       </c>
       <c r="N61">
-        <v>-18883366000</v>
+        <v>-18696153400</v>
       </c>
       <c r="O61">
         <v>57018200</v>
       </c>
       <c r="P61">
-        <v>864904640000</v>
+        <v>738176495000</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>2000</v>
       </c>
       <c r="E62">
-        <v>32540372000</v>
+        <v>30842671400</v>
       </c>
       <c r="F62">
-        <v>16695104000</v>
+        <v>14461240100</v>
       </c>
       <c r="G62">
         <v>37017000</v>
@@ -3478,13 +3478,13 @@
         <v>2736700</v>
       </c>
       <c r="I62">
-        <v>49272493000</v>
+        <v>45340928500</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-16T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>6343997422000</v>
+        <v>5703703057300</v>
       </c>
       <c r="L62">
         <v>378297200</v>
@@ -3493,13 +3493,13 @@
         <v>-947900</v>
       </c>
       <c r="N62">
-        <v>-15845268000</v>
+        <v>-16381431300</v>
       </c>
       <c r="O62">
         <v>56070300</v>
       </c>
       <c r="P62">
-        <v>849059372000</v>
+        <v>721795063700</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>400</v>
       </c>
       <c r="E63">
-        <v>23483476000</v>
+        <v>19503559900</v>
       </c>
       <c r="F63">
-        <v>14859957000</v>
+        <v>14522295000</v>
       </c>
       <c r="G63">
         <v>16275000.000000002</v>
@@ -3528,13 +3528,13 @@
         <v>2355800</v>
       </c>
       <c r="I63">
-        <v>38359708000</v>
+        <v>34042129900</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-16T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>6382357130000</v>
+        <v>5737745187200</v>
       </c>
       <c r="L63">
         <v>380653000</v>
@@ -3543,13 +3543,13 @@
         <v>-856000</v>
       </c>
       <c r="N63">
-        <v>-8623519000</v>
+        <v>-4981264900</v>
       </c>
       <c r="O63">
         <v>55214300</v>
       </c>
       <c r="P63">
-        <v>840435853000</v>
+        <v>716813798800</v>
       </c>
     </row>
     <row r="64">
@@ -3566,25 +3566,25 @@
         <v>14200</v>
       </c>
       <c r="E64">
-        <v>60164727000</v>
+        <v>56878916100</v>
       </c>
       <c r="F64">
-        <v>15246004000</v>
+        <v>13678473100</v>
       </c>
       <c r="G64">
-        <v>292916000</v>
+        <v>178630400</v>
       </c>
       <c r="H64">
         <v>4018700</v>
       </c>
       <c r="I64">
-        <v>75703647000</v>
+        <v>70736019600</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-16T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>6458060777000</v>
+        <v>5808481206800</v>
       </c>
       <c r="L64">
         <v>384671700</v>
@@ -3593,13 +3593,13 @@
         <v>-2568900</v>
       </c>
       <c r="N64">
-        <v>-44918723000</v>
+        <v>-43200443000</v>
       </c>
       <c r="O64">
         <v>52645400</v>
       </c>
       <c r="P64">
-        <v>795517130000</v>
+        <v>673613355800</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>3600</v>
       </c>
       <c r="E65">
-        <v>71318586000</v>
+        <v>66924584400</v>
       </c>
       <c r="F65">
-        <v>18024222000</v>
+        <v>16993154100</v>
       </c>
       <c r="G65">
-        <v>24617000</v>
+        <v>19522100</v>
       </c>
       <c r="H65">
         <v>5633800</v>
       </c>
       <c r="I65">
-        <v>89367425000</v>
+        <v>83937260600</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-16T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>6547428202000</v>
+        <v>5892418467400</v>
       </c>
       <c r="L65">
         <v>390305500</v>
@@ -3643,13 +3643,13 @@
         <v>-3834400</v>
       </c>
       <c r="N65">
-        <v>-53294364000</v>
+        <v>-49931430300</v>
       </c>
       <c r="O65">
         <v>48811000</v>
       </c>
       <c r="P65">
-        <v>742222766000</v>
+        <v>623681925500</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>19500</v>
       </c>
       <c r="E66">
-        <v>26046915000</v>
+        <v>25374687900</v>
       </c>
       <c r="F66">
-        <v>16496120000</v>
+        <v>14887730000</v>
       </c>
       <c r="G66">
         <v>261300000</v>
@@ -3678,13 +3678,13 @@
         <v>2573800</v>
       </c>
       <c r="I66">
-        <v>42804335000</v>
+        <v>40523717900</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-16T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>6590232537000</v>
+        <v>5932942185300</v>
       </c>
       <c r="L66">
         <v>392879300</v>
@@ -3693,13 +3693,13 @@
         <v>-467700</v>
       </c>
       <c r="N66">
-        <v>-9550795000</v>
+        <v>-10486957900</v>
       </c>
       <c r="O66">
         <v>48343300</v>
       </c>
       <c r="P66">
-        <v>732671971000</v>
+        <v>613194967600</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>10400</v>
       </c>
       <c r="E67">
-        <v>34924025000</v>
+        <v>31722230000</v>
       </c>
       <c r="F67">
-        <v>15759730000</v>
+        <v>15070020400</v>
       </c>
       <c r="G67">
         <v>201460000</v>
@@ -3728,13 +3728,13 @@
         <v>2890900</v>
       </c>
       <c r="I67">
-        <v>50885215000</v>
+        <v>46993710400</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-16T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>6641117752000</v>
+        <v>5979935895700</v>
       </c>
       <c r="L67">
         <v>395770200</v>
@@ -3743,13 +3743,13 @@
         <v>-1019700</v>
       </c>
       <c r="N67">
-        <v>-19164295000</v>
+        <v>-16652209600</v>
       </c>
       <c r="O67">
         <v>47323600</v>
       </c>
       <c r="P67">
-        <v>713507676000</v>
+        <v>596542758000</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>1800</v>
       </c>
       <c r="E68">
-        <v>46077170000</v>
+        <v>43606543100</v>
       </c>
       <c r="F68">
-        <v>17820852000</v>
+        <v>17475597600</v>
       </c>
       <c r="G68">
         <v>32232000</v>
@@ -3778,13 +3778,13 @@
         <v>3767000</v>
       </c>
       <c r="I68">
-        <v>63930254000</v>
+        <v>61114372700</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-16T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>6705048006000</v>
+        <v>6041050268400</v>
       </c>
       <c r="L68">
         <v>399537200</v>
@@ -3793,13 +3793,13 @@
         <v>-1639200</v>
       </c>
       <c r="N68">
-        <v>-28256318000</v>
+        <v>-26130945500</v>
       </c>
       <c r="O68">
         <v>45684400</v>
       </c>
       <c r="P68">
-        <v>685251358000</v>
+        <v>570411812500</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>14800</v>
       </c>
       <c r="E69">
-        <v>53790233000</v>
+        <v>43955377700</v>
       </c>
       <c r="F69">
-        <v>17306672000</v>
+        <v>16564015400</v>
       </c>
       <c r="G69">
         <v>377867000</v>
@@ -3828,13 +3828,13 @@
         <v>4141300</v>
       </c>
       <c r="I69">
-        <v>71474772000</v>
+        <v>60897260100</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-16T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>6776522778000</v>
+        <v>6101947528500</v>
       </c>
       <c r="L69">
         <v>403678500</v>
@@ -3843,13 +3843,13 @@
         <v>-2284100</v>
       </c>
       <c r="N69">
-        <v>-36483561000</v>
+        <v>-27391362300</v>
       </c>
       <c r="O69">
         <v>43400300</v>
       </c>
       <c r="P69">
-        <v>648767797000</v>
+        <v>543020450200</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2022-12-16T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>6777131562000</v>
+        <v>6102556312500</v>
       </c>
       <c r="L70">
         <v>403720700</v>
@@ -3899,7 +3899,7 @@
         <v>43367500</v>
       </c>
       <c r="P70">
-        <v>648274093000</v>
+        <v>542526746200</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>239600</v>
       </c>
       <c r="E71">
-        <v>120650318000</v>
+        <v>112728547700</v>
       </c>
       <c r="F71">
-        <v>50470263000</v>
+        <v>46040597100</v>
       </c>
       <c r="G71">
-        <v>2944607000</v>
+        <v>2907144500</v>
       </c>
       <c r="H71">
         <v>10630600</v>
       </c>
       <c r="I71">
-        <v>174065188000</v>
+        <v>161676289300</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-16T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>6951196750000</v>
+        <v>6264232601800</v>
       </c>
       <c r="L71">
         <v>414351300</v>
@@ -3943,13 +3943,13 @@
         <v>-3992000</v>
       </c>
       <c r="N71">
-        <v>-70180055000</v>
+        <v>-66687950600</v>
       </c>
       <c r="O71">
         <v>39375500</v>
       </c>
       <c r="P71">
-        <v>578094038000</v>
+        <v>475838795600</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>2200</v>
       </c>
       <c r="E72">
-        <v>38961235000</v>
+        <v>32897704600</v>
       </c>
       <c r="F72">
-        <v>29942224000</v>
+        <v>28241426500</v>
       </c>
       <c r="G72">
-        <v>118385000</v>
+        <v>115587800</v>
       </c>
       <c r="H72">
         <v>3933800</v>
       </c>
       <c r="I72">
-        <v>69021844000</v>
+        <v>61254718900</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-16T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>7020218594000</v>
+        <v>6325487320700</v>
       </c>
       <c r="L72">
         <v>418285100</v>
@@ -3993,13 +3993,13 @@
         <v>-420400</v>
       </c>
       <c r="N72">
-        <v>-9019011000</v>
+        <v>-4656278100</v>
       </c>
       <c r="O72">
         <v>38955100</v>
       </c>
       <c r="P72">
-        <v>569075027000</v>
+        <v>471182517500</v>
       </c>
     </row>
     <row r="73">
@@ -4016,25 +4016,25 @@
         <v>63200</v>
       </c>
       <c r="E73">
-        <v>39797479000</v>
+        <v>37313765200</v>
       </c>
       <c r="F73">
-        <v>47808162000</v>
+        <v>43634539800</v>
       </c>
       <c r="G73">
-        <v>915880000</v>
+        <v>913782100</v>
       </c>
       <c r="H73">
         <v>5205600</v>
       </c>
       <c r="I73">
-        <v>88521521000</v>
+        <v>81862087100</v>
       </c>
       <c r="J73" t="str">
         <v>2022-12-16T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>7108740115000</v>
+        <v>6407349407800</v>
       </c>
       <c r="L73">
         <v>423490700</v>
@@ -4043,13 +4043,13 @@
         <v>647600</v>
       </c>
       <c r="N73">
-        <v>8010683000</v>
+        <v>6320774600</v>
       </c>
       <c r="O73">
         <v>39602700</v>
       </c>
       <c r="P73">
-        <v>577085710000</v>
+        <v>477503292100</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>30500</v>
       </c>
       <c r="E74">
-        <v>43580619000</v>
+        <v>40515886800</v>
       </c>
       <c r="F74">
-        <v>32928309000</v>
+        <v>31782356100</v>
       </c>
       <c r="G74">
         <v>225665000</v>
@@ -4078,13 +4078,13 @@
         <v>4841700</v>
       </c>
       <c r="I74">
-        <v>76734593000</v>
+        <v>72523907900</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-16T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>7185474708000</v>
+        <v>6479873315700</v>
       </c>
       <c r="L74">
         <v>428332400</v>
@@ -4093,13 +4093,13 @@
         <v>-391600</v>
       </c>
       <c r="N74">
-        <v>-10652310000</v>
+        <v>-8733530700</v>
       </c>
       <c r="O74">
         <v>39211100</v>
       </c>
       <c r="P74">
-        <v>566433400000</v>
+        <v>468769761400</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>14500</v>
       </c>
       <c r="E75">
-        <v>58591239000</v>
+        <v>54299934600</v>
       </c>
       <c r="F75">
-        <v>35209838000</v>
+        <v>34969278800</v>
       </c>
       <c r="G75">
         <v>146825000</v>
@@ -4128,13 +4128,13 @@
         <v>5111400</v>
       </c>
       <c r="I75">
-        <v>93947902000</v>
+        <v>89416038400</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-16T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>7279422610000</v>
+        <v>6569289354100</v>
       </c>
       <c r="L75">
         <v>433443800</v>
@@ -4143,13 +4143,13 @@
         <v>-630900</v>
       </c>
       <c r="N75">
-        <v>-23381401000</v>
+        <v>-19330655800</v>
       </c>
       <c r="O75">
         <v>38580200</v>
       </c>
       <c r="P75">
-        <v>543051999000</v>
+        <v>449439105600</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>11300</v>
       </c>
       <c r="E76">
-        <v>46566530000</v>
+        <v>45459737900</v>
       </c>
       <c r="F76">
-        <v>24124480000</v>
+        <v>23232373000</v>
       </c>
       <c r="G76">
-        <v>71100000</v>
+        <v>68103000</v>
       </c>
       <c r="H76">
         <v>4102900</v>
       </c>
       <c r="I76">
-        <v>70762110000</v>
+        <v>68760213900</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-16T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>7350184720000</v>
+        <v>6638049568000</v>
       </c>
       <c r="L76">
         <v>437546700</v>
@@ -4193,13 +4193,13 @@
         <v>-437800</v>
       </c>
       <c r="N76">
-        <v>-22442050000</v>
+        <v>-22227364900</v>
       </c>
       <c r="O76">
         <v>38142400</v>
       </c>
       <c r="P76">
-        <v>520609949000</v>
+        <v>427211740700</v>
       </c>
     </row>
     <row r="77">
@@ -4216,25 +4216,25 @@
         <v>23400</v>
       </c>
       <c r="E77">
-        <v>46368145000</v>
+        <v>45760453300</v>
       </c>
       <c r="F77">
-        <v>33173844000</v>
+        <v>32353065600</v>
       </c>
       <c r="G77">
-        <v>309180000</v>
+        <v>296592600</v>
       </c>
       <c r="H77">
         <v>5622700</v>
       </c>
       <c r="I77">
-        <v>79851169000</v>
+        <v>78410111500</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-16T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>7430035889000</v>
+        <v>6716459679500</v>
       </c>
       <c r="L77">
         <v>443169400</v>
@@ -4243,13 +4243,13 @@
         <v>-182500</v>
       </c>
       <c r="N77">
-        <v>-13194301000</v>
+        <v>-13407387700</v>
       </c>
       <c r="O77">
         <v>37959900</v>
       </c>
       <c r="P77">
-        <v>507415648000</v>
+        <v>413804353000</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>10400</v>
       </c>
       <c r="E78">
-        <v>31548613000</v>
+        <v>28664000500</v>
       </c>
       <c r="F78">
-        <v>36564034000</v>
+        <v>34518381700</v>
       </c>
       <c r="G78">
         <v>186578000</v>
@@ -4278,13 +4278,13 @@
         <v>4093600</v>
       </c>
       <c r="I78">
-        <v>68299225000</v>
+        <v>63368960200</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-16T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>7498335114000</v>
+        <v>6779828639700</v>
       </c>
       <c r="L78">
         <v>447263000</v>
@@ -4293,13 +4293,13 @@
         <v>439200</v>
       </c>
       <c r="N78">
-        <v>5015421000</v>
+        <v>5854381200</v>
       </c>
       <c r="O78">
         <v>38399100</v>
       </c>
       <c r="P78">
-        <v>512431069000</v>
+        <v>419658734200</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>5100</v>
       </c>
       <c r="E79">
-        <v>30224797000</v>
+        <v>29562060400</v>
       </c>
       <c r="F79">
-        <v>40405286000</v>
+        <v>37423670600</v>
       </c>
       <c r="G79">
         <v>252750000</v>
@@ -4328,13 +4328,13 @@
         <v>3938000</v>
       </c>
       <c r="I79">
-        <v>70882833000</v>
+        <v>67238481000</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-16T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>7569217947000</v>
+        <v>6847067120700</v>
       </c>
       <c r="L79">
         <v>451201000</v>
@@ -4343,13 +4343,13 @@
         <v>780100</v>
       </c>
       <c r="N79">
-        <v>10180489000</v>
+        <v>7861610200</v>
       </c>
       <c r="O79">
         <v>39179200</v>
       </c>
       <c r="P79">
-        <v>522611558000</v>
+        <v>427520344400</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>13300</v>
       </c>
       <c r="E80">
-        <v>24496028000</v>
+        <v>23718306500</v>
       </c>
       <c r="F80">
-        <v>65869421000</v>
+        <v>58899098300</v>
       </c>
       <c r="G80">
         <v>170530000</v>
@@ -4378,13 +4378,13 @@
         <v>5158800</v>
       </c>
       <c r="I80">
-        <v>90535979000</v>
+        <v>82787934800</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-16T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>7659753926000</v>
+        <v>6929855055500</v>
       </c>
       <c r="L80">
         <v>456359800</v>
@@ -4393,13 +4393,13 @@
         <v>2372700</v>
       </c>
       <c r="N80">
-        <v>41373393000</v>
+        <v>35180791800</v>
       </c>
       <c r="O80">
         <v>41551900</v>
       </c>
       <c r="P80">
-        <v>563984951000</v>
+        <v>462701136200</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>12400</v>
       </c>
       <c r="E81">
-        <v>33373133000</v>
+        <v>26615097800</v>
       </c>
       <c r="F81">
-        <v>65407336000</v>
+        <v>57419731600</v>
       </c>
       <c r="G81">
         <v>483264000</v>
@@ -4428,13 +4428,13 @@
         <v>5852900</v>
       </c>
       <c r="I81">
-        <v>99263733000</v>
+        <v>84518093400</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-16T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>7759017659000</v>
+        <v>7014373148900</v>
       </c>
       <c r="L81">
         <v>462212700</v>
@@ -4443,13 +4443,13 @@
         <v>2610900</v>
       </c>
       <c r="N81">
-        <v>32034203000</v>
+        <v>30804633800</v>
       </c>
       <c r="O81">
         <v>44162800</v>
       </c>
       <c r="P81">
-        <v>596019154000</v>
+        <v>493505770000</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>1800</v>
       </c>
       <c r="E82">
-        <v>25913750000</v>
+        <v>24728236700</v>
       </c>
       <c r="F82">
-        <v>44299331000</v>
+        <v>40327806500</v>
       </c>
       <c r="G82">
         <v>30854000</v>
@@ -4478,13 +4478,13 @@
         <v>4261400</v>
       </c>
       <c r="I82">
-        <v>70243935000</v>
+        <v>65086897200</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-16T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>7829261594000</v>
+        <v>7079460046100</v>
       </c>
       <c r="L82">
         <v>466474100</v>
@@ -4493,13 +4493,13 @@
         <v>1005600</v>
       </c>
       <c r="N82">
-        <v>18385581000</v>
+        <v>15599569800</v>
       </c>
       <c r="O82">
         <v>45168400</v>
       </c>
       <c r="P82">
-        <v>614404735000</v>
+        <v>509105339800</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>5500</v>
       </c>
       <c r="E83">
-        <v>40556703000</v>
+        <v>38054208000</v>
       </c>
       <c r="F83">
-        <v>45915438000</v>
+        <v>43761893700</v>
       </c>
       <c r="G83">
         <v>122575000</v>
@@ -4528,13 +4528,13 @@
         <v>4718100</v>
       </c>
       <c r="I83">
-        <v>86594716000</v>
+        <v>81938676700</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-16T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>7915856310000</v>
+        <v>7161398722800</v>
       </c>
       <c r="L83">
         <v>471192200</v>
@@ -4543,13 +4543,13 @@
         <v>667800</v>
       </c>
       <c r="N83">
-        <v>5358735000</v>
+        <v>5707685700</v>
       </c>
       <c r="O83">
         <v>45836200</v>
       </c>
       <c r="P83">
-        <v>619763470000</v>
+        <v>514813025500</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>3700</v>
       </c>
       <c r="E84">
-        <v>42047464000</v>
+        <v>40885627000</v>
       </c>
       <c r="F84">
-        <v>29956321000</v>
+        <v>27408471400</v>
       </c>
       <c r="G84">
         <v>49240000</v>
@@ -4578,13 +4578,13 @@
         <v>4386600</v>
       </c>
       <c r="I84">
-        <v>72053025000</v>
+        <v>68343338400</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-16T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>7987909335000</v>
+        <v>7229742061200</v>
       </c>
       <c r="L84">
         <v>475578800</v>
@@ -4593,13 +4593,13 @@
         <v>-874700</v>
       </c>
       <c r="N84">
-        <v>-12091143000</v>
+        <v>-13477155600</v>
       </c>
       <c r="O84">
         <v>44961500</v>
       </c>
       <c r="P84">
-        <v>607672327000</v>
+        <v>501335869900</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>7100</v>
       </c>
       <c r="E85">
-        <v>64973225000</v>
+        <v>59242461500</v>
       </c>
       <c r="F85">
-        <v>18886852000</v>
+        <v>17439800500</v>
       </c>
       <c r="G85">
         <v>84840000</v>
@@ -4628,13 +4628,13 @@
         <v>4595700</v>
       </c>
       <c r="I85">
-        <v>83944917000</v>
+        <v>76767102000</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-16T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>8071854252000</v>
+        <v>7306509163200</v>
       </c>
       <c r="L85">
         <v>480174500</v>
@@ -4643,13 +4643,13 @@
         <v>-2188800</v>
       </c>
       <c r="N85">
-        <v>-46086373000</v>
+        <v>-41802661000</v>
       </c>
       <c r="O85">
         <v>42772700</v>
       </c>
       <c r="P85">
-        <v>561585954000</v>
+        <v>459533208900</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>6500</v>
       </c>
       <c r="E86">
-        <v>104296664000</v>
+        <v>85772706500</v>
       </c>
       <c r="F86">
-        <v>22493541000</v>
+        <v>20693143200</v>
       </c>
       <c r="G86">
-        <v>119236000</v>
+        <v>109645600</v>
       </c>
       <c r="H86">
         <v>7090500</v>
       </c>
       <c r="I86">
-        <v>126909441000</v>
+        <v>106575495300</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-16T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>8198763693000</v>
+        <v>7413084658500</v>
       </c>
       <c r="L86">
         <v>487265000</v>
@@ -4693,13 +4693,13 @@
         <v>-4532200</v>
       </c>
       <c r="N86">
-        <v>-81803123000</v>
+        <v>-65079563300</v>
       </c>
       <c r="O86">
         <v>38240500</v>
       </c>
       <c r="P86">
-        <v>479782831000</v>
+        <v>394453645600</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>30100</v>
       </c>
       <c r="E87">
-        <v>91354523000</v>
+        <v>85236946700</v>
       </c>
       <c r="F87">
-        <v>19823210000</v>
+        <v>17602832600</v>
       </c>
       <c r="G87">
         <v>446721000</v>
@@ -4728,13 +4728,13 @@
         <v>6963900</v>
       </c>
       <c r="I87">
-        <v>111624454000</v>
+        <v>103286500300</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-16T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>8310388147000</v>
+        <v>7516371158800</v>
       </c>
       <c r="L87">
         <v>494228900</v>
@@ -4743,13 +4743,13 @@
         <v>-4556000</v>
       </c>
       <c r="N87">
-        <v>-71531313000</v>
+        <v>-67634114100</v>
       </c>
       <c r="O87">
         <v>33684500</v>
       </c>
       <c r="P87">
-        <v>408251518000</v>
+        <v>326819531500</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>17000</v>
       </c>
       <c r="E88">
-        <v>69505662000</v>
+        <v>61014261900</v>
       </c>
       <c r="F88">
-        <v>34572143000</v>
+        <v>30906512300</v>
       </c>
       <c r="G88">
         <v>266285000</v>
@@ -4778,13 +4778,13 @@
         <v>5846400</v>
       </c>
       <c r="I88">
-        <v>104344090000</v>
+        <v>92187059200</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-16T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>8414732237000</v>
+        <v>7608558218000</v>
       </c>
       <c r="L88">
         <v>500075300</v>
@@ -4793,13 +4793,13 @@
         <v>-1948000</v>
       </c>
       <c r="N88">
-        <v>-34933519000</v>
+        <v>-30107749600</v>
       </c>
       <c r="O88">
         <v>31736500</v>
       </c>
       <c r="P88">
-        <v>373317999000</v>
+        <v>296711781900</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>2500</v>
       </c>
       <c r="E89">
-        <v>32620574000</v>
+        <v>29253944000</v>
       </c>
       <c r="F89">
-        <v>39615531000</v>
+        <v>35051799300</v>
       </c>
       <c r="G89">
         <v>83820000</v>
@@ -4828,13 +4828,13 @@
         <v>4537700</v>
       </c>
       <c r="I89">
-        <v>72319925000</v>
+        <v>64389563300</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-16T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>8487052162000</v>
+        <v>7672947781300</v>
       </c>
       <c r="L89">
         <v>504613000</v>
@@ -4843,13 +4843,13 @@
         <v>186000</v>
       </c>
       <c r="N89">
-        <v>6994957000</v>
+        <v>5797855300</v>
       </c>
       <c r="O89">
         <v>31922500</v>
       </c>
       <c r="P89">
-        <v>380312956000</v>
+        <v>302509637200</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>1300</v>
       </c>
       <c r="E90">
-        <v>25118285000</v>
+        <v>20335572500</v>
       </c>
       <c r="F90">
-        <v>41729052000</v>
+        <v>37656528600</v>
       </c>
       <c r="G90">
         <v>15705000</v>
@@ -4878,13 +4878,13 @@
         <v>3512100</v>
       </c>
       <c r="I90">
-        <v>66863042000</v>
+        <v>58007806100</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-16T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>8553915204000</v>
+        <v>7730955587400</v>
       </c>
       <c r="L90">
         <v>508125100</v>
@@ -4893,13 +4893,13 @@
         <v>548200</v>
       </c>
       <c r="N90">
-        <v>16610767000</v>
+        <v>17320956100</v>
       </c>
       <c r="O90">
         <v>32470700</v>
       </c>
       <c r="P90">
-        <v>396923723000</v>
+        <v>319830593300</v>
       </c>
     </row>
     <row r="91">
@@ -4916,10 +4916,10 @@
         <v>7700</v>
       </c>
       <c r="E91">
-        <v>35324472000</v>
+        <v>31932667200</v>
       </c>
       <c r="F91">
-        <v>27144330000</v>
+        <v>20321859300</v>
       </c>
       <c r="G91">
         <v>322551000</v>
@@ -4928,13 +4928,13 @@
         <v>3719400</v>
       </c>
       <c r="I91">
-        <v>62791353000</v>
+        <v>52577077500</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-16T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>8616706557000</v>
+        <v>7783532664900</v>
       </c>
       <c r="L91">
         <v>511844500</v>
@@ -4943,13 +4943,13 @@
         <v>-573700</v>
       </c>
       <c r="N91">
-        <v>-8180142000</v>
+        <v>-11610807900</v>
       </c>
       <c r="O91">
         <v>31897000</v>
       </c>
       <c r="P91">
-        <v>388743581000</v>
+        <v>308219785400</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>2700</v>
       </c>
       <c r="E92">
-        <v>61391614000</v>
+        <v>53013800200</v>
       </c>
       <c r="F92">
-        <v>26019167000</v>
+        <v>22210779200</v>
       </c>
       <c r="G92">
-        <v>102565000</v>
+        <v>88379200</v>
       </c>
       <c r="H92">
         <v>4832100</v>
       </c>
       <c r="I92">
-        <v>87513346000</v>
+        <v>75312958600</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-16T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>8704219903000</v>
+        <v>7858845623500</v>
       </c>
       <c r="L92">
         <v>516676600</v>
@@ -4993,13 +4993,13 @@
         <v>-1915800</v>
       </c>
       <c r="N92">
-        <v>-35372447000</v>
+        <v>-30803021000</v>
       </c>
       <c r="O92">
         <v>29981200</v>
       </c>
       <c r="P92">
-        <v>353371134000</v>
+        <v>277416764400</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>800</v>
       </c>
       <c r="E93">
-        <v>29271328000</v>
+        <v>28510189900</v>
       </c>
       <c r="F93">
-        <v>24893094000</v>
+        <v>20058733200</v>
       </c>
       <c r="G93">
         <v>61210000</v>
@@ -5028,13 +5028,13 @@
         <v>3211100</v>
       </c>
       <c r="I93">
-        <v>54225632000</v>
+        <v>48630133100</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-16T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>8758445535000</v>
+        <v>7907475756600</v>
       </c>
       <c r="L93">
         <v>519887700</v>
@@ -5043,13 +5043,13 @@
         <v>-588700</v>
       </c>
       <c r="N93">
-        <v>-4378234000</v>
+        <v>-8451456700</v>
       </c>
       <c r="O93">
         <v>29392500</v>
       </c>
       <c r="P93">
-        <v>348992900000</v>
+        <v>268965307700</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>18500</v>
       </c>
       <c r="E94">
-        <v>27242121000</v>
+        <v>24845619900</v>
       </c>
       <c r="F94">
-        <v>37903736000</v>
+        <v>28744004900</v>
       </c>
       <c r="G94">
         <v>238903000</v>
@@ -5078,13 +5078,13 @@
         <v>3610500</v>
       </c>
       <c r="I94">
-        <v>65384760000</v>
+        <v>53828527800</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-16T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>8823830295000</v>
+        <v>7961304284400</v>
       </c>
       <c r="L94">
         <v>523498200</v>
@@ -5093,13 +5093,13 @@
         <v>474000</v>
       </c>
       <c r="N94">
-        <v>10661615000</v>
+        <v>3898385000</v>
       </c>
       <c r="O94">
         <v>29866500</v>
       </c>
       <c r="P94">
-        <v>359654515000</v>
+        <v>272863692700</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>1500</v>
       </c>
       <c r="E95">
-        <v>31985233000</v>
+        <v>29473247500</v>
       </c>
       <c r="F95">
-        <v>45756558000</v>
+        <v>37212210900</v>
       </c>
       <c r="G95">
         <v>12640000</v>
@@ -5128,13 +5128,13 @@
         <v>4420500</v>
       </c>
       <c r="I95">
-        <v>77754431000</v>
+        <v>66698098400</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-16T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>8901584726000</v>
+        <v>8028002382800</v>
       </c>
       <c r="L95">
         <v>527918700</v>
@@ -5143,13 +5143,13 @@
         <v>694400</v>
       </c>
       <c r="N95">
-        <v>13771325000</v>
+        <v>7738963400</v>
       </c>
       <c r="O95">
         <v>30560900</v>
       </c>
       <c r="P95">
-        <v>373425840000</v>
+        <v>280602656100</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>8700</v>
       </c>
       <c r="E96">
-        <v>27026540000</v>
+        <v>24939129500</v>
       </c>
       <c r="F96">
-        <v>62451022000</v>
+        <v>53753228500</v>
       </c>
       <c r="G96">
         <v>114478000</v>
@@ -5178,13 +5178,13 @@
         <v>4798700</v>
       </c>
       <c r="I96">
-        <v>89592040000</v>
+        <v>78806836000</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-16T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>8991176766000</v>
+        <v>8106809218800</v>
       </c>
       <c r="L96">
         <v>532717400</v>
@@ -5193,13 +5193,13 @@
         <v>1680600</v>
       </c>
       <c r="N96">
-        <v>35424482000</v>
+        <v>28814099000</v>
       </c>
       <c r="O96">
         <v>32241500</v>
       </c>
       <c r="P96">
-        <v>408850322000</v>
+        <v>309416755100</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>17600</v>
       </c>
       <c r="E97">
-        <v>25975850000</v>
+        <v>22690139000</v>
       </c>
       <c r="F97">
-        <v>71751281000</v>
+        <v>58986158900</v>
       </c>
       <c r="G97">
         <v>220140000</v>
@@ -5228,13 +5228,13 @@
         <v>5229700</v>
       </c>
       <c r="I97">
-        <v>97947271000</v>
+        <v>81896437900</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-16T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>9089124037000</v>
+        <v>8188705656700</v>
       </c>
       <c r="L97">
         <v>537947100</v>
@@ -5243,13 +5243,13 @@
         <v>2006700</v>
       </c>
       <c r="N97">
-        <v>45775431000</v>
+        <v>36296019900</v>
       </c>
       <c r="O97">
         <v>34248200</v>
       </c>
       <c r="P97">
-        <v>454625753000</v>
+        <v>345712775000</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>10600</v>
       </c>
       <c r="E98">
-        <v>28883202000</v>
+        <v>26766720600</v>
       </c>
       <c r="F98">
-        <v>79814997000</v>
+        <v>75252963600</v>
       </c>
       <c r="G98">
-        <v>211144000</v>
+        <v>205549600</v>
       </c>
       <c r="H98">
         <v>5667100</v>
       </c>
       <c r="I98">
-        <v>108909343000</v>
+        <v>102225233800</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-16T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>9198033380000</v>
+        <v>8290930890500</v>
       </c>
       <c r="L98">
         <v>543614200</v>
@@ -5293,13 +5293,13 @@
         <v>2723700</v>
       </c>
       <c r="N98">
-        <v>50931795000</v>
+        <v>48486243000</v>
       </c>
       <c r="O98">
         <v>36971900</v>
       </c>
       <c r="P98">
-        <v>505557548000</v>
+        <v>394199018000</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>9100</v>
       </c>
       <c r="E99">
-        <v>51542910000</v>
+        <v>46426131900</v>
       </c>
       <c r="F99">
-        <v>41826960000</v>
+        <v>31863233700</v>
       </c>
       <c r="G99">
         <v>317079000</v>
@@ -5328,13 +5328,13 @@
         <v>4903600</v>
       </c>
       <c r="I99">
-        <v>93686949000</v>
+        <v>78606444600</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-16T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>9291720329000</v>
+        <v>8369537335100</v>
       </c>
       <c r="L99">
         <v>548517800</v>
@@ -5343,13 +5343,13 @@
         <v>-356700</v>
       </c>
       <c r="N99">
-        <v>-9715950000</v>
+        <v>-14562898200</v>
       </c>
       <c r="O99">
         <v>36615200</v>
       </c>
       <c r="P99">
-        <v>495841598000</v>
+        <v>379636119800</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>9500</v>
       </c>
       <c r="E100">
-        <v>62233419000</v>
+        <v>52037824800</v>
       </c>
       <c r="F100">
-        <v>24069031000</v>
+        <v>20986916200</v>
       </c>
       <c r="G100">
         <v>319515000</v>
@@ -5378,13 +5378,13 @@
         <v>4633400</v>
       </c>
       <c r="I100">
-        <v>86621965000</v>
+        <v>73344256000</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-16T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>9378342294000</v>
+        <v>8442881591100</v>
       </c>
       <c r="L100">
         <v>553151200</v>
@@ -5393,13 +5393,13 @@
         <v>-2170900</v>
       </c>
       <c r="N100">
-        <v>-38164388000</v>
+        <v>-31050908600</v>
       </c>
       <c r="O100">
         <v>34444300</v>
       </c>
       <c r="P100">
-        <v>457677210000</v>
+        <v>348585211200</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>31800</v>
       </c>
       <c r="E101">
-        <v>47862002000</v>
+        <v>40337034500</v>
       </c>
       <c r="F101">
-        <v>36964448000</v>
+        <v>31952465000</v>
       </c>
       <c r="G101">
         <v>525769000</v>
@@ -5428,13 +5428,13 @@
         <v>4308100</v>
       </c>
       <c r="I101">
-        <v>85352219000</v>
+        <v>72815268500</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-16T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>9463694513000</v>
+        <v>8515696859600</v>
       </c>
       <c r="L101">
         <v>557459300</v>
@@ -5443,13 +5443,13 @@
         <v>-606100</v>
       </c>
       <c r="N101">
-        <v>-10897554000</v>
+        <v>-8384569500</v>
       </c>
       <c r="O101">
         <v>33838200</v>
       </c>
       <c r="P101">
-        <v>446779656000</v>
+        <v>340200641700</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>34400</v>
       </c>
       <c r="E102">
-        <v>41610397000</v>
+        <v>40053955000</v>
       </c>
       <c r="F102">
-        <v>35703529000</v>
+        <v>31749686800</v>
       </c>
       <c r="G102">
-        <v>850360000</v>
+        <v>817892500</v>
       </c>
       <c r="H102">
         <v>3887200</v>
       </c>
       <c r="I102">
-        <v>78164286000</v>
+        <v>72621534300</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-16T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>9541858799000</v>
+        <v>8588318393900</v>
       </c>
       <c r="L102">
         <v>561346500</v>
@@ -5493,13 +5493,13 @@
         <v>-546600</v>
       </c>
       <c r="N102">
-        <v>-5906868000</v>
+        <v>-8304268200</v>
       </c>
       <c r="O102">
         <v>33291600</v>
       </c>
       <c r="P102">
-        <v>440872788000</v>
+        <v>331896373500</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>12300</v>
       </c>
       <c r="E103">
-        <v>34561469000</v>
+        <v>29572562900</v>
       </c>
       <c r="F103">
-        <v>45190878000</v>
+        <v>39515858700</v>
       </c>
       <c r="G103">
         <v>124824000</v>
@@ -5528,13 +5528,13 @@
         <v>4137800</v>
       </c>
       <c r="I103">
-        <v>79877171000</v>
+        <v>69213245600</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-16T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>9621735970000</v>
+        <v>8657531639500</v>
       </c>
       <c r="L103">
         <v>565484300</v>
@@ -5543,13 +5543,13 @@
         <v>364300</v>
       </c>
       <c r="N103">
-        <v>10629409000</v>
+        <v>9943295800</v>
       </c>
       <c r="O103">
         <v>33655900</v>
       </c>
       <c r="P103">
-        <v>451502197000</v>
+        <v>341839669300</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>29200</v>
       </c>
       <c r="E104">
-        <v>26547101000</v>
+        <v>19773681200</v>
       </c>
       <c r="F104">
-        <v>57165892000</v>
+        <v>51640023400</v>
       </c>
       <c r="G104">
         <v>274377000</v>
@@ -5578,13 +5578,13 @@
         <v>4734900</v>
       </c>
       <c r="I104">
-        <v>83987370000</v>
+        <v>71688081600</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-16T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>9705723340000</v>
+        <v>8729219721100</v>
       </c>
       <c r="L104">
         <v>570219200</v>
@@ -5593,13 +5593,13 @@
         <v>1118500</v>
       </c>
       <c r="N104">
-        <v>30618791000</v>
+        <v>31866342200</v>
       </c>
       <c r="O104">
         <v>34774400</v>
       </c>
       <c r="P104">
-        <v>482120988000</v>
+        <v>373706011500</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>18100</v>
       </c>
       <c r="E105">
-        <v>25903946000</v>
+        <v>23509343000</v>
       </c>
       <c r="F105">
-        <v>95377158000</v>
+        <v>87725417400</v>
       </c>
       <c r="G105">
         <v>137986000</v>
@@ -5628,13 +5628,13 @@
         <v>6248700</v>
       </c>
       <c r="I105">
-        <v>121419090000</v>
+        <v>111372746400</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-16T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>9827142430000</v>
+        <v>8840592467500</v>
       </c>
       <c r="L105">
         <v>576467900</v>
@@ -5643,13 +5643,13 @@
         <v>3378800</v>
       </c>
       <c r="N105">
-        <v>69473212000</v>
+        <v>64216074400</v>
       </c>
       <c r="O105">
         <v>38153200</v>
       </c>
       <c r="P105">
-        <v>551594200000</v>
+        <v>437922085900</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>17700</v>
       </c>
       <c r="E106">
-        <v>30894384000</v>
+        <v>27301080900</v>
       </c>
       <c r="F106">
-        <v>88803543000</v>
+        <v>77283574500</v>
       </c>
       <c r="G106">
-        <v>298529000</v>
+        <v>233594000</v>
       </c>
       <c r="H106">
         <v>6436300</v>
       </c>
       <c r="I106">
-        <v>119996456000</v>
+        <v>104818249400</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-16T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>9947138886000</v>
+        <v>8945410716900</v>
       </c>
       <c r="L106">
         <v>582904200</v>
@@ -5693,13 +5693,13 @@
         <v>3424200</v>
       </c>
       <c r="N106">
-        <v>57909159000</v>
+        <v>49982493600</v>
       </c>
       <c r="O106">
         <v>41577400</v>
       </c>
       <c r="P106">
-        <v>609503359000</v>
+        <v>487904579500</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>38000</v>
       </c>
       <c r="E107">
-        <v>55695370000</v>
+        <v>51776492800</v>
       </c>
       <c r="F107">
-        <v>79009924000</v>
+        <v>70662779500</v>
       </c>
       <c r="G107">
         <v>462435000</v>
@@ -5728,13 +5728,13 @@
         <v>7764200</v>
       </c>
       <c r="I107">
-        <v>135167729000</v>
+        <v>122901707300</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-16T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>10082306615000</v>
+        <v>9068312424200</v>
       </c>
       <c r="L107">
         <v>590668400</v>
@@ -5743,13 +5743,13 @@
         <v>1292400</v>
       </c>
       <c r="N107">
-        <v>23314554000</v>
+        <v>18886286700</v>
       </c>
       <c r="O107">
         <v>42869800</v>
       </c>
       <c r="P107">
-        <v>632817913000</v>
+        <v>506790866200</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>4600</v>
       </c>
       <c r="E108">
-        <v>41775587000</v>
+        <v>38743522100</v>
       </c>
       <c r="F108">
-        <v>50436504000</v>
+        <v>43607439900</v>
       </c>
       <c r="G108">
         <v>119387000</v>
@@ -5778,13 +5778,13 @@
         <v>4360200</v>
       </c>
       <c r="I108">
-        <v>92331478000</v>
+        <v>82470349000</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-16T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>10174638093000</v>
+        <v>9150782773200</v>
       </c>
       <c r="L108">
         <v>595028600</v>
@@ -5793,13 +5793,13 @@
         <v>320000</v>
       </c>
       <c r="N108">
-        <v>8660917000</v>
+        <v>4863917800</v>
       </c>
       <c r="O108">
         <v>43189800</v>
       </c>
       <c r="P108">
-        <v>641478830000</v>
+        <v>511654784000</v>
       </c>
     </row>
     <row r="109">
@@ -5816,10 +5816,10 @@
         <v>11000</v>
       </c>
       <c r="E109">
-        <v>61947076000</v>
+        <v>57841186000</v>
       </c>
       <c r="F109">
-        <v>47075399000</v>
+        <v>46028646800</v>
       </c>
       <c r="G109">
         <v>284201000</v>
@@ -5828,13 +5828,13 @@
         <v>5476900</v>
       </c>
       <c r="I109">
-        <v>109306676000</v>
+        <v>104154033800</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-16T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>10283944769000</v>
+        <v>9254936807000</v>
       </c>
       <c r="L109">
         <v>600505500</v>
@@ -5843,13 +5843,13 @@
         <v>-151100</v>
       </c>
       <c r="N109">
-        <v>-14871677000</v>
+        <v>-11812539200</v>
       </c>
       <c r="O109">
         <v>43038700</v>
       </c>
       <c r="P109">
-        <v>626607153000</v>
+        <v>499842244800</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>15100</v>
       </c>
       <c r="E110">
-        <v>83170778000</v>
+        <v>64682684600</v>
       </c>
       <c r="F110">
-        <v>46237631000</v>
+        <v>43410960500</v>
       </c>
       <c r="G110">
-        <v>317751000</v>
+        <v>97471500</v>
       </c>
       <c r="H110">
         <v>6706000</v>
       </c>
       <c r="I110">
-        <v>129726160000</v>
+        <v>108191116600</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-16T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>10413670929000</v>
+        <v>9363127923600</v>
       </c>
       <c r="L110">
         <v>607211500</v>
@@ -5893,13 +5893,13 @@
         <v>-2105700</v>
       </c>
       <c r="N110">
-        <v>-36933147000</v>
+        <v>-21271724100</v>
       </c>
       <c r="O110">
         <v>40933000</v>
       </c>
       <c r="P110">
-        <v>589674006000</v>
+        <v>478570520700</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>50000</v>
       </c>
       <c r="E111">
-        <v>120864972000</v>
+        <v>105743009100</v>
       </c>
       <c r="F111">
-        <v>42198436000</v>
+        <v>38695542400</v>
       </c>
       <c r="G111">
-        <v>949810000</v>
+        <v>941018800</v>
       </c>
       <c r="H111">
         <v>9228000</v>
       </c>
       <c r="I111">
-        <v>164013218000</v>
+        <v>145379570300</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-16T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>10577684147000</v>
+        <v>9508507493900</v>
       </c>
       <c r="L111">
         <v>616439500</v>
@@ -5943,13 +5943,13 @@
         <v>-4881000</v>
       </c>
       <c r="N111">
-        <v>-78666536000</v>
+        <v>-67047466700</v>
       </c>
       <c r="O111">
         <v>36052000</v>
       </c>
       <c r="P111">
-        <v>511007470000</v>
+        <v>411523054000</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>57200</v>
       </c>
       <c r="E112">
-        <v>95583042000</v>
+        <v>91623805200</v>
       </c>
       <c r="F112">
-        <v>40663175000</v>
+        <v>35378864600</v>
       </c>
       <c r="G112">
         <v>1008374000</v>
@@ -5978,13 +5978,13 @@
         <v>7889300</v>
       </c>
       <c r="I112">
-        <v>137254591000</v>
+        <v>128011043800</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-16T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>10714938738000</v>
+        <v>9636518537700</v>
       </c>
       <c r="L112">
         <v>624328800</v>
@@ -5993,13 +5993,13 @@
         <v>-3222700</v>
       </c>
       <c r="N112">
-        <v>-54919867000</v>
+        <v>-56244940600</v>
       </c>
       <c r="O112">
         <v>32829300</v>
       </c>
       <c r="P112">
-        <v>456087603000</v>
+        <v>355278113400</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>39000</v>
       </c>
       <c r="E113">
-        <v>58948125000</v>
+        <v>56641134300</v>
       </c>
       <c r="F113">
-        <v>72085890000</v>
+        <v>59738749500</v>
       </c>
       <c r="G113">
         <v>808080000</v>
@@ -6028,13 +6028,13 @@
         <v>6958200</v>
       </c>
       <c r="I113">
-        <v>131842095000</v>
+        <v>117187963800</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-16T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>10846780833000</v>
+        <v>9753706501500</v>
       </c>
       <c r="L113">
         <v>631287000</v>
@@ -6043,13 +6043,13 @@
         <v>549200</v>
       </c>
       <c r="N113">
-        <v>13137765000</v>
+        <v>3097615200</v>
       </c>
       <c r="O113">
         <v>33378500</v>
       </c>
       <c r="P113">
-        <v>469225368000</v>
+        <v>358375728600</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>112000</v>
       </c>
       <c r="E114">
-        <v>67708824000</v>
+        <v>59285555700</v>
       </c>
       <c r="F114">
-        <v>74356450000</v>
+        <v>58401820600</v>
       </c>
       <c r="G114">
-        <v>1959734999.9999998</v>
+        <v>1733960999.9999998</v>
       </c>
       <c r="H114">
         <v>7463800</v>
       </c>
       <c r="I114">
-        <v>144025009000</v>
+        <v>119421337300</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-16T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>10990805842000</v>
+        <v>9873127838800</v>
       </c>
       <c r="L114">
         <v>638750800</v>
@@ -6093,13 +6093,13 @@
         <v>-185800</v>
       </c>
       <c r="N114">
-        <v>6647626000</v>
+        <v>-883735100</v>
       </c>
       <c r="O114">
         <v>33192700</v>
       </c>
       <c r="P114">
-        <v>475872994000</v>
+        <v>357491993500</v>
       </c>
     </row>
     <row r="115">
@@ -6116,25 +6116,25 @@
         <v>40200</v>
       </c>
       <c r="E115">
-        <v>93244146000</v>
+        <v>86612684100</v>
       </c>
       <c r="F115">
-        <v>66998594000</v>
+        <v>53518787300</v>
       </c>
       <c r="G115">
-        <v>703642000</v>
+        <v>689855800</v>
       </c>
       <c r="H115">
         <v>9804200</v>
       </c>
       <c r="I115">
-        <v>160946382000</v>
+        <v>140821327200</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-16T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>11151752224000</v>
+        <v>10013949166000</v>
       </c>
       <c r="L115">
         <v>648555000</v>
@@ -6143,13 +6143,13 @@
         <v>-1402000</v>
       </c>
       <c r="N115">
-        <v>-26245552000</v>
+        <v>-33093896800</v>
       </c>
       <c r="O115">
         <v>31790700</v>
       </c>
       <c r="P115">
-        <v>449627442000</v>
+        <v>324398096700</v>
       </c>
     </row>
     <row r="116">
@@ -6169,7 +6169,7 @@
         <v>234715000</v>
       </c>
       <c r="F116">
-        <v>125505000</v>
+        <v>121908600</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -6178,13 +6178,13 @@
         <v>23700</v>
       </c>
       <c r="I116">
-        <v>360220000</v>
+        <v>356623600</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-16T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>11152112444000</v>
+        <v>10014305789600</v>
       </c>
       <c r="L116">
         <v>648578700</v>
@@ -6193,13 +6193,13 @@
         <v>1900</v>
       </c>
       <c r="N116">
-        <v>-109210000</v>
+        <v>-112806400</v>
       </c>
       <c r="O116">
         <v>31792600</v>
       </c>
       <c r="P116">
-        <v>449518232000</v>
+        <v>324285290300</v>
       </c>
     </row>
     <row r="117">
@@ -6234,7 +6234,7 @@
         <v>2022-12-16T14:36:00.000Z</v>
       </c>
       <c r="K117">
-        <v>11152162944000</v>
+        <v>10014356289600</v>
       </c>
       <c r="L117">
         <v>648583700</v>
@@ -6249,7 +6249,7 @@
         <v>31797600</v>
       </c>
       <c r="P117">
-        <v>449568732000</v>
+        <v>324335790300</v>
       </c>
     </row>
     <row r="118">
@@ -6284,7 +6284,7 @@
         <v>2022-12-16T14:38:00.000Z</v>
       </c>
       <c r="K118">
-        <v>11152171024000</v>
+        <v>10014364369600</v>
       </c>
       <c r="L118">
         <v>648584500</v>
@@ -6299,7 +6299,7 @@
         <v>31798400</v>
       </c>
       <c r="P118">
-        <v>449576812000</v>
+        <v>324343870300</v>
       </c>
     </row>
     <row r="119">
@@ -6334,7 +6334,7 @@
         <v>2022-12-16T14:42:00.000Z</v>
       </c>
       <c r="K119">
-        <v>11152173054000</v>
+        <v>10014366399600</v>
       </c>
       <c r="L119">
         <v>648584700</v>
@@ -6349,7 +6349,7 @@
         <v>31798600</v>
       </c>
       <c r="P119">
-        <v>449578842000</v>
+        <v>324345900300</v>
       </c>
     </row>
     <row r="120">
@@ -6366,25 +6366,25 @@
         <v>92698400</v>
       </c>
       <c r="E120">
-        <v>42608765000</v>
+        <v>25349042000</v>
       </c>
       <c r="F120">
-        <v>250135425000</v>
+        <v>142160208300</v>
       </c>
       <c r="G120">
-        <v>2095471327000</v>
+        <v>1924363506100</v>
       </c>
       <c r="H120">
         <v>106342900</v>
       </c>
       <c r="I120">
-        <v>2388215517000</v>
+        <v>2091872756400</v>
       </c>
       <c r="J120" t="str">
         <v>2022-12-16T14:44:00.000Z</v>
       </c>
       <c r="K120">
-        <v>13540388571000</v>
+        <v>12106239156000</v>
       </c>
       <c r="L120">
         <v>754927600</v>
@@ -6393,13 +6393,13 @@
         <v>8019900</v>
       </c>
       <c r="N120">
-        <v>207526660000</v>
+        <v>116811166300</v>
       </c>
       <c r="O120">
         <v>39818500</v>
       </c>
       <c r="P120">
-        <v>657105502000</v>
+        <v>441157066600</v>
       </c>
     </row>
     <row r="121">
@@ -6434,7 +6434,7 @@
         <v>2022-12-16T14:48:00.000Z</v>
       </c>
       <c r="K121">
-        <v>13540393621000</v>
+        <v>12106244206000</v>
       </c>
       <c r="L121">
         <v>754928100</v>
@@ -6449,7 +6449,7 @@
         <v>39818000</v>
       </c>
       <c r="P121">
-        <v>657100452000</v>
+        <v>441152016600</v>
       </c>
     </row>
     <row r="122">
@@ -6484,7 +6484,7 @@
         <v>2022-12-16T14:50:00.000Z</v>
       </c>
       <c r="K122">
-        <v>13540670821000</v>
+        <v>12106521406000</v>
       </c>
       <c r="L122">
         <v>754956100</v>
@@ -6499,7 +6499,7 @@
         <v>39790000</v>
       </c>
       <c r="P122">
-        <v>656823252000</v>
+        <v>440874816600</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221216/VNINDEX_HOSE_5p_20221216.xlsx
+++ b/name/vnindex/20221216/VNINDEX_HOSE_5p_20221216.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P122"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-55237857600</v>
       </c>
+      <c r="Q2">
+        <v>43347427400</v>
+      </c>
+      <c r="R2">
+        <v>98585285000</v>
+      </c>
+      <c r="S2">
+        <v>3855100</v>
+      </c>
+      <c r="T2">
+        <v>6867700</v>
+      </c>
+      <c r="U2">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V2">
+        <v>39842980124</v>
+      </c>
+      <c r="W2">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X2">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y2">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z2">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA2">
+        <v>328843</v>
+      </c>
+      <c r="AB2">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC2">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-49547405000</v>
       </c>
+      <c r="Q3">
+        <v>108558377500</v>
+      </c>
+      <c r="R3">
+        <v>158105782500</v>
+      </c>
+      <c r="S3">
+        <v>8197700</v>
+      </c>
+      <c r="T3">
+        <v>11163700</v>
+      </c>
+      <c r="U3">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V3">
+        <v>39842980124</v>
+      </c>
+      <c r="W3">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X3">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y3">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z3">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA3">
+        <v>328843</v>
+      </c>
+      <c r="AB3">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC3">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-17460150900</v>
       </c>
+      <c r="Q4">
+        <v>183394001600</v>
+      </c>
+      <c r="R4">
+        <v>200854152500</v>
+      </c>
+      <c r="S4">
+        <v>13497700</v>
+      </c>
+      <c r="T4">
+        <v>13913700</v>
+      </c>
+      <c r="U4">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V4">
+        <v>39842980124</v>
+      </c>
+      <c r="W4">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X4">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y4">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z4">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA4">
+        <v>328843</v>
+      </c>
+      <c r="AB4">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC4">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>43234400</v>
       </c>
+      <c r="Q5">
+        <v>251652205600</v>
+      </c>
+      <c r="R5">
+        <v>251608971200</v>
+      </c>
+      <c r="S5">
+        <v>18011800</v>
+      </c>
+      <c r="T5">
+        <v>17062500</v>
+      </c>
+      <c r="U5">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V5">
+        <v>39842980124</v>
+      </c>
+      <c r="W5">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X5">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y5">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z5">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA5">
+        <v>328843</v>
+      </c>
+      <c r="AB5">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC5">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-2134596400</v>
       </c>
+      <c r="Q6">
+        <v>304970883200</v>
+      </c>
+      <c r="R6">
+        <v>307105479600</v>
+      </c>
+      <c r="S6">
+        <v>21329700</v>
+      </c>
+      <c r="T6">
+        <v>20343100</v>
+      </c>
+      <c r="U6">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V6">
+        <v>39842980124</v>
+      </c>
+      <c r="W6">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X6">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y6">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z6">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA6">
+        <v>328843</v>
+      </c>
+      <c r="AB6">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC6">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-17586852100</v>
       </c>
+      <c r="Q7">
+        <v>340407791700</v>
+      </c>
+      <c r="R7">
+        <v>357994643800</v>
+      </c>
+      <c r="S7">
+        <v>23778600</v>
+      </c>
+      <c r="T7">
+        <v>23939400</v>
+      </c>
+      <c r="U7">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V7">
+        <v>39842980124</v>
+      </c>
+      <c r="W7">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X7">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y7">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z7">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA7">
+        <v>328843</v>
+      </c>
+      <c r="AB7">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC7">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-23744582800</v>
       </c>
+      <c r="Q8">
+        <v>379120092500</v>
+      </c>
+      <c r="R8">
+        <v>402864675300</v>
+      </c>
+      <c r="S8">
+        <v>26133300</v>
+      </c>
+      <c r="T8">
+        <v>26800400</v>
+      </c>
+      <c r="U8">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V8">
+        <v>39842980124</v>
+      </c>
+      <c r="W8">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X8">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y8">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z8">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA8">
+        <v>328843</v>
+      </c>
+      <c r="AB8">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC8">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-20418361800</v>
       </c>
+      <c r="Q9">
+        <v>425276013200</v>
+      </c>
+      <c r="R9">
+        <v>445694375000</v>
+      </c>
+      <c r="S9">
+        <v>29299700</v>
+      </c>
+      <c r="T9">
+        <v>29210100</v>
+      </c>
+      <c r="U9">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V9">
+        <v>39842980124</v>
+      </c>
+      <c r="W9">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X9">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y9">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z9">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA9">
+        <v>328843</v>
+      </c>
+      <c r="AB9">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC9">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>2292122700</v>
       </c>
+      <c r="Q10">
+        <v>478520644600</v>
+      </c>
+      <c r="R10">
+        <v>476228521900</v>
+      </c>
+      <c r="S10">
+        <v>33968400</v>
+      </c>
+      <c r="T10">
+        <v>30996000</v>
+      </c>
+      <c r="U10">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V10">
+        <v>39842980124</v>
+      </c>
+      <c r="W10">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X10">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y10">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z10">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA10">
+        <v>328843</v>
+      </c>
+      <c r="AB10">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC10">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>137316260700</v>
       </c>
+      <c r="Q11">
+        <v>650065252600</v>
+      </c>
+      <c r="R11">
+        <v>512748991900</v>
+      </c>
+      <c r="S11">
+        <v>45649100</v>
+      </c>
+      <c r="T11">
+        <v>33198800</v>
+      </c>
+      <c r="U11">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V11">
+        <v>39842980124</v>
+      </c>
+      <c r="W11">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X11">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y11">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z11">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA11">
+        <v>328843</v>
+      </c>
+      <c r="AB11">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC11">
+        <v>37.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>260180030400</v>
       </c>
+      <c r="Q12">
+        <v>812920344200</v>
+      </c>
+      <c r="R12">
+        <v>552740313800</v>
+      </c>
+      <c r="S12">
+        <v>56964700</v>
+      </c>
+      <c r="T12">
+        <v>35637700</v>
+      </c>
+      <c r="U12">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V12">
+        <v>39842980124</v>
+      </c>
+      <c r="W12">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X12">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y12">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z12">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA12">
+        <v>328843</v>
+      </c>
+      <c r="AB12">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC12">
+        <v>33.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>324640669900</v>
       </c>
+      <c r="Q13">
+        <v>945035571500</v>
+      </c>
+      <c r="R13">
+        <v>620394901600</v>
+      </c>
+      <c r="S13">
+        <v>66840000</v>
+      </c>
+      <c r="T13">
+        <v>39629300</v>
+      </c>
+      <c r="U13">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V13">
+        <v>39842980124</v>
+      </c>
+      <c r="W13">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X13">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y13">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z13">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA13">
+        <v>328843</v>
+      </c>
+      <c r="AB13">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC13">
+        <v>17.7</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>317156560900</v>
       </c>
+      <c r="Q14">
+        <v>1010179118300</v>
+      </c>
+      <c r="R14">
+        <v>693022557400</v>
+      </c>
+      <c r="S14">
+        <v>71527600</v>
+      </c>
+      <c r="T14">
+        <v>44635300</v>
+      </c>
+      <c r="U14">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V14">
+        <v>39842980124</v>
+      </c>
+      <c r="W14">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X14">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y14">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z14">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA14">
+        <v>328843</v>
+      </c>
+      <c r="AB14">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC14">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>294307292600</v>
       </c>
+      <c r="Q15">
+        <v>1045900027000</v>
+      </c>
+      <c r="R15">
+        <v>751592734400</v>
+      </c>
+      <c r="S15">
+        <v>74038400</v>
+      </c>
+      <c r="T15">
+        <v>48730200</v>
+      </c>
+      <c r="U15">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V15">
+        <v>39842980124</v>
+      </c>
+      <c r="W15">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X15">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y15">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z15">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA15">
+        <v>328843</v>
+      </c>
+      <c r="AB15">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC15">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>289836341500</v>
       </c>
+      <c r="Q16">
+        <v>1085359445900</v>
+      </c>
+      <c r="R16">
+        <v>795523104400</v>
+      </c>
+      <c r="S16">
+        <v>77273000</v>
+      </c>
+      <c r="T16">
+        <v>52631000</v>
+      </c>
+      <c r="U16">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V16">
+        <v>39842980124</v>
+      </c>
+      <c r="W16">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X16">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y16">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z16">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA16">
+        <v>328843</v>
+      </c>
+      <c r="AB16">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC16">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>332938417300</v>
       </c>
+      <c r="Q17">
+        <v>1164446294400</v>
+      </c>
+      <c r="R17">
+        <v>831507877100</v>
+      </c>
+      <c r="S17">
+        <v>82140400</v>
+      </c>
+      <c r="T17">
+        <v>55222600</v>
+      </c>
+      <c r="U17">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V17">
+        <v>39842980124</v>
+      </c>
+      <c r="W17">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X17">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y17">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z17">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA17">
+        <v>328843</v>
+      </c>
+      <c r="AB17">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC17">
+        <v>11.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>421558088800</v>
       </c>
+      <c r="Q18">
+        <v>1287956519000</v>
+      </c>
+      <c r="R18">
+        <v>866398430200</v>
+      </c>
+      <c r="S18">
+        <v>90051800</v>
+      </c>
+      <c r="T18">
+        <v>57415700</v>
+      </c>
+      <c r="U18">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V18">
+        <v>39842980124</v>
+      </c>
+      <c r="W18">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X18">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y18">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z18">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA18">
+        <v>328843</v>
+      </c>
+      <c r="AB18">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC18">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>538387649500</v>
       </c>
+      <c r="Q19">
+        <v>1430981082200</v>
+      </c>
+      <c r="R19">
+        <v>892593432700</v>
+      </c>
+      <c r="S19">
+        <v>99795300</v>
+      </c>
+      <c r="T19">
+        <v>58928300</v>
+      </c>
+      <c r="U19">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V19">
+        <v>39842980124</v>
+      </c>
+      <c r="W19">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X19">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y19">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z19">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA19">
+        <v>328843</v>
+      </c>
+      <c r="AB19">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC19">
+        <v>32.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>585347404300</v>
       </c>
+      <c r="Q20">
+        <v>1510061714400</v>
+      </c>
+      <c r="R20">
+        <v>924714310100</v>
+      </c>
+      <c r="S20">
+        <v>104702900</v>
+      </c>
+      <c r="T20">
+        <v>60943300</v>
+      </c>
+      <c r="U20">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V20">
+        <v>39842980124</v>
+      </c>
+      <c r="W20">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X20">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y20">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z20">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA20">
+        <v>328843</v>
+      </c>
+      <c r="AB20">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC20">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>630997368300</v>
       </c>
+      <c r="Q21">
+        <v>1587081560600</v>
+      </c>
+      <c r="R21">
+        <v>956084192300</v>
+      </c>
+      <c r="S21">
+        <v>109369600</v>
+      </c>
+      <c r="T21">
+        <v>62767600</v>
+      </c>
+      <c r="U21">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V21">
+        <v>39842980124</v>
+      </c>
+      <c r="W21">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X21">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y21">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z21">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA21">
+        <v>328843</v>
+      </c>
+      <c r="AB21">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC21">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>648054740700</v>
       </c>
+      <c r="Q22">
+        <v>1657331334800</v>
+      </c>
+      <c r="R22">
+        <v>1009276594100</v>
+      </c>
+      <c r="S22">
+        <v>113547800</v>
+      </c>
+      <c r="T22">
+        <v>66132400</v>
+      </c>
+      <c r="U22">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V22">
+        <v>39842980124</v>
+      </c>
+      <c r="W22">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X22">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y22">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z22">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA22">
+        <v>328843</v>
+      </c>
+      <c r="AB22">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC22">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>664008614400</v>
       </c>
+      <c r="Q23">
+        <v>1717383351100</v>
+      </c>
+      <c r="R23">
+        <v>1053374736700</v>
+      </c>
+      <c r="S23">
+        <v>117065800</v>
+      </c>
+      <c r="T23">
+        <v>69274000</v>
+      </c>
+      <c r="U23">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V23">
+        <v>39842980124</v>
+      </c>
+      <c r="W23">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X23">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y23">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z23">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA23">
+        <v>328843</v>
+      </c>
+      <c r="AB23">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC23">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>664038187600</v>
       </c>
+      <c r="Q24">
+        <v>1759608605700</v>
+      </c>
+      <c r="R24">
+        <v>1095570418100</v>
+      </c>
+      <c r="S24">
+        <v>119949000</v>
+      </c>
+      <c r="T24">
+        <v>71731400</v>
+      </c>
+      <c r="U24">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V24">
+        <v>39842980124</v>
+      </c>
+      <c r="W24">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X24">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y24">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z24">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA24">
+        <v>328843</v>
+      </c>
+      <c r="AB24">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>650496780400</v>
       </c>
+      <c r="Q25">
+        <v>1791270660300</v>
+      </c>
+      <c r="R25">
+        <v>1140773879900</v>
+      </c>
+      <c r="S25">
+        <v>122204400</v>
+      </c>
+      <c r="T25">
+        <v>74659700</v>
+      </c>
+      <c r="U25">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V25">
+        <v>39842980124</v>
+      </c>
+      <c r="W25">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X25">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y25">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z25">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA25">
+        <v>328843</v>
+      </c>
+      <c r="AB25">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC25">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>634524695100</v>
       </c>
+      <c r="Q26">
+        <v>1816911059800</v>
+      </c>
+      <c r="R26">
+        <v>1182386364700</v>
+      </c>
+      <c r="S26">
+        <v>123996300</v>
+      </c>
+      <c r="T26">
+        <v>77628500</v>
+      </c>
+      <c r="U26">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V26">
+        <v>39842980124</v>
+      </c>
+      <c r="W26">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X26">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y26">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z26">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA26">
+        <v>328843</v>
+      </c>
+      <c r="AB26">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC26">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>624788320500</v>
       </c>
+      <c r="Q27">
+        <v>1846286222800</v>
+      </c>
+      <c r="R27">
+        <v>1221497902300</v>
+      </c>
+      <c r="S27">
+        <v>125912500</v>
+      </c>
+      <c r="T27">
+        <v>80263100</v>
+      </c>
+      <c r="U27">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V27">
+        <v>39842980124</v>
+      </c>
+      <c r="W27">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X27">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y27">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z27">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA27">
+        <v>328843</v>
+      </c>
+      <c r="AB27">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC27">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>616262921000</v>
       </c>
+      <c r="Q28">
+        <v>1876019852400</v>
+      </c>
+      <c r="R28">
+        <v>1259756931400</v>
+      </c>
+      <c r="S28">
+        <v>128198000</v>
+      </c>
+      <c r="T28">
+        <v>82733300</v>
+      </c>
+      <c r="U28">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V28">
+        <v>39842980124</v>
+      </c>
+      <c r="W28">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X28">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y28">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z28">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA28">
+        <v>328843</v>
+      </c>
+      <c r="AB28">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC28">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>616319840000</v>
       </c>
+      <c r="Q29">
+        <v>1912939260500</v>
+      </c>
+      <c r="R29">
+        <v>1296619420500</v>
+      </c>
+      <c r="S29">
+        <v>130891000</v>
+      </c>
+      <c r="T29">
+        <v>84891400</v>
+      </c>
+      <c r="U29">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V29">
+        <v>39842980124</v>
+      </c>
+      <c r="W29">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X29">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y29">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z29">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA29">
+        <v>328843</v>
+      </c>
+      <c r="AB29">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>629396883800</v>
       </c>
+      <c r="Q30">
+        <v>1958540682500</v>
+      </c>
+      <c r="R30">
+        <v>1329143798700</v>
+      </c>
+      <c r="S30">
+        <v>134396700</v>
+      </c>
+      <c r="T30">
+        <v>86881400</v>
+      </c>
+      <c r="U30">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V30">
+        <v>39842980124</v>
+      </c>
+      <c r="W30">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X30">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y30">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z30">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA30">
+        <v>328843</v>
+      </c>
+      <c r="AB30">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC30">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>668326183500</v>
       </c>
+      <c r="Q31">
+        <v>2022272162600</v>
+      </c>
+      <c r="R31">
+        <v>1353945979100</v>
+      </c>
+      <c r="S31">
+        <v>139097200</v>
+      </c>
+      <c r="T31">
+        <v>88397900</v>
+      </c>
+      <c r="U31">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V31">
+        <v>39842980124</v>
+      </c>
+      <c r="W31">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X31">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y31">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z31">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA31">
+        <v>328843</v>
+      </c>
+      <c r="AB31">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC31">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>706635149000</v>
       </c>
+      <c r="Q32">
+        <v>2093626606400</v>
+      </c>
+      <c r="R32">
+        <v>1386991457400</v>
+      </c>
+      <c r="S32">
+        <v>144561800</v>
+      </c>
+      <c r="T32">
+        <v>90397100</v>
+      </c>
+      <c r="U32">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V32">
+        <v>39842980124</v>
+      </c>
+      <c r="W32">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X32">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y32">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z32">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA32">
+        <v>328843</v>
+      </c>
+      <c r="AB32">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC32">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>759132455800</v>
       </c>
+      <c r="Q33">
+        <v>2182294090900</v>
+      </c>
+      <c r="R33">
+        <v>1423161635100</v>
+      </c>
+      <c r="S33">
+        <v>150027900</v>
+      </c>
+      <c r="T33">
+        <v>92427000</v>
+      </c>
+      <c r="U33">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V33">
+        <v>39842980124</v>
+      </c>
+      <c r="W33">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X33">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y33">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z33">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA33">
+        <v>328843</v>
+      </c>
+      <c r="AB33">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC33">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>818776336500</v>
       </c>
+      <c r="Q34">
+        <v>2273586024900</v>
+      </c>
+      <c r="R34">
+        <v>1454809688400</v>
+      </c>
+      <c r="S34">
+        <v>157702100</v>
+      </c>
+      <c r="T34">
+        <v>94537500</v>
+      </c>
+      <c r="U34">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V34">
+        <v>39842980124</v>
+      </c>
+      <c r="W34">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X34">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y34">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z34">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA34">
+        <v>328843</v>
+      </c>
+      <c r="AB34">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC34">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>895460130700</v>
       </c>
+      <c r="Q35">
+        <v>2385931805100</v>
+      </c>
+      <c r="R35">
+        <v>1490471674400</v>
+      </c>
+      <c r="S35">
+        <v>165496700</v>
+      </c>
+      <c r="T35">
+        <v>96906300</v>
+      </c>
+      <c r="U35">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V35">
+        <v>39842980124</v>
+      </c>
+      <c r="W35">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X35">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y35">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z35">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA35">
+        <v>328843</v>
+      </c>
+      <c r="AB35">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC35">
+        <v>21</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>975274574100</v>
       </c>
+      <c r="Q36">
+        <v>2505190688800</v>
+      </c>
+      <c r="R36">
+        <v>1529916114700</v>
+      </c>
+      <c r="S36">
+        <v>173378800</v>
+      </c>
+      <c r="T36">
+        <v>99604600</v>
+      </c>
+      <c r="U36">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V36">
+        <v>39842980124</v>
+      </c>
+      <c r="W36">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X36">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y36">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z36">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA36">
+        <v>328843</v>
+      </c>
+      <c r="AB36">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC36">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>1004338271200</v>
       </c>
+      <c r="Q37">
+        <v>2580141091700</v>
+      </c>
+      <c r="R37">
+        <v>1575802820500</v>
+      </c>
+      <c r="S37">
+        <v>178240200</v>
+      </c>
+      <c r="T37">
+        <v>102589000</v>
+      </c>
+      <c r="U37">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V37">
+        <v>39842980124</v>
+      </c>
+      <c r="W37">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X37">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y37">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z37">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA37">
+        <v>328843</v>
+      </c>
+      <c r="AB37">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC37">
+        <v>8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>1016327793100</v>
       </c>
+      <c r="Q38">
+        <v>2633667676800</v>
+      </c>
+      <c r="R38">
+        <v>1617339883700</v>
+      </c>
+      <c r="S38">
+        <v>181407600</v>
+      </c>
+      <c r="T38">
+        <v>105764700</v>
+      </c>
+      <c r="U38">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V38">
+        <v>39842980124</v>
+      </c>
+      <c r="W38">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X38">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y38">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z38">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA38">
+        <v>328843</v>
+      </c>
+      <c r="AB38">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC38">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>1023551940200</v>
       </c>
+      <c r="Q39">
+        <v>2682313219900</v>
+      </c>
+      <c r="R39">
+        <v>1658761279700</v>
+      </c>
+      <c r="S39">
+        <v>184513700</v>
+      </c>
+      <c r="T39">
+        <v>108751900</v>
+      </c>
+      <c r="U39">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V39">
+        <v>39842980124</v>
+      </c>
+      <c r="W39">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X39">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y39">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z39">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA39">
+        <v>328843</v>
+      </c>
+      <c r="AB39">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC39">
+        <v>2</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>989641989500</v>
       </c>
+      <c r="Q40">
+        <v>2711409245500</v>
+      </c>
+      <c r="R40">
+        <v>1721767256000</v>
+      </c>
+      <c r="S40">
+        <v>186406600</v>
+      </c>
+      <c r="T40">
+        <v>112456300</v>
+      </c>
+      <c r="U40">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V40">
+        <v>39842980124</v>
+      </c>
+      <c r="W40">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X40">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y40">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z40">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA40">
+        <v>328843</v>
+      </c>
+      <c r="AB40">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC40">
+        <v>9.3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>951368725800</v>
       </c>
+      <c r="Q41">
+        <v>2735910992700</v>
+      </c>
+      <c r="R41">
+        <v>1784542266900</v>
+      </c>
+      <c r="S41">
+        <v>188120800</v>
+      </c>
+      <c r="T41">
+        <v>116837800</v>
+      </c>
+      <c r="U41">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V41">
+        <v>39842980124</v>
+      </c>
+      <c r="W41">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X41">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y41">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z41">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA41">
+        <v>328843</v>
+      </c>
+      <c r="AB41">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC41">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>931404941900</v>
       </c>
+      <c r="Q42">
+        <v>2762097981700</v>
+      </c>
+      <c r="R42">
+        <v>1830693039800</v>
+      </c>
+      <c r="S42">
+        <v>189633600</v>
+      </c>
+      <c r="T42">
+        <v>119807300</v>
+      </c>
+      <c r="U42">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V42">
+        <v>39842980124</v>
+      </c>
+      <c r="W42">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X42">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y42">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z42">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA42">
+        <v>328843</v>
+      </c>
+      <c r="AB42">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC42">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>900611739800</v>
       </c>
+      <c r="Q43">
+        <v>2793125043000</v>
+      </c>
+      <c r="R43">
+        <v>1892513303200</v>
+      </c>
+      <c r="S43">
+        <v>191451700</v>
+      </c>
+      <c r="T43">
+        <v>123658800</v>
+      </c>
+      <c r="U43">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V43">
+        <v>39842980124</v>
+      </c>
+      <c r="W43">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X43">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y43">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z43">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA43">
+        <v>328843</v>
+      </c>
+      <c r="AB43">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC43">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>885441751200</v>
       </c>
+      <c r="Q44">
+        <v>2815760912000</v>
+      </c>
+      <c r="R44">
+        <v>1930319160800</v>
+      </c>
+      <c r="S44">
+        <v>192702600</v>
+      </c>
+      <c r="T44">
+        <v>125934100</v>
+      </c>
+      <c r="U44">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V44">
+        <v>39842980124</v>
+      </c>
+      <c r="W44">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X44">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y44">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z44">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA44">
+        <v>328843</v>
+      </c>
+      <c r="AB44">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC44">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>866810105500</v>
       </c>
+      <c r="Q45">
+        <v>2836079640600</v>
+      </c>
+      <c r="R45">
+        <v>1969269535100</v>
+      </c>
+      <c r="S45">
+        <v>193908900</v>
+      </c>
+      <c r="T45">
+        <v>128311200</v>
+      </c>
+      <c r="U45">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V45">
+        <v>39842980124</v>
+      </c>
+      <c r="W45">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X45">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y45">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z45">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA45">
+        <v>328843</v>
+      </c>
+      <c r="AB45">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC45">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>859822036500</v>
       </c>
+      <c r="Q46">
+        <v>2858965407000</v>
+      </c>
+      <c r="R46">
+        <v>1999143370500</v>
+      </c>
+      <c r="S46">
+        <v>195097400</v>
+      </c>
+      <c r="T46">
+        <v>130328500</v>
+      </c>
+      <c r="U46">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V46">
+        <v>39842980124</v>
+      </c>
+      <c r="W46">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X46">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y46">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z46">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA46">
+        <v>328843</v>
+      </c>
+      <c r="AB46">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC46">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>835865935300</v>
       </c>
+      <c r="Q47">
+        <v>2873077218100</v>
+      </c>
+      <c r="R47">
+        <v>2037211282800</v>
+      </c>
+      <c r="S47">
+        <v>195932800</v>
+      </c>
+      <c r="T47">
+        <v>132938700</v>
+      </c>
+      <c r="U47">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V47">
+        <v>39842980124</v>
+      </c>
+      <c r="W47">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X47">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y47">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z47">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA47">
+        <v>328843</v>
+      </c>
+      <c r="AB47">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC47">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>818425292200</v>
       </c>
+      <c r="Q48">
+        <v>2892648840000</v>
+      </c>
+      <c r="R48">
+        <v>2074223547800</v>
+      </c>
+      <c r="S48">
+        <v>197138800</v>
+      </c>
+      <c r="T48">
+        <v>135063000</v>
+      </c>
+      <c r="U48">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V48">
+        <v>39842980124</v>
+      </c>
+      <c r="W48">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X48">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y48">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z48">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA48">
+        <v>328843</v>
+      </c>
+      <c r="AB48">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC48">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>797975766300</v>
       </c>
+      <c r="Q49">
+        <v>2915953773100</v>
+      </c>
+      <c r="R49">
+        <v>2117978006800</v>
+      </c>
+      <c r="S49">
+        <v>198441100</v>
+      </c>
+      <c r="T49">
+        <v>137840200</v>
+      </c>
+      <c r="U49">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V49">
+        <v>39842980124</v>
+      </c>
+      <c r="W49">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X49">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y49">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z49">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA49">
+        <v>328843</v>
+      </c>
+      <c r="AB49">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC49">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>770764519200</v>
       </c>
+      <c r="Q50">
+        <v>2932238898000</v>
+      </c>
+      <c r="R50">
+        <v>2161474378800</v>
+      </c>
+      <c r="S50">
+        <v>199469400</v>
+      </c>
+      <c r="T50">
+        <v>140342000</v>
+      </c>
+      <c r="U50">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V50">
+        <v>39842980124</v>
+      </c>
+      <c r="W50">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X50">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y50">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z50">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA50">
+        <v>328843</v>
+      </c>
+      <c r="AB50">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC50">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>758384180700</v>
       </c>
+      <c r="Q51">
+        <v>2951496402700</v>
+      </c>
+      <c r="R51">
+        <v>2193112222000</v>
+      </c>
+      <c r="S51">
+        <v>200674800</v>
+      </c>
+      <c r="T51">
+        <v>142417100</v>
+      </c>
+      <c r="U51">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V51">
+        <v>39842980124</v>
+      </c>
+      <c r="W51">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X51">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y51">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z51">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA51">
+        <v>328843</v>
+      </c>
+      <c r="AB51">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC51">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>766991483300</v>
       </c>
+      <c r="Q52">
+        <v>2982602058200</v>
+      </c>
+      <c r="R52">
+        <v>2215610574900</v>
+      </c>
+      <c r="S52">
+        <v>202519400</v>
+      </c>
+      <c r="T52">
+        <v>143780300</v>
+      </c>
+      <c r="U52">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V52">
+        <v>39842980124</v>
+      </c>
+      <c r="W52">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X52">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y52">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z52">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA52">
+        <v>328843</v>
+      </c>
+      <c r="AB52">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC52">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>776332805200</v>
       </c>
+      <c r="Q53">
+        <v>3009598575900</v>
+      </c>
+      <c r="R53">
+        <v>2233265770700</v>
+      </c>
+      <c r="S53">
+        <v>204393400</v>
+      </c>
+      <c r="T53">
+        <v>144911700</v>
+      </c>
+      <c r="U53">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V53">
+        <v>39842980124</v>
+      </c>
+      <c r="W53">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X53">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y53">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z53">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA53">
+        <v>328843</v>
+      </c>
+      <c r="AB53">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC53">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>795724588800</v>
       </c>
+      <c r="Q54">
+        <v>3040596092200</v>
+      </c>
+      <c r="R54">
+        <v>2244871503400</v>
+      </c>
+      <c r="S54">
+        <v>205978600</v>
+      </c>
+      <c r="T54">
+        <v>145655800</v>
+      </c>
+      <c r="U54">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V54">
+        <v>39842980124</v>
+      </c>
+      <c r="W54">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X54">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y54">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z54">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA54">
+        <v>328843</v>
+      </c>
+      <c r="AB54">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC54">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>795037956800</v>
       </c>
+      <c r="Q55">
+        <v>3057166475500</v>
+      </c>
+      <c r="R55">
+        <v>2262128518700</v>
+      </c>
+      <c r="S55">
+        <v>206912700</v>
+      </c>
+      <c r="T55">
+        <v>146778300</v>
+      </c>
+      <c r="U55">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V55">
+        <v>39842980124</v>
+      </c>
+      <c r="W55">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X55">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y55">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z55">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA55">
+        <v>328843</v>
+      </c>
+      <c r="AB55">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC55">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>785380733600</v>
       </c>
+      <c r="Q56">
+        <v>3069421841300</v>
+      </c>
+      <c r="R56">
+        <v>2284041107700</v>
+      </c>
+      <c r="S56">
+        <v>207630700</v>
+      </c>
+      <c r="T56">
+        <v>147981900</v>
+      </c>
+      <c r="U56">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V56">
+        <v>39842980124</v>
+      </c>
+      <c r="W56">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X56">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y56">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z56">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA56">
+        <v>328843</v>
+      </c>
+      <c r="AB56">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC56">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>782638185800</v>
       </c>
+      <c r="Q57">
+        <v>3086803599400</v>
+      </c>
+      <c r="R57">
+        <v>2304165413600</v>
+      </c>
+      <c r="S57">
+        <v>209114700</v>
+      </c>
+      <c r="T57">
+        <v>149247500</v>
+      </c>
+      <c r="U57">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V57">
+        <v>39842980124</v>
+      </c>
+      <c r="W57">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X57">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y57">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z57">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA57">
+        <v>328843</v>
+      </c>
+      <c r="AB57">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC57">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>783599289800</v>
       </c>
+      <c r="Q58">
+        <v>3112506235600</v>
+      </c>
+      <c r="R58">
+        <v>2328906945800</v>
+      </c>
+      <c r="S58">
+        <v>210265400</v>
+      </c>
+      <c r="T58">
+        <v>150836100</v>
+      </c>
+      <c r="U58">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V58">
+        <v>39842980124</v>
+      </c>
+      <c r="W58">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X58">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y58">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z58">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA58">
+        <v>328843</v>
+      </c>
+      <c r="AB58">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC58">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>776302731000</v>
       </c>
+      <c r="Q59">
+        <v>3128441845100</v>
+      </c>
+      <c r="R59">
+        <v>2352139114100</v>
+      </c>
+      <c r="S59">
+        <v>211321300</v>
+      </c>
+      <c r="T59">
+        <v>152258100</v>
+      </c>
+      <c r="U59">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V59">
+        <v>39842980124</v>
+      </c>
+      <c r="W59">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X59">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y59">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z59">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA59">
+        <v>328843</v>
+      </c>
+      <c r="AB59">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC59">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>756872648400</v>
       </c>
+      <c r="Q60">
+        <v>3143303954400</v>
+      </c>
+      <c r="R60">
+        <v>2386431306000</v>
+      </c>
+      <c r="S60">
+        <v>212296000</v>
+      </c>
+      <c r="T60">
+        <v>154077000</v>
+      </c>
+      <c r="U60">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V60">
+        <v>39842980124</v>
+      </c>
+      <c r="W60">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X60">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y60">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z60">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA60">
+        <v>328843</v>
+      </c>
+      <c r="AB60">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC60">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>738176495000</v>
       </c>
+      <c r="Q61">
+        <v>3157758606500</v>
+      </c>
+      <c r="R61">
+        <v>2419582111500</v>
+      </c>
+      <c r="S61">
+        <v>213078200</v>
+      </c>
+      <c r="T61">
+        <v>156060000</v>
+      </c>
+      <c r="U61">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V61">
+        <v>39842980124</v>
+      </c>
+      <c r="W61">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X61">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y61">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z61">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA61">
+        <v>328843</v>
+      </c>
+      <c r="AB61">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC61">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>721795063700</v>
       </c>
+      <c r="Q62">
+        <v>3172219846600</v>
+      </c>
+      <c r="R62">
+        <v>2450424782900</v>
+      </c>
+      <c r="S62">
+        <v>213971600</v>
+      </c>
+      <c r="T62">
+        <v>157901300</v>
+      </c>
+      <c r="U62">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V62">
+        <v>39842980124</v>
+      </c>
+      <c r="W62">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X62">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y62">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z62">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA62">
+        <v>328843</v>
+      </c>
+      <c r="AB62">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC62">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>716813798800</v>
       </c>
+      <c r="Q63">
+        <v>3186742141600</v>
+      </c>
+      <c r="R63">
+        <v>2469928342800</v>
+      </c>
+      <c r="S63">
+        <v>214721300</v>
+      </c>
+      <c r="T63">
+        <v>159507000</v>
+      </c>
+      <c r="U63">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V63">
+        <v>39842980124</v>
+      </c>
+      <c r="W63">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X63">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y63">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z63">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA63">
+        <v>328843</v>
+      </c>
+      <c r="AB63">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC63">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>673613355800</v>
       </c>
+      <c r="Q64">
+        <v>3200420614700</v>
+      </c>
+      <c r="R64">
+        <v>2526807258900</v>
+      </c>
+      <c r="S64">
+        <v>215439100</v>
+      </c>
+      <c r="T64">
+        <v>162793700</v>
+      </c>
+      <c r="U64">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V64">
+        <v>39842980124</v>
+      </c>
+      <c r="W64">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X64">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y64">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z64">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA64">
+        <v>328843</v>
+      </c>
+      <c r="AB64">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC64">
+        <v>11.9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>623681925500</v>
       </c>
+      <c r="Q65">
+        <v>3217413768800</v>
+      </c>
+      <c r="R65">
+        <v>2593731843300</v>
+      </c>
+      <c r="S65">
+        <v>216337000</v>
+      </c>
+      <c r="T65">
+        <v>167526000</v>
+      </c>
+      <c r="U65">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V65">
+        <v>39842980124</v>
+      </c>
+      <c r="W65">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X65">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y65">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z65">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA65">
+        <v>328843</v>
+      </c>
+      <c r="AB65">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC65">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>613194967600</v>
       </c>
+      <c r="Q66">
+        <v>3232301498800</v>
+      </c>
+      <c r="R66">
+        <v>2619106531200</v>
+      </c>
+      <c r="S66">
+        <v>217380300</v>
+      </c>
+      <c r="T66">
+        <v>169037000</v>
+      </c>
+      <c r="U66">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V66">
+        <v>39842980124</v>
+      </c>
+      <c r="W66">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X66">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y66">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z66">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA66">
+        <v>328843</v>
+      </c>
+      <c r="AB66">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC66">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>596542758000</v>
       </c>
+      <c r="Q67">
+        <v>3247371519200</v>
+      </c>
+      <c r="R67">
+        <v>2650828761200</v>
+      </c>
+      <c r="S67">
+        <v>218310700</v>
+      </c>
+      <c r="T67">
+        <v>170987100</v>
+      </c>
+      <c r="U67">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V67">
+        <v>39842980124</v>
+      </c>
+      <c r="W67">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X67">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y67">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z67">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA67">
+        <v>328843</v>
+      </c>
+      <c r="AB67">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC67">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>570411812500</v>
       </c>
+      <c r="Q68">
+        <v>3264847116800</v>
+      </c>
+      <c r="R68">
+        <v>2694435304300</v>
+      </c>
+      <c r="S68">
+        <v>219373700</v>
+      </c>
+      <c r="T68">
+        <v>173689300</v>
+      </c>
+      <c r="U68">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V68">
+        <v>39842980124</v>
+      </c>
+      <c r="W68">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X68">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y68">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z68">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA68">
+        <v>328843</v>
+      </c>
+      <c r="AB68">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC68">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>543020450200</v>
       </c>
+      <c r="Q69">
+        <v>3281411132200</v>
+      </c>
+      <c r="R69">
+        <v>2738390682000</v>
+      </c>
+      <c r="S69">
+        <v>220294900</v>
+      </c>
+      <c r="T69">
+        <v>176894600</v>
+      </c>
+      <c r="U69">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V69">
+        <v>39842980124</v>
+      </c>
+      <c r="W69">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X69">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y69">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z69">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA69">
+        <v>328843</v>
+      </c>
+      <c r="AB69">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC69">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>542526746200</v>
       </c>
+      <c r="Q70">
+        <v>3281468672200</v>
+      </c>
+      <c r="R70">
+        <v>2738941926000</v>
+      </c>
+      <c r="S70">
+        <v>220299600</v>
+      </c>
+      <c r="T70">
+        <v>176932100</v>
+      </c>
+      <c r="U70">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V70">
+        <v>39842980124</v>
+      </c>
+      <c r="W70">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X70">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y70">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z70">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA70">
+        <v>328843</v>
+      </c>
+      <c r="AB70">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC70">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>475838795600</v>
       </c>
+      <c r="Q71">
+        <v>3327509269300</v>
+      </c>
+      <c r="R71">
+        <v>2851670473700</v>
+      </c>
+      <c r="S71">
+        <v>223499100</v>
+      </c>
+      <c r="T71">
+        <v>184123600</v>
+      </c>
+      <c r="U71">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V71">
+        <v>39842980124</v>
+      </c>
+      <c r="W71">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X71">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y71">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z71">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA71">
+        <v>328843</v>
+      </c>
+      <c r="AB71">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC71">
+        <v>18.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>471182517500</v>
       </c>
+      <c r="Q72">
+        <v>3355750695800</v>
+      </c>
+      <c r="R72">
+        <v>2884568178300</v>
+      </c>
+      <c r="S72">
+        <v>225254700</v>
+      </c>
+      <c r="T72">
+        <v>186299600</v>
+      </c>
+      <c r="U72">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V72">
+        <v>39842980124</v>
+      </c>
+      <c r="W72">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X72">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y72">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z72">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA72">
+        <v>328843</v>
+      </c>
+      <c r="AB72">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC72">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>477503292100</v>
       </c>
+      <c r="Q73">
+        <v>3399385235600</v>
+      </c>
+      <c r="R73">
+        <v>2921881943500</v>
+      </c>
+      <c r="S73">
+        <v>228149700</v>
+      </c>
+      <c r="T73">
+        <v>188547000</v>
+      </c>
+      <c r="U73">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V73">
+        <v>39842980124</v>
+      </c>
+      <c r="W73">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X73">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y73">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z73">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA73">
+        <v>328843</v>
+      </c>
+      <c r="AB73">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC73">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>468769761400</v>
       </c>
+      <c r="Q74">
+        <v>3431167591700</v>
+      </c>
+      <c r="R74">
+        <v>2962397830300</v>
+      </c>
+      <c r="S74">
+        <v>230359500</v>
+      </c>
+      <c r="T74">
+        <v>191148400</v>
+      </c>
+      <c r="U74">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V74">
+        <v>39842980124</v>
+      </c>
+      <c r="W74">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X74">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y74">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z74">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA74">
+        <v>328843</v>
+      </c>
+      <c r="AB74">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC74">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>449439105600</v>
       </c>
+      <c r="Q75">
+        <v>3466136870500</v>
+      </c>
+      <c r="R75">
+        <v>3016697764900</v>
+      </c>
+      <c r="S75">
+        <v>232592500</v>
+      </c>
+      <c r="T75">
+        <v>194012300</v>
+      </c>
+      <c r="U75">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V75">
+        <v>39842980124</v>
+      </c>
+      <c r="W75">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X75">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y75">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z75">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA75">
+        <v>328843</v>
+      </c>
+      <c r="AB75">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC75">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>427211740700</v>
       </c>
+      <c r="Q76">
+        <v>3489369243500</v>
+      </c>
+      <c r="R76">
+        <v>3062157502800</v>
+      </c>
+      <c r="S76">
+        <v>234419400</v>
+      </c>
+      <c r="T76">
+        <v>196277000</v>
+      </c>
+      <c r="U76">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V76">
+        <v>39842980124</v>
+      </c>
+      <c r="W76">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X76">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y76">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z76">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA76">
+        <v>328843</v>
+      </c>
+      <c r="AB76">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC76">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>413804353000</v>
       </c>
+      <c r="Q77">
+        <v>3521722309100</v>
+      </c>
+      <c r="R77">
+        <v>3107917956100</v>
+      </c>
+      <c r="S77">
+        <v>237127800</v>
+      </c>
+      <c r="T77">
+        <v>199167900</v>
+      </c>
+      <c r="U77">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V77">
+        <v>39842980124</v>
+      </c>
+      <c r="W77">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X77">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y77">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z77">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA77">
+        <v>328843</v>
+      </c>
+      <c r="AB77">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC77">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>419658734200</v>
       </c>
+      <c r="Q78">
+        <v>3556240690800</v>
+      </c>
+      <c r="R78">
+        <v>3136581956600</v>
+      </c>
+      <c r="S78">
+        <v>239389000</v>
+      </c>
+      <c r="T78">
+        <v>200989900</v>
+      </c>
+      <c r="U78">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V78">
+        <v>39842980124</v>
+      </c>
+      <c r="W78">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X78">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y78">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z78">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA78">
+        <v>328843</v>
+      </c>
+      <c r="AB78">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC78">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>427520344400</v>
       </c>
+      <c r="Q79">
+        <v>3593664361400</v>
+      </c>
+      <c r="R79">
+        <v>3166144017000</v>
+      </c>
+      <c r="S79">
+        <v>241745500</v>
+      </c>
+      <c r="T79">
+        <v>202566300</v>
+      </c>
+      <c r="U79">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V79">
+        <v>39842980124</v>
+      </c>
+      <c r="W79">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X79">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y79">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z79">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA79">
+        <v>328843</v>
+      </c>
+      <c r="AB79">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC79">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>462701136200</v>
       </c>
+      <c r="Q80">
+        <v>3652563459700</v>
+      </c>
+      <c r="R80">
+        <v>3189862323500</v>
+      </c>
+      <c r="S80">
+        <v>245504600</v>
+      </c>
+      <c r="T80">
+        <v>203952700</v>
+      </c>
+      <c r="U80">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V80">
+        <v>39842980124</v>
+      </c>
+      <c r="W80">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X80">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y80">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z80">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA80">
+        <v>328843</v>
+      </c>
+      <c r="AB80">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC80">
+        <v>9.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>493505770000</v>
       </c>
+      <c r="Q81">
+        <v>3709983191300</v>
+      </c>
+      <c r="R81">
+        <v>3216477421300</v>
+      </c>
+      <c r="S81">
+        <v>249730300</v>
+      </c>
+      <c r="T81">
+        <v>205567500</v>
+      </c>
+      <c r="U81">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V81">
+        <v>39842980124</v>
+      </c>
+      <c r="W81">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X81">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y81">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z81">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA81">
+        <v>328843</v>
+      </c>
+      <c r="AB81">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC81">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>509105339800</v>
       </c>
+      <c r="Q82">
+        <v>3750310997800</v>
+      </c>
+      <c r="R82">
+        <v>3241205658000</v>
+      </c>
+      <c r="S82">
+        <v>252362900</v>
+      </c>
+      <c r="T82">
+        <v>207194500</v>
+      </c>
+      <c r="U82">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V82">
+        <v>39842980124</v>
+      </c>
+      <c r="W82">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X82">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y82">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z82">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA82">
+        <v>328843</v>
+      </c>
+      <c r="AB82">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC82">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>514813025500</v>
       </c>
+      <c r="Q83">
+        <v>3794072891500</v>
+      </c>
+      <c r="R83">
+        <v>3279259866000</v>
+      </c>
+      <c r="S83">
+        <v>255053100</v>
+      </c>
+      <c r="T83">
+        <v>209216900</v>
+      </c>
+      <c r="U83">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V83">
+        <v>39842980124</v>
+      </c>
+      <c r="W83">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X83">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y83">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z83">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA83">
+        <v>328843</v>
+      </c>
+      <c r="AB83">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC83">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>501335869900</v>
       </c>
+      <c r="Q84">
+        <v>3821481362900</v>
+      </c>
+      <c r="R84">
+        <v>3320145493000</v>
+      </c>
+      <c r="S84">
+        <v>256807200</v>
+      </c>
+      <c r="T84">
+        <v>211845700</v>
+      </c>
+      <c r="U84">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V84">
+        <v>39842980124</v>
+      </c>
+      <c r="W84">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X84">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y84">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z84">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA84">
+        <v>328843</v>
+      </c>
+      <c r="AB84">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC84">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>459533208900</v>
       </c>
+      <c r="Q85">
+        <v>3838921163400</v>
+      </c>
+      <c r="R85">
+        <v>3379387954500</v>
+      </c>
+      <c r="S85">
+        <v>258007100</v>
+      </c>
+      <c r="T85">
+        <v>215234400</v>
+      </c>
+      <c r="U85">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V85">
+        <v>39842980124</v>
+      </c>
+      <c r="W85">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X85">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y85">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z85">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA85">
+        <v>328843</v>
+      </c>
+      <c r="AB85">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC85">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>394453645600</v>
       </c>
+      <c r="Q86">
+        <v>3859614306600</v>
+      </c>
+      <c r="R86">
+        <v>3465160661000</v>
+      </c>
+      <c r="S86">
+        <v>259283000</v>
+      </c>
+      <c r="T86">
+        <v>221042500</v>
+      </c>
+      <c r="U86">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V86">
+        <v>39842980124</v>
+      </c>
+      <c r="W86">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X86">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y86">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z86">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA86">
+        <v>328843</v>
+      </c>
+      <c r="AB86">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC86">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>326819531500</v>
       </c>
+      <c r="Q87">
+        <v>3877217139200</v>
+      </c>
+      <c r="R87">
+        <v>3550397607700</v>
+      </c>
+      <c r="S87">
+        <v>260471900</v>
+      </c>
+      <c r="T87">
+        <v>226787400</v>
+      </c>
+      <c r="U87">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V87">
+        <v>39842980124</v>
+      </c>
+      <c r="W87">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X87">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y87">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z87">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA87">
+        <v>328843</v>
+      </c>
+      <c r="AB87">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC87">
+        <v>18.6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>296711781900</v>
       </c>
+      <c r="Q88">
+        <v>3908123651500</v>
+      </c>
+      <c r="R88">
+        <v>3611411869600</v>
+      </c>
+      <c r="S88">
+        <v>262412600</v>
+      </c>
+      <c r="T88">
+        <v>230676100</v>
+      </c>
+      <c r="U88">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V88">
+        <v>39842980124</v>
+      </c>
+      <c r="W88">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X88">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y88">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z88">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA88">
+        <v>328843</v>
+      </c>
+      <c r="AB88">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC88">
+        <v>8.3</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>302509637200</v>
       </c>
+      <c r="Q89">
+        <v>3943175450800</v>
+      </c>
+      <c r="R89">
+        <v>3640665813600</v>
+      </c>
+      <c r="S89">
+        <v>264773200</v>
+      </c>
+      <c r="T89">
+        <v>232850700</v>
+      </c>
+      <c r="U89">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V89">
+        <v>39842980124</v>
+      </c>
+      <c r="W89">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X89">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y89">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z89">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA89">
+        <v>328843</v>
+      </c>
+      <c r="AB89">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC89">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>319830593300</v>
       </c>
+      <c r="Q90">
+        <v>3980831979400</v>
+      </c>
+      <c r="R90">
+        <v>3661001386100</v>
+      </c>
+      <c r="S90">
+        <v>266802700</v>
+      </c>
+      <c r="T90">
+        <v>234332000</v>
+      </c>
+      <c r="U90">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V90">
+        <v>39842980124</v>
+      </c>
+      <c r="W90">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X90">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y90">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z90">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA90">
+        <v>328843</v>
+      </c>
+      <c r="AB90">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC90">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>308219785400</v>
       </c>
+      <c r="Q91">
+        <v>4001153838700</v>
+      </c>
+      <c r="R91">
+        <v>3692934053300</v>
+      </c>
+      <c r="S91">
+        <v>268371700</v>
+      </c>
+      <c r="T91">
+        <v>236474700</v>
+      </c>
+      <c r="U91">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V91">
+        <v>39842980124</v>
+      </c>
+      <c r="W91">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X91">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y91">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z91">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA91">
+        <v>328843</v>
+      </c>
+      <c r="AB91">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC91">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>277416764400</v>
       </c>
+      <c r="Q92">
+        <v>4023364617900</v>
+      </c>
+      <c r="R92">
+        <v>3745947853500</v>
+      </c>
+      <c r="S92">
+        <v>269828500</v>
+      </c>
+      <c r="T92">
+        <v>239847300</v>
+      </c>
+      <c r="U92">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V92">
+        <v>39842980124</v>
+      </c>
+      <c r="W92">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X92">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y92">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z92">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA92">
+        <v>328843</v>
+      </c>
+      <c r="AB92">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC92">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>268965307700</v>
       </c>
+      <c r="Q93">
+        <v>4043423351100</v>
+      </c>
+      <c r="R93">
+        <v>3774458043400</v>
+      </c>
+      <c r="S93">
+        <v>271139300</v>
+      </c>
+      <c r="T93">
+        <v>241746800</v>
+      </c>
+      <c r="U93">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V93">
+        <v>39842980124</v>
+      </c>
+      <c r="W93">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X93">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y93">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z93">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA93">
+        <v>328843</v>
+      </c>
+      <c r="AB93">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC93">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>272863692700</v>
       </c>
+      <c r="Q94">
+        <v>4072167356000</v>
+      </c>
+      <c r="R94">
+        <v>3799303663300</v>
+      </c>
+      <c r="S94">
+        <v>273172300</v>
+      </c>
+      <c r="T94">
+        <v>243305800</v>
+      </c>
+      <c r="U94">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V94">
+        <v>39842980124</v>
+      </c>
+      <c r="W94">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X94">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y94">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z94">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA94">
+        <v>328843</v>
+      </c>
+      <c r="AB94">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC94">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>280602656100</v>
       </c>
+      <c r="Q95">
+        <v>4109379566900</v>
+      </c>
+      <c r="R95">
+        <v>3828776910800</v>
+      </c>
+      <c r="S95">
+        <v>275729000</v>
+      </c>
+      <c r="T95">
+        <v>245168100</v>
+      </c>
+      <c r="U95">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V95">
+        <v>39842980124</v>
+      </c>
+      <c r="W95">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X95">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y95">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z95">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA95">
+        <v>328843</v>
+      </c>
+      <c r="AB95">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC95">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>309416755100</v>
       </c>
+      <c r="Q96">
+        <v>4163132795400</v>
+      </c>
+      <c r="R96">
+        <v>3853716040300</v>
+      </c>
+      <c r="S96">
+        <v>278964300</v>
+      </c>
+      <c r="T96">
+        <v>246722800</v>
+      </c>
+      <c r="U96">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V96">
+        <v>39842980124</v>
+      </c>
+      <c r="W96">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X96">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y96">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z96">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA96">
+        <v>328843</v>
+      </c>
+      <c r="AB96">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC96">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>345712775000</v>
       </c>
+      <c r="Q97">
+        <v>4222118954300</v>
+      </c>
+      <c r="R97">
+        <v>3876406179300</v>
+      </c>
+      <c r="S97">
+        <v>282573700</v>
+      </c>
+      <c r="T97">
+        <v>248325500</v>
+      </c>
+      <c r="U97">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V97">
+        <v>39842980124</v>
+      </c>
+      <c r="W97">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X97">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y97">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z97">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA97">
+        <v>328843</v>
+      </c>
+      <c r="AB97">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC97">
+        <v>10</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>394199018000</v>
       </c>
+      <c r="Q98">
+        <v>4297371917900</v>
+      </c>
+      <c r="R98">
+        <v>3903172899900</v>
+      </c>
+      <c r="S98">
+        <v>286763800</v>
+      </c>
+      <c r="T98">
+        <v>249791900</v>
+      </c>
+      <c r="U98">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V98">
+        <v>39842980124</v>
+      </c>
+      <c r="W98">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X98">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y98">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z98">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA98">
+        <v>328843</v>
+      </c>
+      <c r="AB98">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC98">
+        <v>13.3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>379636119800</v>
       </c>
+      <c r="Q99">
+        <v>4329235151600</v>
+      </c>
+      <c r="R99">
+        <v>3949599031800</v>
+      </c>
+      <c r="S99">
+        <v>289032700</v>
+      </c>
+      <c r="T99">
+        <v>252417500</v>
+      </c>
+      <c r="U99">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V99">
+        <v>39842980124</v>
+      </c>
+      <c r="W99">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X99">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y99">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z99">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA99">
+        <v>328843</v>
+      </c>
+      <c r="AB99">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC99">
+        <v>4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>348585211200</v>
       </c>
+      <c r="Q100">
+        <v>4350222067800</v>
+      </c>
+      <c r="R100">
+        <v>4001636856600</v>
+      </c>
+      <c r="S100">
+        <v>290259200</v>
+      </c>
+      <c r="T100">
+        <v>255814900</v>
+      </c>
+      <c r="U100">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V100">
+        <v>39842980124</v>
+      </c>
+      <c r="W100">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X100">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y100">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z100">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA100">
+        <v>328843</v>
+      </c>
+      <c r="AB100">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC100">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>340200641700</v>
       </c>
+      <c r="Q101">
+        <v>4382174532800</v>
+      </c>
+      <c r="R101">
+        <v>4041973891100</v>
+      </c>
+      <c r="S101">
+        <v>292094300</v>
+      </c>
+      <c r="T101">
+        <v>258256100</v>
+      </c>
+      <c r="U101">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V101">
+        <v>39842980124</v>
+      </c>
+      <c r="W101">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X101">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y101">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z101">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA101">
+        <v>328843</v>
+      </c>
+      <c r="AB101">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC101">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>331896373500</v>
       </c>
+      <c r="Q102">
+        <v>4413924219600</v>
+      </c>
+      <c r="R102">
+        <v>4082027846100</v>
+      </c>
+      <c r="S102">
+        <v>293747400</v>
+      </c>
+      <c r="T102">
+        <v>260455800</v>
+      </c>
+      <c r="U102">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V102">
+        <v>39842980124</v>
+      </c>
+      <c r="W102">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X102">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y102">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z102">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA102">
+        <v>328843</v>
+      </c>
+      <c r="AB102">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC102">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>341839669300</v>
       </c>
+      <c r="Q103">
+        <v>4453440078300</v>
+      </c>
+      <c r="R103">
+        <v>4111600409000</v>
+      </c>
+      <c r="S103">
+        <v>295992300</v>
+      </c>
+      <c r="T103">
+        <v>262336400</v>
+      </c>
+      <c r="U103">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V103">
+        <v>39842980124</v>
+      </c>
+      <c r="W103">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X103">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y103">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z103">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA103">
+        <v>328843</v>
+      </c>
+      <c r="AB103">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC103">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>373706011500</v>
       </c>
+      <c r="Q104">
+        <v>4505080101700</v>
+      </c>
+      <c r="R104">
+        <v>4131374090200</v>
+      </c>
+      <c r="S104">
+        <v>298904400</v>
+      </c>
+      <c r="T104">
+        <v>264130000</v>
+      </c>
+      <c r="U104">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V104">
+        <v>39842980124</v>
+      </c>
+      <c r="W104">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X104">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y104">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z104">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA104">
+        <v>328843</v>
+      </c>
+      <c r="AB104">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC104">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>437922085900</v>
       </c>
+      <c r="Q105">
+        <v>4592805519100</v>
+      </c>
+      <c r="R105">
+        <v>4154883433200</v>
+      </c>
+      <c r="S105">
+        <v>303709100</v>
+      </c>
+      <c r="T105">
+        <v>265555900</v>
+      </c>
+      <c r="U105">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V105">
+        <v>39842980124</v>
+      </c>
+      <c r="W105">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X105">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y105">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z105">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA105">
+        <v>328843</v>
+      </c>
+      <c r="AB105">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC105">
+        <v>17.6</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>487904579500</v>
       </c>
+      <c r="Q106">
+        <v>4670089093600</v>
+      </c>
+      <c r="R106">
+        <v>4182184514100</v>
+      </c>
+      <c r="S106">
+        <v>308630500</v>
+      </c>
+      <c r="T106">
+        <v>267053100</v>
+      </c>
+      <c r="U106">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V106">
+        <v>39842980124</v>
+      </c>
+      <c r="W106">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X106">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y106">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z106">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA106">
+        <v>328843</v>
+      </c>
+      <c r="AB106">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC106">
+        <v>13.7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>506790866200</v>
       </c>
+      <c r="Q107">
+        <v>4740751873100</v>
+      </c>
+      <c r="R107">
+        <v>4233961006900</v>
+      </c>
+      <c r="S107">
+        <v>313139800</v>
+      </c>
+      <c r="T107">
+        <v>270270000</v>
+      </c>
+      <c r="U107">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V107">
+        <v>39842980124</v>
+      </c>
+      <c r="W107">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X107">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y107">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z107">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA107">
+        <v>328843</v>
+      </c>
+      <c r="AB107">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC107">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>511654784000</v>
       </c>
+      <c r="Q108">
+        <v>4784359313000</v>
+      </c>
+      <c r="R108">
+        <v>4272704529000</v>
+      </c>
+      <c r="S108">
+        <v>315477600</v>
+      </c>
+      <c r="T108">
+        <v>272287800</v>
+      </c>
+      <c r="U108">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V108">
+        <v>39842980124</v>
+      </c>
+      <c r="W108">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X108">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y108">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z108">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA108">
+        <v>328843</v>
+      </c>
+      <c r="AB108">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC108">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>499842244800</v>
       </c>
+      <c r="Q109">
+        <v>4830387959800</v>
+      </c>
+      <c r="R109">
+        <v>4330545715000</v>
+      </c>
+      <c r="S109">
+        <v>318135000</v>
+      </c>
+      <c r="T109">
+        <v>275096300</v>
+      </c>
+      <c r="U109">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V109">
+        <v>39842980124</v>
+      </c>
+      <c r="W109">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X109">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y109">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z109">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA109">
+        <v>328843</v>
+      </c>
+      <c r="AB109">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC109">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>478570520700</v>
       </c>
+      <c r="Q110">
+        <v>4873798920300</v>
+      </c>
+      <c r="R110">
+        <v>4395228399600</v>
+      </c>
+      <c r="S110">
+        <v>320427600</v>
+      </c>
+      <c r="T110">
+        <v>279494600</v>
+      </c>
+      <c r="U110">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V110">
+        <v>39842980124</v>
+      </c>
+      <c r="W110">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X110">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y110">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z110">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA110">
+        <v>328843</v>
+      </c>
+      <c r="AB110">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC110">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>411523054000</v>
       </c>
+      <c r="Q111">
+        <v>4912494462700</v>
+      </c>
+      <c r="R111">
+        <v>4500971408700</v>
+      </c>
+      <c r="S111">
+        <v>322576100</v>
+      </c>
+      <c r="T111">
+        <v>286524100</v>
+      </c>
+      <c r="U111">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V111">
+        <v>39842980124</v>
+      </c>
+      <c r="W111">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X111">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y111">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z111">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA111">
+        <v>328843</v>
+      </c>
+      <c r="AB111">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC111">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>355278113400</v>
       </c>
+      <c r="Q112">
+        <v>4947873327300</v>
+      </c>
+      <c r="R112">
+        <v>4592595213900</v>
+      </c>
+      <c r="S112">
+        <v>324880800</v>
+      </c>
+      <c r="T112">
+        <v>292051500</v>
+      </c>
+      <c r="U112">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V112">
+        <v>39842980124</v>
+      </c>
+      <c r="W112">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X112">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y112">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z112">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA112">
+        <v>328843</v>
+      </c>
+      <c r="AB112">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC112">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>358375728600</v>
       </c>
+      <c r="Q113">
+        <v>5007612076800</v>
+      </c>
+      <c r="R113">
+        <v>4649236348200</v>
+      </c>
+      <c r="S113">
+        <v>328615000</v>
+      </c>
+      <c r="T113">
+        <v>295236500</v>
+      </c>
+      <c r="U113">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V113">
+        <v>39842980124</v>
+      </c>
+      <c r="W113">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X113">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y113">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z113">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA113">
+        <v>328843</v>
+      </c>
+      <c r="AB113">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC113">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>357491993500</v>
       </c>
+      <c r="Q114">
+        <v>5066013897400</v>
+      </c>
+      <c r="R114">
+        <v>4708521903900</v>
+      </c>
+      <c r="S114">
+        <v>332198000</v>
+      </c>
+      <c r="T114">
+        <v>299005300</v>
+      </c>
+      <c r="U114">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V114">
+        <v>39842980124</v>
+      </c>
+      <c r="W114">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X114">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y114">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z114">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA114">
+        <v>328843</v>
+      </c>
+      <c r="AB114">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC114">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>324398096700</v>
       </c>
+      <c r="Q115">
+        <v>5119532684700</v>
+      </c>
+      <c r="R115">
+        <v>4795134588000</v>
+      </c>
+      <c r="S115">
+        <v>336379000</v>
+      </c>
+      <c r="T115">
+        <v>304588300</v>
+      </c>
+      <c r="U115">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V115">
+        <v>39842980124</v>
+      </c>
+      <c r="W115">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X115">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y115">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z115">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA115">
+        <v>328843</v>
+      </c>
+      <c r="AB115">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC115">
+        <v>9.1</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>324285290300</v>
       </c>
+      <c r="Q116">
+        <v>5119654593300</v>
+      </c>
+      <c r="R116">
+        <v>4795369303000</v>
+      </c>
+      <c r="S116">
+        <v>336391800</v>
+      </c>
+      <c r="T116">
+        <v>304599200</v>
+      </c>
+      <c r="U116">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V116">
+        <v>39842980124</v>
+      </c>
+      <c r="W116">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X116">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y116">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z116">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA116">
+        <v>328843</v>
+      </c>
+      <c r="AB116">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>324335790300</v>
       </c>
+      <c r="Q117">
+        <v>5119705093300</v>
+      </c>
+      <c r="R117">
+        <v>4795369303000</v>
+      </c>
+      <c r="S117">
+        <v>336396800</v>
+      </c>
+      <c r="T117">
+        <v>304599200</v>
+      </c>
+      <c r="U117">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V117">
+        <v>39842980124</v>
+      </c>
+      <c r="W117">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X117">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y117">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z117">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA117">
+        <v>328843</v>
+      </c>
+      <c r="AB117">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>324343870300</v>
       </c>
+      <c r="Q118">
+        <v>5119713173300</v>
+      </c>
+      <c r="R118">
+        <v>4795369303000</v>
+      </c>
+      <c r="S118">
+        <v>336397600</v>
+      </c>
+      <c r="T118">
+        <v>304599200</v>
+      </c>
+      <c r="U118">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V118">
+        <v>39842980124</v>
+      </c>
+      <c r="W118">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X118">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y118">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z118">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA118">
+        <v>328843</v>
+      </c>
+      <c r="AB118">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>324345900300</v>
       </c>
+      <c r="Q119">
+        <v>5119715203300</v>
+      </c>
+      <c r="R119">
+        <v>4795369303000</v>
+      </c>
+      <c r="S119">
+        <v>336397800</v>
+      </c>
+      <c r="T119">
+        <v>304599200</v>
+      </c>
+      <c r="U119">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V119">
+        <v>39842980124</v>
+      </c>
+      <c r="W119">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X119">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y119">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z119">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA119">
+        <v>328843</v>
+      </c>
+      <c r="AB119">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>441157066600</v>
       </c>
+      <c r="Q120">
+        <v>5261875411600</v>
+      </c>
+      <c r="R120">
+        <v>4820718345000</v>
+      </c>
+      <c r="S120">
+        <v>347230000</v>
+      </c>
+      <c r="T120">
+        <v>307411500</v>
+      </c>
+      <c r="U120">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V120">
+        <v>39842980124</v>
+      </c>
+      <c r="W120">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X120">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y120">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z120">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA120">
+        <v>328843</v>
+      </c>
+      <c r="AB120">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC120">
+        <v>32.1</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>441152016600</v>
       </c>
+      <c r="Q121">
+        <v>5261875411600</v>
+      </c>
+      <c r="R121">
+        <v>4820723395000</v>
+      </c>
+      <c r="S121">
+        <v>347230000</v>
+      </c>
+      <c r="T121">
+        <v>307412000</v>
+      </c>
+      <c r="U121">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V121">
+        <v>39842980124</v>
+      </c>
+      <c r="W121">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X121">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y121">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z121">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA121">
+        <v>328843</v>
+      </c>
+      <c r="AB121">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,10 +11220,49 @@
       <c r="P122">
         <v>440874816600</v>
       </c>
+      <c r="Q122">
+        <v>5261875411600</v>
+      </c>
+      <c r="R122">
+        <v>4821000595000</v>
+      </c>
+      <c r="S122">
+        <v>347230000</v>
+      </c>
+      <c r="T122">
+        <v>307440000</v>
+      </c>
+      <c r="U122">
+        <v>43486573649.6</v>
+      </c>
+      <c r="V122">
+        <v>39842980124</v>
+      </c>
+      <c r="W122">
+        <v>100053895917.4</v>
+      </c>
+      <c r="X122">
+        <v>6239306.6</v>
+      </c>
+      <c r="Y122">
+        <v>2869669.4</v>
+      </c>
+      <c r="Z122">
+        <v>2540826.4</v>
+      </c>
+      <c r="AA122">
+        <v>328843</v>
+      </c>
+      <c r="AB122">
+        <v>3643593525.6</v>
+      </c>
+      <c r="AC122">
+        <v>0.1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P122"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC122"/>
   </ignoredErrors>
 </worksheet>
 </file>